--- a/サンプルプロジェクト/設計書/Nablarchを使用した開発の流れ.xlsx
+++ b/サンプルプロジェクト/設計書/Nablarchを使用した開発の流れ.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD94B68-32DE-4978-9B0F-8EDF639CF2D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="285" windowWidth="23565" windowHeight="8190" tabRatio="822" activeTab="2"/>
+    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="822" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="24" r:id="rId1"/>
@@ -17,7 +18,18 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$39</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -238,7 +250,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
@@ -816,87 +828,6 @@
     <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1014,15 +945,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="パーセント 2" xfId="6"/>
+    <cellStyle name="パーセント 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="3"/>
-    <cellStyle name="標準 2 2" xfId="5"/>
-    <cellStyle name="標準 3" xfId="4"/>
-    <cellStyle name="標準_画面標準" xfId="1"/>
-    <cellStyle name="標準_画面標準定義" xfId="2"/>
+    <cellStyle name="標準 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1034,6 +1046,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1056,7 +1071,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 17"/>
+        <xdr:cNvPr id="2" name="Group 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -1071,7 +1092,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Text Box 12"/>
+          <xdr:cNvPr id="3" name="Text Box 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1155,7 +1182,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Text Box 13"/>
+          <xdr:cNvPr id="4" name="Text Box 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1255,7 +1288,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Text Box 18"/>
+        <xdr:cNvPr id="5" name="Text Box 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1373,7 +1412,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="296" name="カギ線コネクタ 295"/>
+        <xdr:cNvPr id="296" name="カギ線コネクタ 295">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000028010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="358" idx="3"/>
           <a:endCxn id="690" idx="1"/>
@@ -1428,7 +1473,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="358" name="メモ 357"/>
+        <xdr:cNvPr id="358" name="メモ 357">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000066010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -1449,7 +1500,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1678,7 +1728,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="152" name="メモ 151"/>
+        <xdr:cNvPr id="152" name="メモ 151">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000098000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -1702,7 +1758,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -1929,7 +1984,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="曲折矢印 1"/>
+        <xdr:cNvPr id="2" name="曲折矢印 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -1955,7 +2016,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2025,7 +2085,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2091,7 +2157,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2160,7 +2232,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="角丸四角形 4"/>
+        <xdr:cNvPr id="5" name="角丸四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -2182,7 +2260,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2252,7 +2329,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2318,7 +2401,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線矢印コネクタ 10"/>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
@@ -2340,7 +2429,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2374,7 +2462,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直線矢印コネクタ 11"/>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
@@ -2396,7 +2490,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2430,7 +2523,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="ホームベース 13"/>
+        <xdr:cNvPr id="14" name="ホームベース 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -2453,7 +2552,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2681,7 +2779,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="山形 14"/>
+        <xdr:cNvPr id="15" name="山形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -2704,7 +2808,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2938,7 +3041,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="山形 15"/>
+        <xdr:cNvPr id="16" name="山形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -2963,7 +3072,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3213,7 +3321,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="メモ 16"/>
+        <xdr:cNvPr id="17" name="メモ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -3234,7 +3348,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3514,7 +3627,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="メモ 17"/>
+        <xdr:cNvPr id="18" name="メモ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -3535,7 +3654,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3818,7 +3936,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="円柱 18"/>
+        <xdr:cNvPr id="19" name="円柱 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4087,7 +4211,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="フローチャート : 代替処理 26"/>
+        <xdr:cNvPr id="27" name="フローチャート : 代替処理 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -4105,7 +4235,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -4351,7 +4480,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="フローチャート: 処理 28"/>
+        <xdr:cNvPr id="29" name="フローチャート: 処理 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4420,7 +4555,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="メモ 29"/>
+        <xdr:cNvPr id="30" name="メモ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -4441,7 +4582,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4660,7 +4800,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="正方形/長方形 32"/>
+        <xdr:cNvPr id="33" name="正方形/長方形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4736,7 +4882,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="メモ 33"/>
+        <xdr:cNvPr id="34" name="メモ 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -4762,7 +4914,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -5009,7 +5160,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="フローチャート : 代替処理 35"/>
+        <xdr:cNvPr id="36" name="フローチャート : 代替処理 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -5027,7 +5184,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -5317,7 +5473,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="メモ 36"/>
+        <xdr:cNvPr id="37" name="メモ 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -5343,7 +5505,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -5590,7 +5751,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="フローチャート : 代替処理 37"/>
+        <xdr:cNvPr id="38" name="フローチャート : 代替処理 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -5608,7 +5775,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -5898,7 +6064,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="メモ 39"/>
+        <xdr:cNvPr id="40" name="メモ 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -5924,7 +6096,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -6207,7 +6378,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="フローチャート : 代替処理 41"/>
+        <xdr:cNvPr id="42" name="フローチャート : 代替処理 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -6225,7 +6402,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -6515,7 +6691,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="メモ 42"/>
+        <xdr:cNvPr id="43" name="メモ 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -6541,7 +6723,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -6832,7 +7013,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="メモ 46"/>
+        <xdr:cNvPr id="47" name="メモ 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -6853,7 +7040,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -7095,7 +7281,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="Rectangle 38"/>
+        <xdr:cNvPr id="48" name="Rectangle 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7352,7 +7544,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="正方形/長方形 48"/>
+        <xdr:cNvPr id="49" name="正方形/長方形 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7428,7 +7626,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="図 12" descr="C:\Documents and Settings\tis301227\Local Settings\Temporary Internet Files\Content.IE5\67Q664PZ\MC900428969[1].wmf"/>
+        <xdr:cNvPr id="50" name="図 12" descr="C:\Documents and Settings\tis301227\Local Settings\Temporary Internet Files\Content.IE5\67Q664PZ\MC900428969[1].wmf">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7496,7 +7700,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="Rectangle 83"/>
+        <xdr:cNvPr id="51" name="Rectangle 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7779,7 +7989,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="フローチャート : 代替処理 51"/>
+        <xdr:cNvPr id="52" name="フローチャート : 代替処理 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -7797,7 +8013,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -8043,7 +8258,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="正方形/長方形 52"/>
+        <xdr:cNvPr id="53" name="正方形/長方形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8108,7 +8329,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="Rectangle 83"/>
+        <xdr:cNvPr id="54" name="Rectangle 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8402,7 +8629,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="山形 54"/>
+        <xdr:cNvPr id="55" name="山形 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -8430,7 +8663,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -8650,7 +8882,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="フローチャート : カード 20"/>
+        <xdr:cNvPr id="56" name="フローチャート : カード 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8746,20 +8984,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="57" name="グループ化 56"/>
+        <xdr:cNvPr id="57" name="グループ化 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="16417181" y="1966230"/>
-          <a:ext cx="851644" cy="881745"/>
+          <a:off x="16614825" y="1944799"/>
+          <a:ext cx="863550" cy="853170"/>
           <a:chOff x="15677028" y="9610164"/>
           <a:chExt cx="858367" cy="856130"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="58" name="右カーブ矢印 57"/>
+          <xdr:cNvPr id="58" name="右カーブ矢印 57">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
@@ -8780,7 +9030,6 @@
             <a:headEnd type="none" w="med" len="med"/>
             <a:tailEnd type="none" w="med" len="med"/>
           </a:ln>
-          <a:extLst/>
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="0">
@@ -8833,7 +9082,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="59" name="右カーブ矢印 58"/>
+          <xdr:cNvPr id="59" name="右カーブ矢印 58">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
@@ -8854,7 +9109,6 @@
             <a:headEnd type="none" w="med" len="med"/>
             <a:tailEnd type="none" w="med" len="med"/>
           </a:ln>
-          <a:extLst/>
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="0">
@@ -8923,7 +9177,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="図 59"/>
+        <xdr:cNvPr id="60" name="図 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8967,20 +9227,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="371" name="グループ化 370"/>
+        <xdr:cNvPr id="371" name="グループ化 370">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000073010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6362700" y="12296775"/>
-          <a:ext cx="517620" cy="335618"/>
+          <a:off x="6441281" y="11984831"/>
+          <a:ext cx="524764" cy="326093"/>
           <a:chOff x="6686550" y="13626923"/>
           <a:chExt cx="517620" cy="335618"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="63" name="図 62"/>
+          <xdr:cNvPr id="63" name="図 62">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -9009,7 +9281,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="64" name="Rectangle 38"/>
+          <xdr:cNvPr id="64" name="Rectangle 38">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000040000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -9267,7 +9545,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="Rectangle 38"/>
+        <xdr:cNvPr id="66" name="Rectangle 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -9531,7 +9815,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="Rectangle 38"/>
+        <xdr:cNvPr id="67" name="Rectangle 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -9795,7 +10085,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="メモ 67"/>
+        <xdr:cNvPr id="68" name="メモ 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -9821,7 +10117,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -10040,7 +10335,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="メモ 68"/>
+        <xdr:cNvPr id="69" name="メモ 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000045000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -10066,7 +10367,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -10285,7 +10585,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="74" name="フローチャート : 代替処理 73"/>
+        <xdr:cNvPr id="74" name="フローチャート : 代替処理 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -10303,7 +10609,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -10552,7 +10857,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="80" name="Picture 103" descr="MC900432614"/>
+        <xdr:cNvPr id="80" name="Picture 103" descr="MC900432614">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000050000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10607,7 +10918,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="81" name="直線矢印コネクタ 80"/>
+        <xdr:cNvPr id="81" name="直線矢印コネクタ 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000051000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="52" idx="3"/>
           <a:endCxn id="53" idx="1"/>
@@ -10663,20 +10980,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="903" name="グループ化 902"/>
+        <xdr:cNvPr id="903" name="グループ化 902">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000087030000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16226559" y="12265299"/>
-          <a:ext cx="1615497" cy="528503"/>
+          <a:off x="16421822" y="11958118"/>
+          <a:ext cx="1634547" cy="514215"/>
           <a:chOff x="16049625" y="10126671"/>
           <a:chExt cx="1619250" cy="526771"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="45" name="Rectangle 38"/>
+          <xdr:cNvPr id="45" name="Rectangle 38">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -10956,7 +11285,13 @@
       </xdr:sp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="61" name="図 60"/>
+          <xdr:cNvPr id="61" name="図 60">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -10985,7 +11320,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="82" name="正方形/長方形 81"/>
+          <xdr:cNvPr id="82" name="正方形/長方形 81">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000052000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11058,7 +11399,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="83" name="正方形/長方形 82"/>
+        <xdr:cNvPr id="83" name="正方形/長方形 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000053000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11134,7 +11481,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="84" name="正方形/長方形 83"/>
+        <xdr:cNvPr id="84" name="正方形/長方形 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000054000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11210,7 +11563,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="92" name="直線矢印コネクタ 91"/>
+        <xdr:cNvPr id="92" name="直線矢印コネクタ 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="74" idx="3"/>
           <a:endCxn id="63" idx="1"/>
@@ -11266,7 +11625,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="93" name="フローチャート : 代替処理 92"/>
+        <xdr:cNvPr id="93" name="フローチャート : 代替処理 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -11284,7 +11649,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -11533,7 +11897,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="94" name="カギ線コネクタ 93"/>
+        <xdr:cNvPr id="94" name="カギ線コネクタ 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="18" idx="3"/>
           <a:endCxn id="93" idx="1"/>
@@ -11558,7 +11928,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -11592,7 +11961,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="95" name="メモ 94"/>
+        <xdr:cNvPr id="95" name="メモ 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -11613,7 +11988,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -11896,7 +12270,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="102" name="フローチャート : カード 20"/>
+        <xdr:cNvPr id="102" name="フローチャート : カード 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000066000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11968,7 +12348,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="103" name="Picture 103" descr="MC900432614"/>
+        <xdr:cNvPr id="103" name="Picture 103" descr="MC900432614">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000067000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -12023,7 +12409,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="104" name="直線矢印コネクタ 103"/>
+        <xdr:cNvPr id="104" name="直線矢印コネクタ 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000068000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="95" idx="2"/>
           <a:endCxn id="102" idx="0"/>
@@ -12077,7 +12469,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="105" name="正方形/長方形 104"/>
+        <xdr:cNvPr id="105" name="正方形/長方形 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000069000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12143,7 +12541,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="106" name="正方形/長方形 105"/>
+        <xdr:cNvPr id="106" name="正方形/長方形 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12219,7 +12623,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="109" name="正方形/長方形 108"/>
+        <xdr:cNvPr id="109" name="正方形/長方形 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12285,7 +12695,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="110" name="直線矢印コネクタ 109"/>
+        <xdr:cNvPr id="110" name="直線矢印コネクタ 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="38" idx="3"/>
           <a:endCxn id="34" idx="1"/>
@@ -12341,7 +12757,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="111" name="直線矢印コネクタ 110"/>
+        <xdr:cNvPr id="111" name="直線矢印コネクタ 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="34" idx="3"/>
           <a:endCxn id="36" idx="1"/>
@@ -12397,7 +12819,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="112" name="直線矢印コネクタ 111"/>
+        <xdr:cNvPr id="112" name="直線矢印コネクタ 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000070000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="36" idx="3"/>
           <a:endCxn id="84" idx="1"/>
@@ -12453,7 +12881,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="113" name="メモ 112"/>
+        <xdr:cNvPr id="113" name="メモ 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000071000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -12479,7 +12913,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -12726,7 +13159,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="115" name="メモ 114"/>
+        <xdr:cNvPr id="115" name="メモ 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000073000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -12752,7 +13191,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -12968,7 +13406,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="116" name="メモ 115"/>
+        <xdr:cNvPr id="116" name="メモ 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000074000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -12994,7 +13438,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -13210,7 +13653,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="117" name="メモ 116"/>
+        <xdr:cNvPr id="117" name="メモ 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000075000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -13236,7 +13685,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -13455,7 +13903,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="118" name="カギ線コネクタ 117"/>
+        <xdr:cNvPr id="118" name="カギ線コネクタ 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000076000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="69" idx="2"/>
           <a:endCxn id="117" idx="0"/>
@@ -13475,7 +13929,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -13498,24 +13951,30 @@
     <xdr:from>
       <xdr:col>92</xdr:col>
       <xdr:colOff>1680</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>109</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="119" name="フローチャート: 処理 118"/>
+        <xdr:cNvPr id="119" name="フローチャート: 処理 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000077000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18070605" y="7753350"/>
-          <a:ext cx="3398746" cy="3086100"/>
+          <a:off x="18270630" y="8496299"/>
+          <a:ext cx="3398746" cy="3438525"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -13615,18 +14074,24 @@
     <xdr:to>
       <xdr:col>109</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="120" name="フローチャート: 処理 119"/>
+        <xdr:cNvPr id="120" name="フローチャート: 処理 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000078000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18070605" y="4495800"/>
-          <a:ext cx="3398746" cy="3086100"/>
+          <a:off x="18270630" y="4733925"/>
+          <a:ext cx="3398746" cy="3676650"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -13718,26 +14183,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>97</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:col>96</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>104</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:col>103</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="121" name="フローチャート : 代替処理 120"/>
+        <xdr:cNvPr id="121" name="フローチャート : 代替処理 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000079000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="20669251" y="4495800"/>
-          <a:ext cx="1400175" cy="514350"/>
+          <a:off x="19259551" y="6105525"/>
+          <a:ext cx="1400175" cy="514351"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -13749,7 +14220,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -14028,24 +14498,30 @@
     <xdr:from>
       <xdr:col>97</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>25853</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>159203</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>103</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>21770</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>155120</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="122" name="正方形/長方形 121"/>
+        <xdr:cNvPr id="122" name="正方形/長方形 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19767096" y="6298746"/>
-          <a:ext cx="1224643" cy="526595"/>
+          <a:off x="19373850" y="6950528"/>
+          <a:ext cx="1200150" cy="510267"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14104,23 +14580,29 @@
     <xdr:from>
       <xdr:col>97</xdr:col>
       <xdr:colOff>324</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>103</xdr:col>
       <xdr:colOff>199702</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="125" name="フローチャート : 代替処理 124"/>
+        <xdr:cNvPr id="125" name="フローチャート : 代替処理 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="19069374" y="6724650"/>
+          <a:off x="19269399" y="7781925"/>
           <a:ext cx="1399528" cy="514349"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
@@ -14133,7 +14615,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -14410,26 +14891,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>93</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>94</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>108</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>106</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="126" name="フローチャート: 処理 125"/>
+        <xdr:cNvPr id="126" name="フローチャート: 処理 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18268950" y="5695950"/>
-          <a:ext cx="3000375" cy="857250"/>
+          <a:off x="18773776" y="6838950"/>
+          <a:ext cx="2390774" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -14481,24 +14968,30 @@
     <xdr:from>
       <xdr:col>97</xdr:col>
       <xdr:colOff>54430</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>32097</xdr:rowOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>60672</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>104</xdr:col>
       <xdr:colOff>54430</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>68037</xdr:rowOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>96612</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="128" name="フローチャート : 代替処理 127"/>
+        <xdr:cNvPr id="128" name="フローチャート : 代替処理 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000080000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="19716751" y="10373526"/>
-          <a:ext cx="1428750" cy="566618"/>
+          <a:off x="19323505" y="10452447"/>
+          <a:ext cx="1400175" cy="550290"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -14510,7 +15003,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -14745,24 +15237,30 @@
     <xdr:from>
       <xdr:col>94</xdr:col>
       <xdr:colOff>31977</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>18489</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>28014</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>100</xdr:col>
       <xdr:colOff>31977</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>18490</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>28015</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="129" name="メモ 128"/>
+        <xdr:cNvPr id="129" name="メモ 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000081000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="18495823" y="8737527"/>
-          <a:ext cx="1186962" cy="505559"/>
+          <a:off x="18700977" y="9391089"/>
+          <a:ext cx="1200150" cy="514351"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst/>
@@ -14778,7 +15276,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -15004,7 +15501,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="130" name="メモ 129"/>
+        <xdr:cNvPr id="130" name="メモ 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000082000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -15029,7 +15532,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -15246,7 +15748,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="131" name="直線矢印コネクタ 130"/>
+        <xdr:cNvPr id="131" name="直線矢印コネクタ 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000083000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="130" idx="2"/>
           <a:endCxn id="329" idx="0"/>
@@ -15288,28 +15796,34 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>100</xdr:col>
-      <xdr:colOff>100013</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>90489</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>100</xdr:col>
-      <xdr:colOff>100014</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>100013</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="133" name="直線矢印コネクタ 132"/>
+        <xdr:cNvPr id="133" name="直線矢印コネクタ 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000085000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="121" idx="2"/>
           <a:endCxn id="126" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="19769138" y="5524500"/>
-          <a:ext cx="1" cy="171450"/>
+        <a:xfrm>
+          <a:off x="19959639" y="6619876"/>
+          <a:ext cx="9524" cy="219074"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -15343,18 +15857,24 @@
     <xdr:from>
       <xdr:col>100</xdr:col>
       <xdr:colOff>100013</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>100</xdr:col>
       <xdr:colOff>100013</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="134" name="直線矢印コネクタ 133"/>
+        <xdr:cNvPr id="134" name="直線矢印コネクタ 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000086000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="126" idx="2"/>
           <a:endCxn id="125" idx="0"/>
@@ -15362,8 +15882,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19769138" y="6553200"/>
-          <a:ext cx="0" cy="171450"/>
+          <a:off x="19969163" y="7524750"/>
+          <a:ext cx="0" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -15396,19 +15916,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>100</xdr:col>
-      <xdr:colOff>151039</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>35378</xdr:rowOff>
+      <xdr:colOff>148998</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>44903</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>100</xdr:col>
-      <xdr:colOff>156483</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>32097</xdr:rowOff>
+      <xdr:colOff>154443</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>60672</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="136" name="直線矢印コネクタ 135"/>
+        <xdr:cNvPr id="136" name="直線矢印コネクタ 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000088000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="349" idx="2"/>
           <a:endCxn id="128" idx="0"/>
@@ -15416,8 +15942,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20425682" y="9846128"/>
-          <a:ext cx="5444" cy="527398"/>
+          <a:off x="20018148" y="10093778"/>
+          <a:ext cx="5445" cy="358669"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -15462,7 +15988,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="138" name="直線矢印コネクタ 137"/>
+        <xdr:cNvPr id="138" name="直線矢印コネクタ 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="165" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -15517,7 +16049,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="140" name="正方形/長方形 139"/>
+        <xdr:cNvPr id="140" name="正方形/長方形 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15593,7 +16131,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="151" name="メモ 150"/>
+        <xdr:cNvPr id="151" name="メモ 150">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000097000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -15617,7 +16161,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -15834,7 +16377,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="157" name="正方形/長方形 156"/>
+        <xdr:cNvPr id="157" name="正方形/長方形 156">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15926,7 +16475,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="159" name="直線矢印コネクタ 158"/>
+        <xdr:cNvPr id="159" name="直線矢印コネクタ 158">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="189" idx="3"/>
           <a:endCxn id="52" idx="1"/>
@@ -15982,7 +16537,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="160" name="直線矢印コネクタ 159"/>
+        <xdr:cNvPr id="160" name="直線矢印コネクタ 159">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="542" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -16037,7 +16598,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="163" name="正方形/長方形 162"/>
+        <xdr:cNvPr id="163" name="正方形/長方形 162">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A3000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16116,7 +16683,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="164" name="図 163"/>
+        <xdr:cNvPr id="164" name="図 163">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A4000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -16160,7 +16733,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="166" name="直線矢印コネクタ 165"/>
+        <xdr:cNvPr id="166" name="直線矢印コネクタ 165">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A6000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="83" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -16215,7 +16794,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="167" name="直線矢印コネクタ 166"/>
+        <xdr:cNvPr id="167" name="直線矢印コネクタ 166">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A7000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="140" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -16270,7 +16855,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="168" name="直線矢印コネクタ 167"/>
+        <xdr:cNvPr id="168" name="直線矢印コネクタ 167">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A8000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -16323,7 +16914,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="169" name="直線矢印コネクタ 168"/>
+        <xdr:cNvPr id="169" name="直線矢印コネクタ 168">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A9000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="33" idx="2"/>
           <a:endCxn id="140" idx="0"/>
@@ -16379,7 +16976,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="173" name="Rectangle 38"/>
+        <xdr:cNvPr id="173" name="Rectangle 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AD000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -16636,7 +17239,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="183" name="フローチャート : カード 20"/>
+        <xdr:cNvPr id="183" name="フローチャート : カード 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B7000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16692,7 +17301,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="184" name="図 183"/>
+        <xdr:cNvPr id="184" name="図 183">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B8000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -16755,7 +17370,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="185" name="メモ 184"/>
+        <xdr:cNvPr id="185" name="メモ 184">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B9000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -16776,7 +17397,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -17018,7 +17638,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="186" name="直線矢印コネクタ 185"/>
+        <xdr:cNvPr id="186" name="直線矢印コネクタ 185">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BA000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="18" idx="2"/>
           <a:endCxn id="183" idx="0"/>
@@ -17072,7 +17698,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="189" name="メモ 188"/>
+        <xdr:cNvPr id="189" name="メモ 188">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BD000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -17098,7 +17730,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -17340,7 +17971,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="191" name="メモ 190"/>
+        <xdr:cNvPr id="191" name="メモ 190">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BF000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -17365,7 +18002,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -17582,7 +18218,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="192" name="直線矢印コネクタ 191"/>
+        <xdr:cNvPr id="192" name="直線矢印コネクタ 191">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="322" idx="2"/>
           <a:endCxn id="165" idx="0"/>
@@ -17636,7 +18278,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="222" name="メモ 221"/>
+        <xdr:cNvPr id="222" name="メモ 221">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000DE000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -17662,7 +18310,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -17881,7 +18528,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="223" name="メモ 222"/>
+        <xdr:cNvPr id="223" name="メモ 222">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000DF000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -17907,7 +18560,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -18126,7 +18778,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="224" name="メモ 223"/>
+        <xdr:cNvPr id="224" name="メモ 223">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000E0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -18152,7 +18810,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -18371,7 +19028,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="225" name="フローチャート: 処理 224"/>
+        <xdr:cNvPr id="225" name="フローチャート: 処理 224">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000E1000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -18440,7 +19103,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="227" name="フローチャート: 処理 226"/>
+        <xdr:cNvPr id="227" name="フローチャート: 処理 226">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000E3000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -18509,7 +19178,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="233" name="フローチャート : 代替処理 232"/>
+        <xdr:cNvPr id="233" name="フローチャート : 代替処理 232">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000E9000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -18527,7 +19202,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -18817,7 +19491,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="234" name="直線矢印コネクタ 233"/>
+        <xdr:cNvPr id="234" name="直線矢印コネクタ 233">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000EA000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="233" idx="3"/>
           <a:endCxn id="189" idx="1"/>
@@ -18873,7 +19553,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="237" name="フローチャート : 代替処理 236"/>
+        <xdr:cNvPr id="237" name="フローチャート : 代替処理 236">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000ED000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -18891,7 +19577,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -19181,7 +19866,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="238" name="メモ 237"/>
+        <xdr:cNvPr id="238" name="メモ 237">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000EE000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -19202,7 +19893,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -19449,7 +20139,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="239" name="メモ 238"/>
+        <xdr:cNvPr id="239" name="メモ 238">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000EF000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -19470,7 +20166,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -19717,7 +20412,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="240" name="フローチャート: 処理 239"/>
+        <xdr:cNvPr id="240" name="フローチャート: 処理 239">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000F0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -19775,24 +20476,30 @@
     <xdr:from>
       <xdr:col>97</xdr:col>
       <xdr:colOff>154441</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>54430</xdr:rowOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>92530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>103</xdr:col>
       <xdr:colOff>154441</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>54430</xdr:rowOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>92530</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="259" name="メモ 258"/>
+        <xdr:cNvPr id="259" name="メモ 258">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="19816762" y="11457216"/>
-          <a:ext cx="1224643" cy="530678"/>
+          <a:off x="19423516" y="11341555"/>
+          <a:ext cx="1200150" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst/>
@@ -19812,7 +20519,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -20055,18 +20761,24 @@
     <xdr:from>
       <xdr:col>100</xdr:col>
       <xdr:colOff>154441</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>68037</xdr:rowOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>96612</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>100</xdr:col>
-      <xdr:colOff>156483</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>54430</xdr:rowOff>
+      <xdr:colOff>154443</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>92530</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="260" name="直線矢印コネクタ 259"/>
+        <xdr:cNvPr id="260" name="直線矢印コネクタ 259">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="128" idx="2"/>
           <a:endCxn id="259" idx="0"/>
@@ -20074,8 +20786,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="20429084" y="10940144"/>
-          <a:ext cx="2042" cy="517072"/>
+          <a:off x="20023591" y="11002737"/>
+          <a:ext cx="2" cy="338818"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -20120,7 +20832,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="261" name="メモ 260"/>
+        <xdr:cNvPr id="261" name="メモ 260">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -20141,7 +20859,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -20383,7 +21100,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="263" name="カギ線コネクタ 262"/>
+        <xdr:cNvPr id="263" name="カギ線コネクタ 262">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="330" idx="3"/>
           <a:endCxn id="185" idx="1"/>
@@ -20408,7 +21131,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -20442,7 +21164,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="264" name="正方形/長方形 263"/>
+        <xdr:cNvPr id="264" name="正方形/長方形 263">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -20508,7 +21236,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="265" name="メモ 264"/>
+        <xdr:cNvPr id="265" name="メモ 264">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -20529,7 +21263,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -20748,7 +21481,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="329" name="フローチャート: 処理 328"/>
+        <xdr:cNvPr id="329" name="フローチャート: 処理 328">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000049010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -20817,7 +21556,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="281" name="メモ 280"/>
+        <xdr:cNvPr id="281" name="メモ 280">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -20838,7 +21583,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -21122,7 +21866,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="282" name="メモ 281"/>
+        <xdr:cNvPr id="282" name="メモ 281">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -21143,7 +21893,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -21362,7 +22111,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="283" name="フローチャート : 代替処理 282"/>
+        <xdr:cNvPr id="283" name="フローチャート : 代替処理 282">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -21380,7 +22135,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -21709,7 +22463,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="286" name="直線矢印コネクタ 285"/>
+        <xdr:cNvPr id="286" name="直線矢印コネクタ 285">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="283" idx="3"/>
           <a:endCxn id="377" idx="1"/>
@@ -21763,7 +22523,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="165" name="フローチャート : 代替処理 164"/>
+        <xdr:cNvPr id="165" name="フローチャート : 代替処理 164">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A5000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -21781,7 +22547,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -22027,7 +22792,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="352" name="直線矢印コネクタ 351"/>
+        <xdr:cNvPr id="352" name="直線矢印コネクタ 351">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000060010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="377" idx="3"/>
           <a:endCxn id="165" idx="1"/>
@@ -22081,7 +22852,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="401" name="直線矢印コネクタ 400"/>
+        <xdr:cNvPr id="401" name="直線矢印コネクタ 400">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000091010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="237" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -22136,7 +22913,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="405" name="下矢印 404"/>
+        <xdr:cNvPr id="405" name="下矢印 404">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000095010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -22226,7 +23009,13 @@
     <xdr:ext cx="1400175" cy="492443"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="413" name="正方形/長方形 412"/>
+        <xdr:cNvPr id="413" name="正方形/長方形 412">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009D010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -22318,7 +23107,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="271" name="フローチャート : 代替処理 270"/>
+        <xdr:cNvPr id="271" name="フローチャート : 代替処理 270">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -22336,7 +23131,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -22626,7 +23420,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="272" name="メモ 271"/>
+        <xdr:cNvPr id="272" name="メモ 271">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -22647,7 +23447,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -22873,7 +23672,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="273" name="直線矢印コネクタ 272"/>
+        <xdr:cNvPr id="273" name="直線矢印コネクタ 272">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="271" idx="3"/>
           <a:endCxn id="272" idx="1"/>
@@ -22927,7 +23732,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="248" name="メモ 247"/>
+        <xdr:cNvPr id="248" name="メモ 247">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000F8000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -22948,7 +23759,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -23209,7 +24019,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="252" name="メモ 251"/>
+        <xdr:cNvPr id="252" name="メモ 251">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000FC000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -23234,7 +24050,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -23451,7 +24266,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="253" name="フローチャート: 処理 252"/>
+        <xdr:cNvPr id="253" name="フローチャート: 処理 252">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000FD000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -23520,7 +24341,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="270" name="メモ 269"/>
+        <xdr:cNvPr id="270" name="メモ 269">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -23545,7 +24372,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -23762,7 +24588,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="203" name="フローチャート: 処理 202"/>
+        <xdr:cNvPr id="203" name="フローチャート: 処理 202">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000CB000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -23833,7 +24665,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="204" name="メモ 203"/>
+        <xdr:cNvPr id="204" name="メモ 203">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000CC000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -23859,7 +24697,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -24075,7 +24912,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="205" name="Rectangle 38"/>
+        <xdr:cNvPr id="205" name="Rectangle 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000CD000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -24339,7 +25182,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="206" name="メモ 205"/>
+        <xdr:cNvPr id="206" name="メモ 205">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000CE000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -24363,7 +25212,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -24577,7 +25425,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="207" name="Rectangle 38"/>
+        <xdr:cNvPr id="207" name="Rectangle 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000CF000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -24892,7 +25746,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="208" name="フローチャート: 処理 207"/>
+        <xdr:cNvPr id="208" name="フローチャート: 処理 207">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -24964,7 +25824,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="209" name="フローチャート : 代替処理 208"/>
+        <xdr:cNvPr id="209" name="フローチャート : 代替処理 208">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D1000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -24982,7 +25848,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -25215,7 +26080,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="210" name="Rectangle 38"/>
+        <xdr:cNvPr id="210" name="Rectangle 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D2000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -25479,7 +26350,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="211" name="正方形/長方形 210"/>
+        <xdr:cNvPr id="211" name="正方形/長方形 210">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D3000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -25536,7 +26413,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="212" name="Rectangle 38"/>
+        <xdr:cNvPr id="212" name="Rectangle 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D4000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -25800,7 +26683,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="213" name="フローチャート : カード 20"/>
+        <xdr:cNvPr id="213" name="フローチャート : カード 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D5000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -25856,7 +26745,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="214" name="Rectangle 38"/>
+        <xdr:cNvPr id="214" name="Rectangle 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D6000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -26120,7 +27015,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="215" name="Picture 103" descr="MC900432614"/>
+        <xdr:cNvPr id="215" name="Picture 103" descr="MC900432614">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D7000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -26175,7 +27076,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="216" name="直線矢印コネクタ 215"/>
+        <xdr:cNvPr id="216" name="直線矢印コネクタ 215">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D8000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -26228,7 +27135,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="217" name="直線矢印コネクタ 216"/>
+        <xdr:cNvPr id="217" name="直線矢印コネクタ 216">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D9000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -26281,7 +27194,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="218" name="Rectangle 38"/>
+        <xdr:cNvPr id="218" name="Rectangle 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000DA000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -26545,7 +27464,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="219" name="Rectangle 38"/>
+        <xdr:cNvPr id="219" name="Rectangle 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000DB000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -26809,7 +27734,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="244" name="直線矢印コネクタ 243"/>
+        <xdr:cNvPr id="244" name="直線矢印コネクタ 243">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000F4000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -26864,7 +27795,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="245" name="Rectangle 38"/>
+        <xdr:cNvPr id="245" name="Rectangle 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000F5000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -27128,7 +28065,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="275" name="メモ 274"/>
+        <xdr:cNvPr id="275" name="メモ 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -27150,7 +28093,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -27366,7 +28308,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="276" name="Rectangle 38"/>
+        <xdr:cNvPr id="276" name="Rectangle 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -27630,7 +28578,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="277" name="メモ 276"/>
+        <xdr:cNvPr id="277" name="メモ 276">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -27655,7 +28609,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -27869,7 +28822,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="278" name="Rectangle 38"/>
+        <xdr:cNvPr id="278" name="Rectangle 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -28153,7 +29112,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="289" name="メモ 288"/>
+        <xdr:cNvPr id="289" name="メモ 288">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000021010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -28174,7 +29139,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -28393,7 +29357,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="290" name="メモ 289"/>
+        <xdr:cNvPr id="290" name="メモ 289">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000022010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -28414,7 +29384,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -28656,7 +29625,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="293" name="正方形/長方形 292"/>
+        <xdr:cNvPr id="293" name="正方形/長方形 292">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000025010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -28735,7 +29710,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="304" name="直線矢印コネクタ 303"/>
+        <xdr:cNvPr id="304" name="直線矢印コネクタ 303">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000030010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="152" idx="2"/>
           <a:endCxn id="227" idx="0"/>
@@ -28791,20 +29772,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="384" name="グループ化 383"/>
+        <xdr:cNvPr id="384" name="グループ化 383">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000080010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11963399" y="12296774"/>
-          <a:ext cx="517620" cy="335618"/>
+          <a:off x="12108655" y="11984830"/>
+          <a:ext cx="524764" cy="326093"/>
           <a:chOff x="6686550" y="13626923"/>
           <a:chExt cx="517620" cy="335618"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="385" name="図 384"/>
+          <xdr:cNvPr id="385" name="図 384">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000081010000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -28833,7 +29826,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="386" name="Rectangle 38"/>
+          <xdr:cNvPr id="386" name="Rectangle 38">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000082010000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -29091,7 +30090,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="515" name="フローチャート: 処理 514"/>
+        <xdr:cNvPr id="515" name="フローチャート: 処理 514">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -29160,7 +30165,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="516" name="直線矢印コネクタ 515"/>
+        <xdr:cNvPr id="516" name="直線矢印コネクタ 515">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="38" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -29215,7 +30226,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="542" name="フローチャート : 代替処理 541"/>
+        <xdr:cNvPr id="542" name="フローチャート : 代替処理 541">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -29233,7 +30250,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -29479,7 +30495,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="552" name="フローチャート: 処理 551"/>
+        <xdr:cNvPr id="552" name="フローチャート: 処理 551">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000028020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -29550,7 +30572,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="553" name="直線矢印コネクタ 552"/>
+        <xdr:cNvPr id="553" name="直線矢印コネクタ 552">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000029020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -29603,7 +30631,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="589" name="カギ線コネクタ 588"/>
+        <xdr:cNvPr id="589" name="カギ線コネクタ 588">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004D020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="223" idx="3"/>
           <a:endCxn id="157" idx="2"/>
@@ -29628,7 +30662,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="stealth" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -29662,7 +30695,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="592" name="カギ線コネクタ 591"/>
+        <xdr:cNvPr id="592" name="カギ線コネクタ 591">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000050020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="222" idx="3"/>
           <a:endCxn id="30" idx="1"/>
@@ -29689,7 +30728,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="stealth" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -29723,7 +30761,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="602" name="直線矢印コネクタ 601"/>
+        <xdr:cNvPr id="602" name="直線矢印コネクタ 601">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005A020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -29776,7 +30820,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="617" name="直線矢印コネクタ 616"/>
+        <xdr:cNvPr id="617" name="直線矢印コネクタ 616">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000069020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="284" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -29831,7 +30881,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="659" name="メモ 658"/>
+        <xdr:cNvPr id="659" name="メモ 658">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000093020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -29853,7 +30909,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -30072,7 +31127,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="689" name="メモ 688"/>
+        <xdr:cNvPr id="689" name="メモ 688">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B1020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -30093,7 +31154,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -30334,7 +31394,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="690" name="フローチャート : 代替処理 689"/>
+        <xdr:cNvPr id="690" name="フローチャート : 代替処理 689">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B2020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -30352,7 +31418,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -30598,7 +31663,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="691" name="直線矢印コネクタ 690"/>
+        <xdr:cNvPr id="691" name="直線矢印コネクタ 690">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B3020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="690" idx="3"/>
           <a:endCxn id="689" idx="1"/>
@@ -30654,7 +31725,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="698" name="正方形/長方形 697"/>
+        <xdr:cNvPr id="698" name="正方形/長方形 697">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BA020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -30721,7 +31798,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="702" name="正方形/長方形 701"/>
+        <xdr:cNvPr id="702" name="正方形/長方形 701">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BE020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -30788,7 +31871,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="713" name="フローチャート : 代替処理 712"/>
+        <xdr:cNvPr id="713" name="フローチャート : 代替処理 712">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C9020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -30806,7 +31895,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -31052,7 +32140,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="714" name="直線矢印コネクタ 713"/>
+        <xdr:cNvPr id="714" name="直線矢印コネクタ 713">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000CA020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="279" idx="3"/>
           <a:endCxn id="270" idx="1"/>
@@ -31108,7 +32202,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="728" name="カギ線コネクタ 727"/>
+        <xdr:cNvPr id="728" name="カギ線コネクタ 727">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D8020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="225" idx="0"/>
           <a:endCxn id="515" idx="1"/>
@@ -31133,7 +32233,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="stealth" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -31167,7 +32266,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="731" name="直線矢印コネクタ 730"/>
+        <xdr:cNvPr id="731" name="直線矢印コネクタ 730">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000DB020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="152" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -31222,7 +32327,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="864" name="直線矢印コネクタ 863"/>
+        <xdr:cNvPr id="864" name="直線矢印コネクタ 863">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000060030000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="279" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -31277,7 +32388,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="877" name="フローチャート : 代替処理 876"/>
+        <xdr:cNvPr id="877" name="フローチャート : 代替処理 876">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006D030000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -31295,7 +32412,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -31541,7 +32657,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="878" name="直線矢印コネクタ 877"/>
+        <xdr:cNvPr id="878" name="直線矢印コネクタ 877">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006E030000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="877" idx="2"/>
           <a:endCxn id="17" idx="0"/>
@@ -31599,7 +32721,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="897" name="直線矢印コネクタ 896"/>
+        <xdr:cNvPr id="897" name="直線矢印コネクタ 896">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000081030000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="93" idx="3"/>
           <a:endCxn id="95" idx="1"/>
@@ -31653,7 +32781,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="930" name="下矢印 929"/>
+        <xdr:cNvPr id="930" name="下矢印 929">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A2030000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -31743,7 +32877,13 @@
     <xdr:ext cx="1400175" cy="492443"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="931" name="正方形/長方形 930"/>
+        <xdr:cNvPr id="931" name="正方形/長方形 930">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A3030000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -31835,7 +32975,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="932" name="下矢印 931"/>
+        <xdr:cNvPr id="932" name="下矢印 931">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A4030000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -31925,7 +33071,13 @@
     <xdr:ext cx="1400175" cy="492443"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="933" name="正方形/長方形 932"/>
+        <xdr:cNvPr id="933" name="正方形/長方形 932">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A5030000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -32017,7 +33169,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="934" name="上矢印 933"/>
+        <xdr:cNvPr id="934" name="上矢印 933">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A6030000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -32107,7 +33265,13 @@
     <xdr:ext cx="1400175" cy="492443"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="935" name="正方形/長方形 934"/>
+        <xdr:cNvPr id="935" name="正方形/長方形 934">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A7030000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -32199,7 +33363,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="936" name="下矢印 935"/>
+        <xdr:cNvPr id="936" name="下矢印 935">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A8030000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -32289,7 +33459,13 @@
     <xdr:ext cx="1400175" cy="492443"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="937" name="正方形/長方形 936"/>
+        <xdr:cNvPr id="937" name="正方形/長方形 936">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A9030000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -32381,7 +33557,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="990" name="直線矢印コネクタ 989"/>
+        <xdr:cNvPr id="990" name="直線矢印コネクタ 989">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000DE030000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -32434,7 +33616,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="994" name="直線矢印コネクタ 993"/>
+        <xdr:cNvPr id="994" name="直線矢印コネクタ 993">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000E2030000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -32487,7 +33675,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="1044" name="直線矢印コネクタ 1043"/>
+        <xdr:cNvPr id="1044" name="直線矢印コネクタ 1043">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="689" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -32540,7 +33734,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="1053" name="直線矢印コネクタ 1052"/>
+        <xdr:cNvPr id="1053" name="直線矢印コネクタ 1052">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="33" idx="0"/>
           <a:endCxn id="83" idx="2"/>
@@ -32596,7 +33796,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1078" name="正方形/長方形 1077"/>
+        <xdr:cNvPr id="1078" name="正方形/長方形 1077">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000036040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -32663,7 +33869,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1079" name="正方形/長方形 1078"/>
+        <xdr:cNvPr id="1079" name="正方形/長方形 1078">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000037040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -32730,7 +33942,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1085" name="正方形/長方形 1084"/>
+        <xdr:cNvPr id="1085" name="正方形/長方形 1084">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003D040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -32797,7 +34015,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="262" name="フローチャート: 処理 261"/>
+        <xdr:cNvPr id="262" name="フローチャート: 処理 261">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -32866,7 +34090,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="266" name="正方形/長方形 265"/>
+        <xdr:cNvPr id="266" name="正方形/長方形 265">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -32953,7 +34183,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="カギ線コネクタ 9"/>
+        <xdr:cNvPr id="10" name="カギ線コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="152" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -33005,7 +34241,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="267" name="正方形/長方形 266"/>
+        <xdr:cNvPr id="267" name="正方形/長方形 266">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -33072,7 +34314,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="279" name="正方形/長方形 278"/>
+        <xdr:cNvPr id="279" name="正方形/長方形 278">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -33139,7 +34387,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="280" name="正方形/長方形 279"/>
+        <xdr:cNvPr id="280" name="正方形/長方形 279">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -33206,7 +34460,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="284" name="正方形/長方形 283"/>
+        <xdr:cNvPr id="284" name="正方形/長方形 283">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -33273,7 +34533,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="285" name="正方形/長方形 284"/>
+        <xdr:cNvPr id="285" name="正方形/長方形 284">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -33340,7 +34606,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="287" name="正方形/長方形 286"/>
+        <xdr:cNvPr id="287" name="正方形/長方形 286">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -33407,7 +34679,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="288" name="カギ線コネクタ 287"/>
+        <xdr:cNvPr id="288" name="カギ線コネクタ 287">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000020010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="267" idx="3"/>
           <a:endCxn id="253" idx="0"/>
@@ -33460,7 +34738,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="292" name="カギ線コネクタ 291"/>
+        <xdr:cNvPr id="292" name="カギ線コネクタ 291">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000024010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="227" idx="3"/>
           <a:endCxn id="280" idx="1"/>
@@ -33513,7 +34797,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="294" name="カギ線コネクタ 293"/>
+        <xdr:cNvPr id="294" name="カギ線コネクタ 293">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000026010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="280" idx="2"/>
         </xdr:cNvCxnSpPr>
@@ -33565,7 +34855,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="297" name="カギ線コネクタ 296"/>
+        <xdr:cNvPr id="297" name="カギ線コネクタ 296">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000029010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="253" idx="2"/>
           <a:endCxn id="328" idx="0"/>
@@ -33620,7 +34916,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="302" name="正方形/長方形 301"/>
+        <xdr:cNvPr id="302" name="正方形/長方形 301">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002E010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -33687,7 +34989,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="303" name="正方形/長方形 302"/>
+        <xdr:cNvPr id="303" name="正方形/長方形 302">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002F010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -33754,7 +35062,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="291" name="カギ線コネクタ 290"/>
+        <xdr:cNvPr id="291" name="カギ線コネクタ 290">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000023010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="877" idx="3"/>
           <a:endCxn id="47" idx="1"/>
@@ -33809,7 +35123,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="299" name="正方形/長方形 298"/>
+        <xdr:cNvPr id="299" name="正方形/長方形 298">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002B010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -33876,7 +35196,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="300" name="正方形/長方形 299"/>
+        <xdr:cNvPr id="300" name="正方形/長方形 299">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002C010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -33943,7 +35269,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="306" name="正方形/長方形 305"/>
+        <xdr:cNvPr id="306" name="正方形/長方形 305">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000032010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -34010,7 +35342,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="307" name="カギ線コネクタ 306"/>
+        <xdr:cNvPr id="307" name="カギ線コネクタ 306">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000033010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="74" idx="3"/>
           <a:endCxn id="290" idx="1"/>
@@ -34065,7 +35403,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="308" name="カギ線コネクタ 307"/>
+        <xdr:cNvPr id="308" name="カギ線コネクタ 307">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000034010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="225" idx="2"/>
           <a:endCxn id="233" idx="1"/>
@@ -34118,7 +35462,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="309" name="正方形/長方形 308"/>
+        <xdr:cNvPr id="309" name="正方形/長方形 308">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000035010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -34185,7 +35535,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="310" name="正方形/長方形 309"/>
+        <xdr:cNvPr id="310" name="正方形/長方形 309">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000036010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -34252,7 +35608,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="311" name="正方形/長方形 310"/>
+        <xdr:cNvPr id="311" name="正方形/長方形 310">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000037010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -34319,7 +35681,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="312" name="正方形/長方形 311"/>
+        <xdr:cNvPr id="312" name="正方形/長方形 311">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000038010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -34386,7 +35754,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="313" name="カギ線コネクタ 312"/>
+        <xdr:cNvPr id="313" name="カギ線コネクタ 312">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000039010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="311" idx="3"/>
           <a:endCxn id="49" idx="1"/>
@@ -34411,7 +35785,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -34445,7 +35818,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="314" name="直線矢印コネクタ 313"/>
+        <xdr:cNvPr id="314" name="直線矢印コネクタ 313">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003A010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="312" idx="3"/>
           <a:endCxn id="19" idx="2"/>
@@ -34499,7 +35878,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="315" name="カギ線コネクタ 314"/>
+        <xdr:cNvPr id="315" name="カギ線コネクタ 314">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003B010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="53" idx="3"/>
           <a:endCxn id="102" idx="1"/>
@@ -34524,7 +35909,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -34558,7 +35942,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="330" name="正方形/長方形 329"/>
+        <xdr:cNvPr id="330" name="正方形/長方形 329">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004A010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -34625,7 +36015,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="331" name="正方形/長方形 330"/>
+        <xdr:cNvPr id="331" name="正方形/長方形 330">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004B010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -34692,7 +36088,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="333" name="直線矢印コネクタ 332"/>
+        <xdr:cNvPr id="333" name="直線矢印コネクタ 332">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004D010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="331" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -34745,7 +36147,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="337" name="カギ線コネクタ 336"/>
+        <xdr:cNvPr id="337" name="カギ線コネクタ 336">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000051010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -34797,7 +36205,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="343" name="正方形/長方形 342"/>
+        <xdr:cNvPr id="343" name="正方形/長方形 342">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000057010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -34864,7 +36278,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="298" name="メモ 297"/>
+        <xdr:cNvPr id="298" name="メモ 297">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002A010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -34885,7 +36305,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -35101,7 +36520,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="301" name="Rectangle 38"/>
+        <xdr:cNvPr id="301" name="Rectangle 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002D010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -35416,7 +36841,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="316" name="フローチャート: 処理 315"/>
+        <xdr:cNvPr id="316" name="フローチャート: 処理 315">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003C010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -35485,7 +36916,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="317" name="メモ 316"/>
+        <xdr:cNvPr id="317" name="メモ 316">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003D010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -35506,7 +36943,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -35747,7 +37183,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="318" name="メモ 317"/>
+        <xdr:cNvPr id="318" name="メモ 317">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003E010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -35768,7 +37210,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -36009,7 +37450,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="319" name="メモ 318"/>
+        <xdr:cNvPr id="319" name="メモ 318">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003F010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -36030,7 +37477,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -36249,7 +37695,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="320" name="カギ線コネクタ 319"/>
+        <xdr:cNvPr id="320" name="カギ線コネクタ 319">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000040010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="222" idx="3"/>
           <a:endCxn id="319" idx="1"/>
@@ -36276,7 +37728,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="stealth" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -36310,7 +37761,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="321" name="メモ 320"/>
+        <xdr:cNvPr id="321" name="メモ 320">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000041010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -36336,7 +37793,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -36555,7 +38011,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="322" name="フローチャート: 処理 321"/>
+        <xdr:cNvPr id="322" name="フローチャート: 処理 321">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000042010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -36624,7 +38086,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="332" name="メモ 331"/>
+        <xdr:cNvPr id="332" name="メモ 331">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004C010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -36645,7 +38113,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -36864,7 +38331,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="334" name="フローチャート: 処理 333"/>
+        <xdr:cNvPr id="334" name="フローチャート: 処理 333">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004E010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -36933,7 +38406,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="361" name="正方形/長方形 360"/>
+        <xdr:cNvPr id="361" name="正方形/長方形 360">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000069010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -37009,7 +38488,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="367" name="直線矢印コネクタ 366"/>
+        <xdr:cNvPr id="367" name="直線矢印コネクタ 366">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006F010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="361" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -37066,7 +38551,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="372" name="直線矢印コネクタ 371"/>
+        <xdr:cNvPr id="372" name="直線矢印コネクタ 371">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000074010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="293" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -37121,7 +38612,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="377" name="正方形/長方形 376"/>
+        <xdr:cNvPr id="377" name="正方形/長方形 376">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000079010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -37205,7 +38702,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="387" name="直線矢印コネクタ 386"/>
+        <xdr:cNvPr id="387" name="直線矢印コネクタ 386">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000083010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="42" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -37260,7 +38763,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="323" name="正方形/長方形 322"/>
+        <xdr:cNvPr id="323" name="正方形/長方形 322">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000043010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -37341,7 +38850,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="324" name="フローチャート : 代替処理 323"/>
+        <xdr:cNvPr id="324" name="フローチャート : 代替処理 323">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000044010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -37359,7 +38874,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -37649,7 +39163,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="325" name="メモ 324"/>
+        <xdr:cNvPr id="325" name="メモ 324">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000045010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -37675,7 +39195,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -37894,7 +39413,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="326" name="直線矢印コネクタ 325"/>
+        <xdr:cNvPr id="326" name="直線矢印コネクタ 325">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000046010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="324" idx="3"/>
           <a:endCxn id="327" idx="1"/>
@@ -37950,7 +39475,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="327" name="フローチャート: 処理 326"/>
+        <xdr:cNvPr id="327" name="フローチャート: 処理 326">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000047010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -38019,7 +39550,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="328" name="フローチャート: 処理 327"/>
+        <xdr:cNvPr id="328" name="フローチャート: 処理 327">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000048010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -38088,7 +39625,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="335" name="メモ 334"/>
+        <xdr:cNvPr id="335" name="メモ 334">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004F010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -38114,7 +39657,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -38343,7 +39885,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="336" name="フローチャート: 処理 335"/>
+        <xdr:cNvPr id="336" name="フローチャート: 処理 335">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000050010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -38412,7 +39960,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="340" name="正方形/長方形 339"/>
+        <xdr:cNvPr id="340" name="正方形/長方形 339">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000054010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -38477,7 +40031,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="341" name="正方形/長方形 340"/>
+        <xdr:cNvPr id="341" name="正方形/長方形 340">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000055010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -38542,7 +40102,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="342" name="フローチャート : カード 20"/>
+        <xdr:cNvPr id="342" name="フローチャート : カード 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000056010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -38606,7 +40172,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="346" name="カギ線コネクタ 345"/>
+        <xdr:cNvPr id="346" name="カギ線コネクタ 345">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005A010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="342" idx="2"/>
           <a:endCxn id="53" idx="0"/>
@@ -38631,7 +40203,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -38665,7 +40236,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="347" name="直線矢印コネクタ 346"/>
+        <xdr:cNvPr id="347" name="直線矢印コネクタ 346">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005B010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="47" idx="2"/>
           <a:endCxn id="342" idx="0"/>
@@ -38723,7 +40300,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="345" name="直線矢印コネクタ 343"/>
+        <xdr:cNvPr id="345" name="直線矢印コネクタ 343">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000059010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="17" idx="2"/>
           <a:endCxn id="74" idx="0"/>
@@ -38770,24 +40353,30 @@
     <xdr:from>
       <xdr:col>101</xdr:col>
       <xdr:colOff>54429</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>58509</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>68034</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>107</xdr:col>
       <xdr:colOff>56109</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>14548</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>24073</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="348" name="正方形/長方形 347"/>
+        <xdr:cNvPr id="348" name="正方形/長方形 347">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005C010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19903064" y="8777547"/>
-          <a:ext cx="1188641" cy="461597"/>
+          <a:off x="20123604" y="9431109"/>
+          <a:ext cx="1201830" cy="470389"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -38838,24 +40427,30 @@
     <xdr:from>
       <xdr:col>93</xdr:col>
       <xdr:colOff>48985</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>35378</xdr:rowOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>44903</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>108</xdr:col>
       <xdr:colOff>48985</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>35378</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>44903</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="349" name="フローチャート: 処理 348"/>
+        <xdr:cNvPr id="349" name="フローチャート: 処理 348">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005D010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18894878" y="8961664"/>
-          <a:ext cx="3061607" cy="884464"/>
+          <a:off x="18517960" y="9236528"/>
+          <a:ext cx="3000375" cy="857250"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -38918,7 +40513,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="305" name="カギ線コネクタ 337"/>
+        <xdr:cNvPr id="305" name="カギ線コネクタ 337">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000031010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="267" idx="2"/>
           <a:endCxn id="336" idx="0"/>
@@ -38971,7 +40572,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="339" name="カギ線コネクタ 338"/>
+        <xdr:cNvPr id="339" name="カギ線コネクタ 338">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000053010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -39021,7 +40628,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="344" name="直線矢印コネクタ 343"/>
+        <xdr:cNvPr id="344" name="直線矢印コネクタ 343">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000058010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -39074,7 +40687,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="350" name="直線矢印コネクタ 349"/>
+        <xdr:cNvPr id="350" name="直線矢印コネクタ 349">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005E010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -39127,7 +40746,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="295" name="直線矢印コネクタ 294"/>
+        <xdr:cNvPr id="295" name="直線矢印コネクタ 294">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000027010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="353" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -39182,7 +40807,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="338" name="メモ 337"/>
+        <xdr:cNvPr id="338" name="メモ 337">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000052010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -39203,7 +40834,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -39497,7 +41127,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="353" name="フローチャート : 代替処理 352"/>
+        <xdr:cNvPr id="353" name="フローチャート : 代替処理 352">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000061010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -39515,7 +41151,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -39774,7 +41409,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="354" name="フローチャート: 処理 353"/>
+        <xdr:cNvPr id="354" name="フローチャート: 処理 353">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000062010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -39843,7 +41484,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="355" name="直線矢印コネクタ 354"/>
+        <xdr:cNvPr id="355" name="直線矢印コネクタ 354">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000063010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -39896,7 +41543,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="540" name="メモ 539"/>
+        <xdr:cNvPr id="540" name="メモ 539">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -39917,7 +41570,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -40201,7 +41853,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="541" name="メモ 540"/>
+        <xdr:cNvPr id="541" name="メモ 540">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -40222,7 +41880,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -40441,7 +42098,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="359" name="メモ 358"/>
+        <xdr:cNvPr id="359" name="メモ 358">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000067010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -40462,7 +42125,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -40716,7 +42378,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="360" name="直線矢印コネクタ 359"/>
+        <xdr:cNvPr id="360" name="直線矢印コネクタ 359">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000068010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="328" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -40754,11 +42422,399 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>97</xdr:col>
+      <xdr:colOff>108177</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>56589</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>103</xdr:col>
+      <xdr:colOff>108177</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>56590</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="351" name="メモ 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19A8547B-CBE1-4C10-B1D8-E7677DF9E442}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19377252" y="5304864"/>
+          <a:ext cx="1200150" cy="514351"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr algn="r" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="639763" indent="-182563" algn="r" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="1279525" indent="-365125" algn="r" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1919288" indent="-547688" algn="r" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="2559050" indent="-730250" algn="r" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>単体テスト仕様書</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>94</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>106</xdr:col>
+      <xdr:colOff>69396</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="356" name="フローチャート: 処理 355">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F1E8B13-3521-47F8-9992-6E1F87E96734}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18783300" y="5226503"/>
+          <a:ext cx="2355396" cy="688522"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>100</xdr:col>
+      <xdr:colOff>90489</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>100</xdr:col>
+      <xdr:colOff>91848</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="357" name="直線矢印コネクタ 356">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E64A3BF6-712B-4404-ADF1-6157E614ADFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="356" idx="2"/>
+          <a:endCxn id="121" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="19959639" y="5915025"/>
+          <a:ext cx="1359" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -40800,7 +42856,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -40833,9 +42889,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -40868,6 +42941,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -41043,7 +43133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -41691,7 +43781,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -41707,55 +43797,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="90" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="99" t="s">
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
-      <c r="X1" s="100"/>
-      <c r="Y1" s="100"/>
-      <c r="Z1" s="101"/>
-      <c r="AA1" s="80" t="s">
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="82"/>
-      <c r="AC1" s="108" t="str">
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="81" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="109"/>
-      <c r="AE1" s="109"/>
-      <c r="AF1" s="110"/>
-      <c r="AG1" s="73">
+      <c r="AD1" s="82"/>
+      <c r="AE1" s="82"/>
+      <c r="AF1" s="83"/>
+      <c r="AG1" s="46">
         <f>IF(D8="","",D8)</f>
         <v>43677</v>
       </c>
-      <c r="AH1" s="74"/>
-      <c r="AI1" s="75"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="48"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -41763,51 +43853,51 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="95"/>
-      <c r="S2" s="102"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="104"/>
-      <c r="AA2" s="80" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="76"/>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="82"/>
-      <c r="AC2" s="86" t="str">
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="59" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="87"/>
-      <c r="AE2" s="87"/>
-      <c r="AF2" s="88"/>
-      <c r="AG2" s="73" t="str">
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="61"/>
+      <c r="AG2" s="46" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="74"/>
-      <c r="AI2" s="75"/>
+      <c r="AH2" s="47"/>
+      <c r="AI2" s="48"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -41815,43 +43905,43 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="97"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="106"/>
-      <c r="U3" s="106"/>
-      <c r="V3" s="106"/>
-      <c r="W3" s="106"/>
-      <c r="X3" s="106"/>
-      <c r="Y3" s="106"/>
-      <c r="Z3" s="107"/>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="82"/>
-      <c r="AC3" s="108"/>
-      <c r="AD3" s="109"/>
-      <c r="AE3" s="109"/>
-      <c r="AF3" s="110"/>
-      <c r="AG3" s="73"/>
-      <c r="AH3" s="74"/>
-      <c r="AI3" s="75"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="81"/>
+      <c r="AD3" s="82"/>
+      <c r="AE3" s="82"/>
+      <c r="AF3" s="83"/>
+      <c r="AG3" s="46"/>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="48"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -41888,1034 +43978,1190 @@
       <c r="A7" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="76" t="s">
+      <c r="C7" s="50"/>
+      <c r="D7" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="78"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="76" t="s">
+      <c r="E7" s="51"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="78"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="79" t="s">
+      <c r="H7" s="51"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78"/>
-      <c r="N7" s="78"/>
-      <c r="O7" s="78"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="76" t="s">
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="R7" s="78"/>
-      <c r="S7" s="78"/>
-      <c r="T7" s="78"/>
-      <c r="U7" s="78"/>
-      <c r="V7" s="78"/>
-      <c r="W7" s="78"/>
-      <c r="X7" s="78"/>
-      <c r="Y7" s="78"/>
-      <c r="Z7" s="78"/>
-      <c r="AA7" s="78"/>
-      <c r="AB7" s="78"/>
-      <c r="AC7" s="78"/>
-      <c r="AD7" s="78"/>
-      <c r="AE7" s="77"/>
-      <c r="AF7" s="76" t="s">
+      <c r="R7" s="51"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="51"/>
+      <c r="X7" s="51"/>
+      <c r="Y7" s="51"/>
+      <c r="Z7" s="51"/>
+      <c r="AA7" s="51"/>
+      <c r="AB7" s="51"/>
+      <c r="AC7" s="51"/>
+      <c r="AD7" s="51"/>
+      <c r="AE7" s="50"/>
+      <c r="AF7" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AG7" s="78"/>
-      <c r="AH7" s="78"/>
-      <c r="AI7" s="77"/>
+      <c r="AG7" s="51"/>
+      <c r="AH7" s="51"/>
+      <c r="AI7" s="50"/>
     </row>
     <row r="8" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="26">
         <v>1</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="61">
+      <c r="C8" s="98"/>
+      <c r="D8" s="99">
         <v>43677</v>
       </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="64" t="s">
+      <c r="E8" s="100"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="65"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="67" t="s">
+      <c r="H8" s="103"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="105" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="70" t="s">
+      <c r="K8" s="106"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="R8" s="71"/>
-      <c r="S8" s="71"/>
-      <c r="T8" s="71"/>
-      <c r="U8" s="71"/>
-      <c r="V8" s="71"/>
-      <c r="W8" s="71"/>
-      <c r="X8" s="71"/>
-      <c r="Y8" s="71"/>
-      <c r="Z8" s="71"/>
-      <c r="AA8" s="71"/>
-      <c r="AB8" s="71"/>
-      <c r="AC8" s="71"/>
-      <c r="AD8" s="71"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="67" t="s">
+      <c r="R8" s="109"/>
+      <c r="S8" s="109"/>
+      <c r="T8" s="109"/>
+      <c r="U8" s="109"/>
+      <c r="V8" s="109"/>
+      <c r="W8" s="109"/>
+      <c r="X8" s="109"/>
+      <c r="Y8" s="109"/>
+      <c r="Z8" s="109"/>
+      <c r="AA8" s="109"/>
+      <c r="AB8" s="109"/>
+      <c r="AC8" s="109"/>
+      <c r="AD8" s="109"/>
+      <c r="AE8" s="110"/>
+      <c r="AF8" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="AG8" s="68"/>
-      <c r="AH8" s="68"/>
-      <c r="AI8" s="69"/>
+      <c r="AG8" s="106"/>
+      <c r="AH8" s="106"/>
+      <c r="AI8" s="107"/>
     </row>
     <row r="9" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="27"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="56"/>
-      <c r="AB9" s="56"/>
-      <c r="AC9" s="56"/>
-      <c r="AD9" s="56"/>
-      <c r="AE9" s="57"/>
-      <c r="AF9" s="52"/>
-      <c r="AG9" s="53"/>
-      <c r="AH9" s="53"/>
-      <c r="AI9" s="54"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="95"/>
+      <c r="S9" s="95"/>
+      <c r="T9" s="95"/>
+      <c r="U9" s="95"/>
+      <c r="V9" s="95"/>
+      <c r="W9" s="95"/>
+      <c r="X9" s="95"/>
+      <c r="Y9" s="95"/>
+      <c r="Z9" s="95"/>
+      <c r="AA9" s="95"/>
+      <c r="AB9" s="95"/>
+      <c r="AC9" s="95"/>
+      <c r="AD9" s="95"/>
+      <c r="AE9" s="96"/>
+      <c r="AF9" s="91"/>
+      <c r="AG9" s="92"/>
+      <c r="AH9" s="92"/>
+      <c r="AI9" s="93"/>
     </row>
     <row r="10" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="27"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="56"/>
-      <c r="AB10" s="56"/>
-      <c r="AC10" s="56"/>
-      <c r="AD10" s="56"/>
-      <c r="AE10" s="57"/>
-      <c r="AF10" s="52"/>
-      <c r="AG10" s="53"/>
-      <c r="AH10" s="53"/>
-      <c r="AI10" s="54"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="92"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="92"/>
+      <c r="O10" s="92"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="95"/>
+      <c r="S10" s="95"/>
+      <c r="T10" s="95"/>
+      <c r="U10" s="95"/>
+      <c r="V10" s="95"/>
+      <c r="W10" s="95"/>
+      <c r="X10" s="95"/>
+      <c r="Y10" s="95"/>
+      <c r="Z10" s="95"/>
+      <c r="AA10" s="95"/>
+      <c r="AB10" s="95"/>
+      <c r="AC10" s="95"/>
+      <c r="AD10" s="95"/>
+      <c r="AE10" s="96"/>
+      <c r="AF10" s="91"/>
+      <c r="AG10" s="92"/>
+      <c r="AH10" s="92"/>
+      <c r="AI10" s="93"/>
     </row>
     <row r="11" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="27"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="56"/>
-      <c r="X11" s="56"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="56"/>
-      <c r="AB11" s="56"/>
-      <c r="AC11" s="56"/>
-      <c r="AD11" s="56"/>
-      <c r="AE11" s="57"/>
-      <c r="AF11" s="52"/>
-      <c r="AG11" s="53"/>
-      <c r="AH11" s="53"/>
-      <c r="AI11" s="54"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="94"/>
+      <c r="R11" s="95"/>
+      <c r="S11" s="95"/>
+      <c r="T11" s="95"/>
+      <c r="U11" s="95"/>
+      <c r="V11" s="95"/>
+      <c r="W11" s="95"/>
+      <c r="X11" s="95"/>
+      <c r="Y11" s="95"/>
+      <c r="Z11" s="95"/>
+      <c r="AA11" s="95"/>
+      <c r="AB11" s="95"/>
+      <c r="AC11" s="95"/>
+      <c r="AD11" s="95"/>
+      <c r="AE11" s="96"/>
+      <c r="AF11" s="91"/>
+      <c r="AG11" s="92"/>
+      <c r="AH11" s="92"/>
+      <c r="AI11" s="93"/>
     </row>
     <row r="12" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="27"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="56"/>
-      <c r="V12" s="56"/>
-      <c r="W12" s="56"/>
-      <c r="X12" s="56"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="56"/>
-      <c r="AA12" s="56"/>
-      <c r="AB12" s="56"/>
-      <c r="AC12" s="56"/>
-      <c r="AD12" s="56"/>
-      <c r="AE12" s="57"/>
-      <c r="AF12" s="52"/>
-      <c r="AG12" s="53"/>
-      <c r="AH12" s="53"/>
-      <c r="AI12" s="54"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="92"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="95"/>
+      <c r="S12" s="95"/>
+      <c r="T12" s="95"/>
+      <c r="U12" s="95"/>
+      <c r="V12" s="95"/>
+      <c r="W12" s="95"/>
+      <c r="X12" s="95"/>
+      <c r="Y12" s="95"/>
+      <c r="Z12" s="95"/>
+      <c r="AA12" s="95"/>
+      <c r="AB12" s="95"/>
+      <c r="AC12" s="95"/>
+      <c r="AD12" s="95"/>
+      <c r="AE12" s="96"/>
+      <c r="AF12" s="91"/>
+      <c r="AG12" s="92"/>
+      <c r="AH12" s="92"/>
+      <c r="AI12" s="93"/>
     </row>
     <row r="13" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="27"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="56"/>
-      <c r="V13" s="56"/>
-      <c r="W13" s="56"/>
-      <c r="X13" s="56"/>
-      <c r="Y13" s="56"/>
-      <c r="Z13" s="56"/>
-      <c r="AA13" s="56"/>
-      <c r="AB13" s="56"/>
-      <c r="AC13" s="56"/>
-      <c r="AD13" s="56"/>
-      <c r="AE13" s="57"/>
-      <c r="AF13" s="52"/>
-      <c r="AG13" s="53"/>
-      <c r="AH13" s="53"/>
-      <c r="AI13" s="54"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="92"/>
+      <c r="O13" s="92"/>
+      <c r="P13" s="93"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="95"/>
+      <c r="S13" s="95"/>
+      <c r="T13" s="95"/>
+      <c r="U13" s="95"/>
+      <c r="V13" s="95"/>
+      <c r="W13" s="95"/>
+      <c r="X13" s="95"/>
+      <c r="Y13" s="95"/>
+      <c r="Z13" s="95"/>
+      <c r="AA13" s="95"/>
+      <c r="AB13" s="95"/>
+      <c r="AC13" s="95"/>
+      <c r="AD13" s="95"/>
+      <c r="AE13" s="96"/>
+      <c r="AF13" s="91"/>
+      <c r="AG13" s="92"/>
+      <c r="AH13" s="92"/>
+      <c r="AI13" s="93"/>
     </row>
     <row r="14" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="27"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="56"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="56"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="56"/>
-      <c r="AA14" s="56"/>
-      <c r="AB14" s="56"/>
-      <c r="AC14" s="56"/>
-      <c r="AD14" s="56"/>
-      <c r="AE14" s="57"/>
-      <c r="AF14" s="52"/>
-      <c r="AG14" s="53"/>
-      <c r="AH14" s="53"/>
-      <c r="AI14" s="54"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="95"/>
+      <c r="S14" s="95"/>
+      <c r="T14" s="95"/>
+      <c r="U14" s="95"/>
+      <c r="V14" s="95"/>
+      <c r="W14" s="95"/>
+      <c r="X14" s="95"/>
+      <c r="Y14" s="95"/>
+      <c r="Z14" s="95"/>
+      <c r="AA14" s="95"/>
+      <c r="AB14" s="95"/>
+      <c r="AC14" s="95"/>
+      <c r="AD14" s="95"/>
+      <c r="AE14" s="96"/>
+      <c r="AF14" s="91"/>
+      <c r="AG14" s="92"/>
+      <c r="AH14" s="92"/>
+      <c r="AI14" s="93"/>
     </row>
     <row r="15" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="27"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="56"/>
-      <c r="V15" s="56"/>
-      <c r="W15" s="56"/>
-      <c r="X15" s="56"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="56"/>
-      <c r="AA15" s="56"/>
-      <c r="AB15" s="56"/>
-      <c r="AC15" s="56"/>
-      <c r="AD15" s="56"/>
-      <c r="AE15" s="57"/>
-      <c r="AF15" s="52"/>
-      <c r="AG15" s="53"/>
-      <c r="AH15" s="53"/>
-      <c r="AI15" s="54"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="93"/>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="95"/>
+      <c r="S15" s="95"/>
+      <c r="T15" s="95"/>
+      <c r="U15" s="95"/>
+      <c r="V15" s="95"/>
+      <c r="W15" s="95"/>
+      <c r="X15" s="95"/>
+      <c r="Y15" s="95"/>
+      <c r="Z15" s="95"/>
+      <c r="AA15" s="95"/>
+      <c r="AB15" s="95"/>
+      <c r="AC15" s="95"/>
+      <c r="AD15" s="95"/>
+      <c r="AE15" s="96"/>
+      <c r="AF15" s="91"/>
+      <c r="AG15" s="92"/>
+      <c r="AH15" s="92"/>
+      <c r="AI15" s="93"/>
     </row>
     <row r="16" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="27"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
-      <c r="AA16" s="56"/>
-      <c r="AB16" s="56"/>
-      <c r="AC16" s="56"/>
-      <c r="AD16" s="56"/>
-      <c r="AE16" s="57"/>
-      <c r="AF16" s="52"/>
-      <c r="AG16" s="53"/>
-      <c r="AH16" s="53"/>
-      <c r="AI16" s="54"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="95"/>
+      <c r="S16" s="95"/>
+      <c r="T16" s="95"/>
+      <c r="U16" s="95"/>
+      <c r="V16" s="95"/>
+      <c r="W16" s="95"/>
+      <c r="X16" s="95"/>
+      <c r="Y16" s="95"/>
+      <c r="Z16" s="95"/>
+      <c r="AA16" s="95"/>
+      <c r="AB16" s="95"/>
+      <c r="AC16" s="95"/>
+      <c r="AD16" s="95"/>
+      <c r="AE16" s="96"/>
+      <c r="AF16" s="91"/>
+      <c r="AG16" s="92"/>
+      <c r="AH16" s="92"/>
+      <c r="AI16" s="93"/>
     </row>
     <row r="17" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="27"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="56"/>
-      <c r="AA17" s="56"/>
-      <c r="AB17" s="56"/>
-      <c r="AC17" s="56"/>
-      <c r="AD17" s="56"/>
-      <c r="AE17" s="57"/>
-      <c r="AF17" s="52"/>
-      <c r="AG17" s="53"/>
-      <c r="AH17" s="53"/>
-      <c r="AI17" s="54"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="93"/>
+      <c r="Q17" s="94"/>
+      <c r="R17" s="95"/>
+      <c r="S17" s="95"/>
+      <c r="T17" s="95"/>
+      <c r="U17" s="95"/>
+      <c r="V17" s="95"/>
+      <c r="W17" s="95"/>
+      <c r="X17" s="95"/>
+      <c r="Y17" s="95"/>
+      <c r="Z17" s="95"/>
+      <c r="AA17" s="95"/>
+      <c r="AB17" s="95"/>
+      <c r="AC17" s="95"/>
+      <c r="AD17" s="95"/>
+      <c r="AE17" s="96"/>
+      <c r="AF17" s="91"/>
+      <c r="AG17" s="92"/>
+      <c r="AH17" s="92"/>
+      <c r="AI17" s="93"/>
     </row>
     <row r="18" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="27"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="56"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="56"/>
-      <c r="X18" s="56"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="56"/>
-      <c r="AA18" s="56"/>
-      <c r="AB18" s="56"/>
-      <c r="AC18" s="56"/>
-      <c r="AD18" s="56"/>
-      <c r="AE18" s="57"/>
-      <c r="AF18" s="52"/>
-      <c r="AG18" s="53"/>
-      <c r="AH18" s="53"/>
-      <c r="AI18" s="54"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="92"/>
+      <c r="O18" s="92"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="95"/>
+      <c r="S18" s="95"/>
+      <c r="T18" s="95"/>
+      <c r="U18" s="95"/>
+      <c r="V18" s="95"/>
+      <c r="W18" s="95"/>
+      <c r="X18" s="95"/>
+      <c r="Y18" s="95"/>
+      <c r="Z18" s="95"/>
+      <c r="AA18" s="95"/>
+      <c r="AB18" s="95"/>
+      <c r="AC18" s="95"/>
+      <c r="AD18" s="95"/>
+      <c r="AE18" s="96"/>
+      <c r="AF18" s="91"/>
+      <c r="AG18" s="92"/>
+      <c r="AH18" s="92"/>
+      <c r="AI18" s="93"/>
     </row>
     <row r="19" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="27"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="56"/>
-      <c r="U19" s="56"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="56"/>
-      <c r="AA19" s="56"/>
-      <c r="AB19" s="56"/>
-      <c r="AC19" s="56"/>
-      <c r="AD19" s="56"/>
-      <c r="AE19" s="57"/>
-      <c r="AF19" s="52"/>
-      <c r="AG19" s="53"/>
-      <c r="AH19" s="53"/>
-      <c r="AI19" s="54"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="92"/>
+      <c r="O19" s="92"/>
+      <c r="P19" s="93"/>
+      <c r="Q19" s="94"/>
+      <c r="R19" s="95"/>
+      <c r="S19" s="95"/>
+      <c r="T19" s="95"/>
+      <c r="U19" s="95"/>
+      <c r="V19" s="95"/>
+      <c r="W19" s="95"/>
+      <c r="X19" s="95"/>
+      <c r="Y19" s="95"/>
+      <c r="Z19" s="95"/>
+      <c r="AA19" s="95"/>
+      <c r="AB19" s="95"/>
+      <c r="AC19" s="95"/>
+      <c r="AD19" s="95"/>
+      <c r="AE19" s="96"/>
+      <c r="AF19" s="91"/>
+      <c r="AG19" s="92"/>
+      <c r="AH19" s="92"/>
+      <c r="AI19" s="93"/>
     </row>
     <row r="20" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="27"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="56"/>
-      <c r="AB20" s="56"/>
-      <c r="AC20" s="56"/>
-      <c r="AD20" s="56"/>
-      <c r="AE20" s="57"/>
-      <c r="AF20" s="52"/>
-      <c r="AG20" s="53"/>
-      <c r="AH20" s="53"/>
-      <c r="AI20" s="54"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="92"/>
+      <c r="N20" s="92"/>
+      <c r="O20" s="92"/>
+      <c r="P20" s="93"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="95"/>
+      <c r="S20" s="95"/>
+      <c r="T20" s="95"/>
+      <c r="U20" s="95"/>
+      <c r="V20" s="95"/>
+      <c r="W20" s="95"/>
+      <c r="X20" s="95"/>
+      <c r="Y20" s="95"/>
+      <c r="Z20" s="95"/>
+      <c r="AA20" s="95"/>
+      <c r="AB20" s="95"/>
+      <c r="AC20" s="95"/>
+      <c r="AD20" s="95"/>
+      <c r="AE20" s="96"/>
+      <c r="AF20" s="91"/>
+      <c r="AG20" s="92"/>
+      <c r="AH20" s="92"/>
+      <c r="AI20" s="93"/>
     </row>
     <row r="21" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="27"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="56"/>
-      <c r="U21" s="56"/>
-      <c r="V21" s="56"/>
-      <c r="W21" s="56"/>
-      <c r="X21" s="56"/>
-      <c r="Y21" s="56"/>
-      <c r="Z21" s="56"/>
-      <c r="AA21" s="56"/>
-      <c r="AB21" s="56"/>
-      <c r="AC21" s="56"/>
-      <c r="AD21" s="56"/>
-      <c r="AE21" s="57"/>
-      <c r="AF21" s="52"/>
-      <c r="AG21" s="53"/>
-      <c r="AH21" s="53"/>
-      <c r="AI21" s="54"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+      <c r="N21" s="92"/>
+      <c r="O21" s="92"/>
+      <c r="P21" s="93"/>
+      <c r="Q21" s="94"/>
+      <c r="R21" s="95"/>
+      <c r="S21" s="95"/>
+      <c r="T21" s="95"/>
+      <c r="U21" s="95"/>
+      <c r="V21" s="95"/>
+      <c r="W21" s="95"/>
+      <c r="X21" s="95"/>
+      <c r="Y21" s="95"/>
+      <c r="Z21" s="95"/>
+      <c r="AA21" s="95"/>
+      <c r="AB21" s="95"/>
+      <c r="AC21" s="95"/>
+      <c r="AD21" s="95"/>
+      <c r="AE21" s="96"/>
+      <c r="AF21" s="91"/>
+      <c r="AG21" s="92"/>
+      <c r="AH21" s="92"/>
+      <c r="AI21" s="93"/>
     </row>
     <row r="22" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="27"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="56"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="56"/>
-      <c r="X22" s="56"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="56"/>
-      <c r="AA22" s="56"/>
-      <c r="AB22" s="56"/>
-      <c r="AC22" s="56"/>
-      <c r="AD22" s="56"/>
-      <c r="AE22" s="57"/>
-      <c r="AF22" s="52"/>
-      <c r="AG22" s="53"/>
-      <c r="AH22" s="53"/>
-      <c r="AI22" s="54"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="92"/>
+      <c r="N22" s="92"/>
+      <c r="O22" s="92"/>
+      <c r="P22" s="93"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="95"/>
+      <c r="S22" s="95"/>
+      <c r="T22" s="95"/>
+      <c r="U22" s="95"/>
+      <c r="V22" s="95"/>
+      <c r="W22" s="95"/>
+      <c r="X22" s="95"/>
+      <c r="Y22" s="95"/>
+      <c r="Z22" s="95"/>
+      <c r="AA22" s="95"/>
+      <c r="AB22" s="95"/>
+      <c r="AC22" s="95"/>
+      <c r="AD22" s="95"/>
+      <c r="AE22" s="96"/>
+      <c r="AF22" s="91"/>
+      <c r="AG22" s="92"/>
+      <c r="AH22" s="92"/>
+      <c r="AI22" s="93"/>
     </row>
     <row r="23" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="27"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="56"/>
-      <c r="U23" s="56"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="56"/>
-      <c r="AA23" s="56"/>
-      <c r="AB23" s="56"/>
-      <c r="AC23" s="56"/>
-      <c r="AD23" s="56"/>
-      <c r="AE23" s="57"/>
-      <c r="AF23" s="52"/>
-      <c r="AG23" s="53"/>
-      <c r="AH23" s="53"/>
-      <c r="AI23" s="54"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="92"/>
+      <c r="L23" s="92"/>
+      <c r="M23" s="92"/>
+      <c r="N23" s="92"/>
+      <c r="O23" s="92"/>
+      <c r="P23" s="93"/>
+      <c r="Q23" s="94"/>
+      <c r="R23" s="95"/>
+      <c r="S23" s="95"/>
+      <c r="T23" s="95"/>
+      <c r="U23" s="95"/>
+      <c r="V23" s="95"/>
+      <c r="W23" s="95"/>
+      <c r="X23" s="95"/>
+      <c r="Y23" s="95"/>
+      <c r="Z23" s="95"/>
+      <c r="AA23" s="95"/>
+      <c r="AB23" s="95"/>
+      <c r="AC23" s="95"/>
+      <c r="AD23" s="95"/>
+      <c r="AE23" s="96"/>
+      <c r="AF23" s="91"/>
+      <c r="AG23" s="92"/>
+      <c r="AH23" s="92"/>
+      <c r="AI23" s="93"/>
     </row>
     <row r="24" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="27"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="56"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="56"/>
-      <c r="U24" s="56"/>
-      <c r="V24" s="56"/>
-      <c r="W24" s="56"/>
-      <c r="X24" s="56"/>
-      <c r="Y24" s="56"/>
-      <c r="Z24" s="56"/>
-      <c r="AA24" s="56"/>
-      <c r="AB24" s="56"/>
-      <c r="AC24" s="56"/>
-      <c r="AD24" s="56"/>
-      <c r="AE24" s="57"/>
-      <c r="AF24" s="52"/>
-      <c r="AG24" s="53"/>
-      <c r="AH24" s="53"/>
-      <c r="AI24" s="54"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="92"/>
+      <c r="L24" s="92"/>
+      <c r="M24" s="92"/>
+      <c r="N24" s="92"/>
+      <c r="O24" s="92"/>
+      <c r="P24" s="93"/>
+      <c r="Q24" s="94"/>
+      <c r="R24" s="95"/>
+      <c r="S24" s="95"/>
+      <c r="T24" s="95"/>
+      <c r="U24" s="95"/>
+      <c r="V24" s="95"/>
+      <c r="W24" s="95"/>
+      <c r="X24" s="95"/>
+      <c r="Y24" s="95"/>
+      <c r="Z24" s="95"/>
+      <c r="AA24" s="95"/>
+      <c r="AB24" s="95"/>
+      <c r="AC24" s="95"/>
+      <c r="AD24" s="95"/>
+      <c r="AE24" s="96"/>
+      <c r="AF24" s="91"/>
+      <c r="AG24" s="92"/>
+      <c r="AH24" s="92"/>
+      <c r="AI24" s="93"/>
     </row>
     <row r="25" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="27"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="56"/>
-      <c r="S25" s="56"/>
-      <c r="T25" s="56"/>
-      <c r="U25" s="56"/>
-      <c r="V25" s="56"/>
-      <c r="W25" s="56"/>
-      <c r="X25" s="56"/>
-      <c r="Y25" s="56"/>
-      <c r="Z25" s="56"/>
-      <c r="AA25" s="56"/>
-      <c r="AB25" s="56"/>
-      <c r="AC25" s="56"/>
-      <c r="AD25" s="56"/>
-      <c r="AE25" s="57"/>
-      <c r="AF25" s="52"/>
-      <c r="AG25" s="53"/>
-      <c r="AH25" s="53"/>
-      <c r="AI25" s="54"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="92"/>
+      <c r="M25" s="92"/>
+      <c r="N25" s="92"/>
+      <c r="O25" s="92"/>
+      <c r="P25" s="93"/>
+      <c r="Q25" s="94"/>
+      <c r="R25" s="95"/>
+      <c r="S25" s="95"/>
+      <c r="T25" s="95"/>
+      <c r="U25" s="95"/>
+      <c r="V25" s="95"/>
+      <c r="W25" s="95"/>
+      <c r="X25" s="95"/>
+      <c r="Y25" s="95"/>
+      <c r="Z25" s="95"/>
+      <c r="AA25" s="95"/>
+      <c r="AB25" s="95"/>
+      <c r="AC25" s="95"/>
+      <c r="AD25" s="95"/>
+      <c r="AE25" s="96"/>
+      <c r="AF25" s="91"/>
+      <c r="AG25" s="92"/>
+      <c r="AH25" s="92"/>
+      <c r="AI25" s="93"/>
     </row>
     <row r="26" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="27"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="56"/>
-      <c r="S26" s="56"/>
-      <c r="T26" s="56"/>
-      <c r="U26" s="56"/>
-      <c r="V26" s="56"/>
-      <c r="W26" s="56"/>
-      <c r="X26" s="56"/>
-      <c r="Y26" s="56"/>
-      <c r="Z26" s="56"/>
-      <c r="AA26" s="56"/>
-      <c r="AB26" s="56"/>
-      <c r="AC26" s="56"/>
-      <c r="AD26" s="56"/>
-      <c r="AE26" s="57"/>
-      <c r="AF26" s="52"/>
-      <c r="AG26" s="53"/>
-      <c r="AH26" s="53"/>
-      <c r="AI26" s="54"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="92"/>
+      <c r="M26" s="92"/>
+      <c r="N26" s="92"/>
+      <c r="O26" s="92"/>
+      <c r="P26" s="93"/>
+      <c r="Q26" s="94"/>
+      <c r="R26" s="95"/>
+      <c r="S26" s="95"/>
+      <c r="T26" s="95"/>
+      <c r="U26" s="95"/>
+      <c r="V26" s="95"/>
+      <c r="W26" s="95"/>
+      <c r="X26" s="95"/>
+      <c r="Y26" s="95"/>
+      <c r="Z26" s="95"/>
+      <c r="AA26" s="95"/>
+      <c r="AB26" s="95"/>
+      <c r="AC26" s="95"/>
+      <c r="AD26" s="95"/>
+      <c r="AE26" s="96"/>
+      <c r="AF26" s="91"/>
+      <c r="AG26" s="92"/>
+      <c r="AH26" s="92"/>
+      <c r="AI26" s="93"/>
     </row>
     <row r="27" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="27"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="55"/>
-      <c r="R27" s="56"/>
-      <c r="S27" s="56"/>
-      <c r="T27" s="56"/>
-      <c r="U27" s="56"/>
-      <c r="V27" s="56"/>
-      <c r="W27" s="56"/>
-      <c r="X27" s="56"/>
-      <c r="Y27" s="56"/>
-      <c r="Z27" s="56"/>
-      <c r="AA27" s="56"/>
-      <c r="AB27" s="56"/>
-      <c r="AC27" s="56"/>
-      <c r="AD27" s="56"/>
-      <c r="AE27" s="57"/>
-      <c r="AF27" s="52"/>
-      <c r="AG27" s="53"/>
-      <c r="AH27" s="53"/>
-      <c r="AI27" s="54"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="91"/>
+      <c r="K27" s="92"/>
+      <c r="L27" s="92"/>
+      <c r="M27" s="92"/>
+      <c r="N27" s="92"/>
+      <c r="O27" s="92"/>
+      <c r="P27" s="93"/>
+      <c r="Q27" s="94"/>
+      <c r="R27" s="95"/>
+      <c r="S27" s="95"/>
+      <c r="T27" s="95"/>
+      <c r="U27" s="95"/>
+      <c r="V27" s="95"/>
+      <c r="W27" s="95"/>
+      <c r="X27" s="95"/>
+      <c r="Y27" s="95"/>
+      <c r="Z27" s="95"/>
+      <c r="AA27" s="95"/>
+      <c r="AB27" s="95"/>
+      <c r="AC27" s="95"/>
+      <c r="AD27" s="95"/>
+      <c r="AE27" s="96"/>
+      <c r="AF27" s="91"/>
+      <c r="AG27" s="92"/>
+      <c r="AH27" s="92"/>
+      <c r="AI27" s="93"/>
     </row>
     <row r="28" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="27"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="56"/>
-      <c r="S28" s="56"/>
-      <c r="T28" s="56"/>
-      <c r="U28" s="56"/>
-      <c r="V28" s="56"/>
-      <c r="W28" s="56"/>
-      <c r="X28" s="56"/>
-      <c r="Y28" s="56"/>
-      <c r="Z28" s="56"/>
-      <c r="AA28" s="56"/>
-      <c r="AB28" s="56"/>
-      <c r="AC28" s="56"/>
-      <c r="AD28" s="56"/>
-      <c r="AE28" s="57"/>
-      <c r="AF28" s="52"/>
-      <c r="AG28" s="53"/>
-      <c r="AH28" s="53"/>
-      <c r="AI28" s="54"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="91"/>
+      <c r="K28" s="92"/>
+      <c r="L28" s="92"/>
+      <c r="M28" s="92"/>
+      <c r="N28" s="92"/>
+      <c r="O28" s="92"/>
+      <c r="P28" s="93"/>
+      <c r="Q28" s="94"/>
+      <c r="R28" s="95"/>
+      <c r="S28" s="95"/>
+      <c r="T28" s="95"/>
+      <c r="U28" s="95"/>
+      <c r="V28" s="95"/>
+      <c r="W28" s="95"/>
+      <c r="X28" s="95"/>
+      <c r="Y28" s="95"/>
+      <c r="Z28" s="95"/>
+      <c r="AA28" s="95"/>
+      <c r="AB28" s="95"/>
+      <c r="AC28" s="95"/>
+      <c r="AD28" s="95"/>
+      <c r="AE28" s="96"/>
+      <c r="AF28" s="91"/>
+      <c r="AG28" s="92"/>
+      <c r="AH28" s="92"/>
+      <c r="AI28" s="93"/>
     </row>
     <row r="29" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="27"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="56"/>
-      <c r="S29" s="56"/>
-      <c r="T29" s="56"/>
-      <c r="U29" s="56"/>
-      <c r="V29" s="56"/>
-      <c r="W29" s="56"/>
-      <c r="X29" s="56"/>
-      <c r="Y29" s="56"/>
-      <c r="Z29" s="56"/>
-      <c r="AA29" s="56"/>
-      <c r="AB29" s="56"/>
-      <c r="AC29" s="56"/>
-      <c r="AD29" s="56"/>
-      <c r="AE29" s="57"/>
-      <c r="AF29" s="52"/>
-      <c r="AG29" s="53"/>
-      <c r="AH29" s="53"/>
-      <c r="AI29" s="54"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="92"/>
+      <c r="L29" s="92"/>
+      <c r="M29" s="92"/>
+      <c r="N29" s="92"/>
+      <c r="O29" s="92"/>
+      <c r="P29" s="93"/>
+      <c r="Q29" s="94"/>
+      <c r="R29" s="95"/>
+      <c r="S29" s="95"/>
+      <c r="T29" s="95"/>
+      <c r="U29" s="95"/>
+      <c r="V29" s="95"/>
+      <c r="W29" s="95"/>
+      <c r="X29" s="95"/>
+      <c r="Y29" s="95"/>
+      <c r="Z29" s="95"/>
+      <c r="AA29" s="95"/>
+      <c r="AB29" s="95"/>
+      <c r="AC29" s="95"/>
+      <c r="AD29" s="95"/>
+      <c r="AE29" s="96"/>
+      <c r="AF29" s="91"/>
+      <c r="AG29" s="92"/>
+      <c r="AH29" s="92"/>
+      <c r="AI29" s="93"/>
     </row>
     <row r="30" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="27"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="55"/>
-      <c r="R30" s="56"/>
-      <c r="S30" s="56"/>
-      <c r="T30" s="56"/>
-      <c r="U30" s="56"/>
-      <c r="V30" s="56"/>
-      <c r="W30" s="56"/>
-      <c r="X30" s="56"/>
-      <c r="Y30" s="56"/>
-      <c r="Z30" s="56"/>
-      <c r="AA30" s="56"/>
-      <c r="AB30" s="56"/>
-      <c r="AC30" s="56"/>
-      <c r="AD30" s="56"/>
-      <c r="AE30" s="57"/>
-      <c r="AF30" s="52"/>
-      <c r="AG30" s="53"/>
-      <c r="AH30" s="53"/>
-      <c r="AI30" s="54"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="92"/>
+      <c r="L30" s="92"/>
+      <c r="M30" s="92"/>
+      <c r="N30" s="92"/>
+      <c r="O30" s="92"/>
+      <c r="P30" s="93"/>
+      <c r="Q30" s="94"/>
+      <c r="R30" s="95"/>
+      <c r="S30" s="95"/>
+      <c r="T30" s="95"/>
+      <c r="U30" s="95"/>
+      <c r="V30" s="95"/>
+      <c r="W30" s="95"/>
+      <c r="X30" s="95"/>
+      <c r="Y30" s="95"/>
+      <c r="Z30" s="95"/>
+      <c r="AA30" s="95"/>
+      <c r="AB30" s="95"/>
+      <c r="AC30" s="95"/>
+      <c r="AD30" s="95"/>
+      <c r="AE30" s="96"/>
+      <c r="AF30" s="91"/>
+      <c r="AG30" s="92"/>
+      <c r="AH30" s="92"/>
+      <c r="AI30" s="93"/>
     </row>
     <row r="31" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="27"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="55"/>
-      <c r="R31" s="56"/>
-      <c r="S31" s="56"/>
-      <c r="T31" s="56"/>
-      <c r="U31" s="56"/>
-      <c r="V31" s="56"/>
-      <c r="W31" s="56"/>
-      <c r="X31" s="56"/>
-      <c r="Y31" s="56"/>
-      <c r="Z31" s="56"/>
-      <c r="AA31" s="56"/>
-      <c r="AB31" s="56"/>
-      <c r="AC31" s="56"/>
-      <c r="AD31" s="56"/>
-      <c r="AE31" s="57"/>
-      <c r="AF31" s="52"/>
-      <c r="AG31" s="53"/>
-      <c r="AH31" s="53"/>
-      <c r="AI31" s="54"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="91"/>
+      <c r="K31" s="92"/>
+      <c r="L31" s="92"/>
+      <c r="M31" s="92"/>
+      <c r="N31" s="92"/>
+      <c r="O31" s="92"/>
+      <c r="P31" s="93"/>
+      <c r="Q31" s="94"/>
+      <c r="R31" s="95"/>
+      <c r="S31" s="95"/>
+      <c r="T31" s="95"/>
+      <c r="U31" s="95"/>
+      <c r="V31" s="95"/>
+      <c r="W31" s="95"/>
+      <c r="X31" s="95"/>
+      <c r="Y31" s="95"/>
+      <c r="Z31" s="95"/>
+      <c r="AA31" s="95"/>
+      <c r="AB31" s="95"/>
+      <c r="AC31" s="95"/>
+      <c r="AD31" s="95"/>
+      <c r="AE31" s="96"/>
+      <c r="AF31" s="91"/>
+      <c r="AG31" s="92"/>
+      <c r="AH31" s="92"/>
+      <c r="AI31" s="93"/>
     </row>
     <row r="32" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="27"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="54"/>
-      <c r="Q32" s="55"/>
-      <c r="R32" s="56"/>
-      <c r="S32" s="56"/>
-      <c r="T32" s="56"/>
-      <c r="U32" s="56"/>
-      <c r="V32" s="56"/>
-      <c r="W32" s="56"/>
-      <c r="X32" s="56"/>
-      <c r="Y32" s="56"/>
-      <c r="Z32" s="56"/>
-      <c r="AA32" s="56"/>
-      <c r="AB32" s="56"/>
-      <c r="AC32" s="56"/>
-      <c r="AD32" s="56"/>
-      <c r="AE32" s="57"/>
-      <c r="AF32" s="52"/>
-      <c r="AG32" s="53"/>
-      <c r="AH32" s="53"/>
-      <c r="AI32" s="54"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="91"/>
+      <c r="K32" s="111"/>
+      <c r="L32" s="92"/>
+      <c r="M32" s="92"/>
+      <c r="N32" s="92"/>
+      <c r="O32" s="92"/>
+      <c r="P32" s="93"/>
+      <c r="Q32" s="94"/>
+      <c r="R32" s="95"/>
+      <c r="S32" s="95"/>
+      <c r="T32" s="95"/>
+      <c r="U32" s="95"/>
+      <c r="V32" s="95"/>
+      <c r="W32" s="95"/>
+      <c r="X32" s="95"/>
+      <c r="Y32" s="95"/>
+      <c r="Z32" s="95"/>
+      <c r="AA32" s="95"/>
+      <c r="AB32" s="95"/>
+      <c r="AC32" s="95"/>
+      <c r="AD32" s="95"/>
+      <c r="AE32" s="96"/>
+      <c r="AF32" s="91"/>
+      <c r="AG32" s="92"/>
+      <c r="AH32" s="92"/>
+      <c r="AI32" s="93"/>
     </row>
     <row r="33" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="27"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="55"/>
-      <c r="R33" s="56"/>
-      <c r="S33" s="56"/>
-      <c r="T33" s="56"/>
-      <c r="U33" s="56"/>
-      <c r="V33" s="56"/>
-      <c r="W33" s="56"/>
-      <c r="X33" s="56"/>
-      <c r="Y33" s="56"/>
-      <c r="Z33" s="56"/>
-      <c r="AA33" s="56"/>
-      <c r="AB33" s="56"/>
-      <c r="AC33" s="56"/>
-      <c r="AD33" s="56"/>
-      <c r="AE33" s="57"/>
-      <c r="AF33" s="52"/>
-      <c r="AG33" s="53"/>
-      <c r="AH33" s="53"/>
-      <c r="AI33" s="54"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="91"/>
+      <c r="K33" s="92"/>
+      <c r="L33" s="92"/>
+      <c r="M33" s="92"/>
+      <c r="N33" s="92"/>
+      <c r="O33" s="92"/>
+      <c r="P33" s="93"/>
+      <c r="Q33" s="94"/>
+      <c r="R33" s="95"/>
+      <c r="S33" s="95"/>
+      <c r="T33" s="95"/>
+      <c r="U33" s="95"/>
+      <c r="V33" s="95"/>
+      <c r="W33" s="95"/>
+      <c r="X33" s="95"/>
+      <c r="Y33" s="95"/>
+      <c r="Z33" s="95"/>
+      <c r="AA33" s="95"/>
+      <c r="AB33" s="95"/>
+      <c r="AC33" s="95"/>
+      <c r="AD33" s="95"/>
+      <c r="AE33" s="96"/>
+      <c r="AF33" s="91"/>
+      <c r="AG33" s="92"/>
+      <c r="AH33" s="92"/>
+      <c r="AI33" s="93"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -42939,162 +45185,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -43105,12 +45195,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:DN102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S41" sqref="S41"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>

--- a/サンプルプロジェクト/設計書/Nablarchを使用した開発の流れ.xlsx
+++ b/サンプルプロジェクト/設計書/Nablarchを使用した開発の流れ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD94B68-32DE-4978-9B0F-8EDF639CF2D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAB4E83-AC2F-4CEC-A482-CF06CE4D7842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="822" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -828,6 +828,87 @@
     <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -943,87 +1024,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -42810,6 +42810,128 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>140493</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>140495</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>186388</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>28319</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="362" name="Picture 103" descr="MC900432614">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{791753E8-215D-4537-A4EC-A2607F8157DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9522618" y="13273089"/>
+          <a:ext cx="248301" cy="221199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>173830</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>90489</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>17318</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>145001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="363" name="Picture 103" descr="MC900432614">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E012A03F-0251-4129-B716-B90D1198D6AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6519861" y="12556333"/>
+          <a:ext cx="248301" cy="221199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -43797,55 +43919,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="63" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="72" t="s">
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="53" t="s">
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
+      <c r="W1" s="100"/>
+      <c r="X1" s="100"/>
+      <c r="Y1" s="100"/>
+      <c r="Z1" s="101"/>
+      <c r="AA1" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="81" t="str">
+      <c r="AB1" s="82"/>
+      <c r="AC1" s="108" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="82"/>
-      <c r="AE1" s="82"/>
-      <c r="AF1" s="83"/>
-      <c r="AG1" s="46">
+      <c r="AD1" s="109"/>
+      <c r="AE1" s="109"/>
+      <c r="AF1" s="110"/>
+      <c r="AG1" s="73">
         <f>IF(D8="","",D8)</f>
         <v>43677</v>
       </c>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="48"/>
+      <c r="AH1" s="74"/>
+      <c r="AI1" s="75"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -43853,51 +43975,51 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="76"/>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="76"/>
-      <c r="Y2" s="76"/>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="53" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="93"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="103"/>
+      <c r="U2" s="103"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="103"/>
+      <c r="X2" s="103"/>
+      <c r="Y2" s="103"/>
+      <c r="Z2" s="104"/>
+      <c r="AA2" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="59" t="str">
+      <c r="AB2" s="82"/>
+      <c r="AC2" s="86" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="60"/>
-      <c r="AE2" s="60"/>
-      <c r="AF2" s="61"/>
-      <c r="AG2" s="46" t="str">
+      <c r="AD2" s="87"/>
+      <c r="AE2" s="87"/>
+      <c r="AF2" s="88"/>
+      <c r="AG2" s="73" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="47"/>
-      <c r="AI2" s="48"/>
+      <c r="AH2" s="74"/>
+      <c r="AI2" s="75"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -43905,43 +44027,43 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
-      <c r="W3" s="79"/>
-      <c r="X3" s="79"/>
-      <c r="Y3" s="79"/>
-      <c r="Z3" s="80"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="55"/>
-      <c r="AC3" s="81"/>
-      <c r="AD3" s="82"/>
-      <c r="AE3" s="82"/>
-      <c r="AF3" s="83"/>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="48"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="98"/>
+      <c r="S3" s="105"/>
+      <c r="T3" s="106"/>
+      <c r="U3" s="106"/>
+      <c r="V3" s="106"/>
+      <c r="W3" s="106"/>
+      <c r="X3" s="106"/>
+      <c r="Y3" s="106"/>
+      <c r="Z3" s="107"/>
+      <c r="AA3" s="80"/>
+      <c r="AB3" s="82"/>
+      <c r="AC3" s="108"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="109"/>
+      <c r="AF3" s="110"/>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="74"/>
+      <c r="AI3" s="75"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -43978,1190 +44100,1034 @@
       <c r="A7" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="49" t="s">
+      <c r="C7" s="77"/>
+      <c r="D7" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="49" t="s">
+      <c r="E7" s="78"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="52" t="s">
+      <c r="H7" s="78"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="49" t="s">
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="78"/>
+      <c r="O7" s="78"/>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="R7" s="51"/>
-      <c r="S7" s="51"/>
-      <c r="T7" s="51"/>
-      <c r="U7" s="51"/>
-      <c r="V7" s="51"/>
-      <c r="W7" s="51"/>
-      <c r="X7" s="51"/>
-      <c r="Y7" s="51"/>
-      <c r="Z7" s="51"/>
-      <c r="AA7" s="51"/>
-      <c r="AB7" s="51"/>
-      <c r="AC7" s="51"/>
-      <c r="AD7" s="51"/>
-      <c r="AE7" s="50"/>
-      <c r="AF7" s="49" t="s">
+      <c r="R7" s="78"/>
+      <c r="S7" s="78"/>
+      <c r="T7" s="78"/>
+      <c r="U7" s="78"/>
+      <c r="V7" s="78"/>
+      <c r="W7" s="78"/>
+      <c r="X7" s="78"/>
+      <c r="Y7" s="78"/>
+      <c r="Z7" s="78"/>
+      <c r="AA7" s="78"/>
+      <c r="AB7" s="78"/>
+      <c r="AC7" s="78"/>
+      <c r="AD7" s="78"/>
+      <c r="AE7" s="77"/>
+      <c r="AF7" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="AG7" s="51"/>
-      <c r="AH7" s="51"/>
-      <c r="AI7" s="50"/>
+      <c r="AG7" s="78"/>
+      <c r="AH7" s="78"/>
+      <c r="AI7" s="77"/>
     </row>
     <row r="8" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="26">
         <v>1</v>
       </c>
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="99">
+      <c r="C8" s="60"/>
+      <c r="D8" s="61">
         <v>43677</v>
       </c>
-      <c r="E8" s="100"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="102" t="s">
+      <c r="E8" s="62"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="103"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="105" t="s">
+      <c r="H8" s="65"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="106"/>
-      <c r="L8" s="106"/>
-      <c r="M8" s="106"/>
-      <c r="N8" s="106"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="107"/>
-      <c r="Q8" s="108" t="s">
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="R8" s="109"/>
-      <c r="S8" s="109"/>
-      <c r="T8" s="109"/>
-      <c r="U8" s="109"/>
-      <c r="V8" s="109"/>
-      <c r="W8" s="109"/>
-      <c r="X8" s="109"/>
-      <c r="Y8" s="109"/>
-      <c r="Z8" s="109"/>
-      <c r="AA8" s="109"/>
-      <c r="AB8" s="109"/>
-      <c r="AC8" s="109"/>
-      <c r="AD8" s="109"/>
-      <c r="AE8" s="110"/>
-      <c r="AF8" s="105" t="s">
+      <c r="R8" s="71"/>
+      <c r="S8" s="71"/>
+      <c r="T8" s="71"/>
+      <c r="U8" s="71"/>
+      <c r="V8" s="71"/>
+      <c r="W8" s="71"/>
+      <c r="X8" s="71"/>
+      <c r="Y8" s="71"/>
+      <c r="Z8" s="71"/>
+      <c r="AA8" s="71"/>
+      <c r="AB8" s="71"/>
+      <c r="AC8" s="71"/>
+      <c r="AD8" s="71"/>
+      <c r="AE8" s="72"/>
+      <c r="AF8" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="AG8" s="106"/>
-      <c r="AH8" s="106"/>
-      <c r="AI8" s="107"/>
+      <c r="AG8" s="68"/>
+      <c r="AH8" s="68"/>
+      <c r="AI8" s="69"/>
     </row>
     <row r="9" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="27"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="95"/>
-      <c r="S9" s="95"/>
-      <c r="T9" s="95"/>
-      <c r="U9" s="95"/>
-      <c r="V9" s="95"/>
-      <c r="W9" s="95"/>
-      <c r="X9" s="95"/>
-      <c r="Y9" s="95"/>
-      <c r="Z9" s="95"/>
-      <c r="AA9" s="95"/>
-      <c r="AB9" s="95"/>
-      <c r="AC9" s="95"/>
-      <c r="AD9" s="95"/>
-      <c r="AE9" s="96"/>
-      <c r="AF9" s="91"/>
-      <c r="AG9" s="92"/>
-      <c r="AH9" s="92"/>
-      <c r="AI9" s="93"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="56"/>
+      <c r="AC9" s="56"/>
+      <c r="AD9" s="56"/>
+      <c r="AE9" s="57"/>
+      <c r="AF9" s="52"/>
+      <c r="AG9" s="53"/>
+      <c r="AH9" s="53"/>
+      <c r="AI9" s="54"/>
     </row>
     <row r="10" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="27"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="94"/>
-      <c r="R10" s="95"/>
-      <c r="S10" s="95"/>
-      <c r="T10" s="95"/>
-      <c r="U10" s="95"/>
-      <c r="V10" s="95"/>
-      <c r="W10" s="95"/>
-      <c r="X10" s="95"/>
-      <c r="Y10" s="95"/>
-      <c r="Z10" s="95"/>
-      <c r="AA10" s="95"/>
-      <c r="AB10" s="95"/>
-      <c r="AC10" s="95"/>
-      <c r="AD10" s="95"/>
-      <c r="AE10" s="96"/>
-      <c r="AF10" s="91"/>
-      <c r="AG10" s="92"/>
-      <c r="AH10" s="92"/>
-      <c r="AI10" s="93"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="56"/>
+      <c r="AB10" s="56"/>
+      <c r="AC10" s="56"/>
+      <c r="AD10" s="56"/>
+      <c r="AE10" s="57"/>
+      <c r="AF10" s="52"/>
+      <c r="AG10" s="53"/>
+      <c r="AH10" s="53"/>
+      <c r="AI10" s="54"/>
     </row>
     <row r="11" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="27"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="94"/>
-      <c r="R11" s="95"/>
-      <c r="S11" s="95"/>
-      <c r="T11" s="95"/>
-      <c r="U11" s="95"/>
-      <c r="V11" s="95"/>
-      <c r="W11" s="95"/>
-      <c r="X11" s="95"/>
-      <c r="Y11" s="95"/>
-      <c r="Z11" s="95"/>
-      <c r="AA11" s="95"/>
-      <c r="AB11" s="95"/>
-      <c r="AC11" s="95"/>
-      <c r="AD11" s="95"/>
-      <c r="AE11" s="96"/>
-      <c r="AF11" s="91"/>
-      <c r="AG11" s="92"/>
-      <c r="AH11" s="92"/>
-      <c r="AI11" s="93"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="56"/>
+      <c r="AB11" s="56"/>
+      <c r="AC11" s="56"/>
+      <c r="AD11" s="56"/>
+      <c r="AE11" s="57"/>
+      <c r="AF11" s="52"/>
+      <c r="AG11" s="53"/>
+      <c r="AH11" s="53"/>
+      <c r="AI11" s="54"/>
     </row>
     <row r="12" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="27"/>
-      <c r="B12" s="85"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="92"/>
-      <c r="M12" s="92"/>
-      <c r="N12" s="92"/>
-      <c r="O12" s="92"/>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="94"/>
-      <c r="R12" s="95"/>
-      <c r="S12" s="95"/>
-      <c r="T12" s="95"/>
-      <c r="U12" s="95"/>
-      <c r="V12" s="95"/>
-      <c r="W12" s="95"/>
-      <c r="X12" s="95"/>
-      <c r="Y12" s="95"/>
-      <c r="Z12" s="95"/>
-      <c r="AA12" s="95"/>
-      <c r="AB12" s="95"/>
-      <c r="AC12" s="95"/>
-      <c r="AD12" s="95"/>
-      <c r="AE12" s="96"/>
-      <c r="AF12" s="91"/>
-      <c r="AG12" s="92"/>
-      <c r="AH12" s="92"/>
-      <c r="AI12" s="93"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="56"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="56"/>
+      <c r="AB12" s="56"/>
+      <c r="AC12" s="56"/>
+      <c r="AD12" s="56"/>
+      <c r="AE12" s="57"/>
+      <c r="AF12" s="52"/>
+      <c r="AG12" s="53"/>
+      <c r="AH12" s="53"/>
+      <c r="AI12" s="54"/>
     </row>
     <row r="13" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="27"/>
-      <c r="B13" s="85"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="92"/>
-      <c r="N13" s="92"/>
-      <c r="O13" s="92"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="95"/>
-      <c r="S13" s="95"/>
-      <c r="T13" s="95"/>
-      <c r="U13" s="95"/>
-      <c r="V13" s="95"/>
-      <c r="W13" s="95"/>
-      <c r="X13" s="95"/>
-      <c r="Y13" s="95"/>
-      <c r="Z13" s="95"/>
-      <c r="AA13" s="95"/>
-      <c r="AB13" s="95"/>
-      <c r="AC13" s="95"/>
-      <c r="AD13" s="95"/>
-      <c r="AE13" s="96"/>
-      <c r="AF13" s="91"/>
-      <c r="AG13" s="92"/>
-      <c r="AH13" s="92"/>
-      <c r="AI13" s="93"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="56"/>
+      <c r="AB13" s="56"/>
+      <c r="AC13" s="56"/>
+      <c r="AD13" s="56"/>
+      <c r="AE13" s="57"/>
+      <c r="AF13" s="52"/>
+      <c r="AG13" s="53"/>
+      <c r="AH13" s="53"/>
+      <c r="AI13" s="54"/>
     </row>
     <row r="14" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="27"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="92"/>
-      <c r="O14" s="92"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="95"/>
-      <c r="S14" s="95"/>
-      <c r="T14" s="95"/>
-      <c r="U14" s="95"/>
-      <c r="V14" s="95"/>
-      <c r="W14" s="95"/>
-      <c r="X14" s="95"/>
-      <c r="Y14" s="95"/>
-      <c r="Z14" s="95"/>
-      <c r="AA14" s="95"/>
-      <c r="AB14" s="95"/>
-      <c r="AC14" s="95"/>
-      <c r="AD14" s="95"/>
-      <c r="AE14" s="96"/>
-      <c r="AF14" s="91"/>
-      <c r="AG14" s="92"/>
-      <c r="AH14" s="92"/>
-      <c r="AI14" s="93"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="56"/>
+      <c r="AB14" s="56"/>
+      <c r="AC14" s="56"/>
+      <c r="AD14" s="56"/>
+      <c r="AE14" s="57"/>
+      <c r="AF14" s="52"/>
+      <c r="AG14" s="53"/>
+      <c r="AH14" s="53"/>
+      <c r="AI14" s="54"/>
     </row>
     <row r="15" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="27"/>
-      <c r="B15" s="85"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="92"/>
-      <c r="L15" s="92"/>
-      <c r="M15" s="92"/>
-      <c r="N15" s="92"/>
-      <c r="O15" s="92"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="94"/>
-      <c r="R15" s="95"/>
-      <c r="S15" s="95"/>
-      <c r="T15" s="95"/>
-      <c r="U15" s="95"/>
-      <c r="V15" s="95"/>
-      <c r="W15" s="95"/>
-      <c r="X15" s="95"/>
-      <c r="Y15" s="95"/>
-      <c r="Z15" s="95"/>
-      <c r="AA15" s="95"/>
-      <c r="AB15" s="95"/>
-      <c r="AC15" s="95"/>
-      <c r="AD15" s="95"/>
-      <c r="AE15" s="96"/>
-      <c r="AF15" s="91"/>
-      <c r="AG15" s="92"/>
-      <c r="AH15" s="92"/>
-      <c r="AI15" s="93"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="53"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="56"/>
+      <c r="V15" s="56"/>
+      <c r="W15" s="56"/>
+      <c r="X15" s="56"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="56"/>
+      <c r="AA15" s="56"/>
+      <c r="AB15" s="56"/>
+      <c r="AC15" s="56"/>
+      <c r="AD15" s="56"/>
+      <c r="AE15" s="57"/>
+      <c r="AF15" s="52"/>
+      <c r="AG15" s="53"/>
+      <c r="AH15" s="53"/>
+      <c r="AI15" s="54"/>
     </row>
     <row r="16" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="27"/>
-      <c r="B16" s="85"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="92"/>
-      <c r="L16" s="92"/>
-      <c r="M16" s="92"/>
-      <c r="N16" s="92"/>
-      <c r="O16" s="92"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="94"/>
-      <c r="R16" s="95"/>
-      <c r="S16" s="95"/>
-      <c r="T16" s="95"/>
-      <c r="U16" s="95"/>
-      <c r="V16" s="95"/>
-      <c r="W16" s="95"/>
-      <c r="X16" s="95"/>
-      <c r="Y16" s="95"/>
-      <c r="Z16" s="95"/>
-      <c r="AA16" s="95"/>
-      <c r="AB16" s="95"/>
-      <c r="AC16" s="95"/>
-      <c r="AD16" s="95"/>
-      <c r="AE16" s="96"/>
-      <c r="AF16" s="91"/>
-      <c r="AG16" s="92"/>
-      <c r="AH16" s="92"/>
-      <c r="AI16" s="93"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="53"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="56"/>
+      <c r="AC16" s="56"/>
+      <c r="AD16" s="56"/>
+      <c r="AE16" s="57"/>
+      <c r="AF16" s="52"/>
+      <c r="AG16" s="53"/>
+      <c r="AH16" s="53"/>
+      <c r="AI16" s="54"/>
     </row>
     <row r="17" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="27"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="92"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="92"/>
-      <c r="N17" s="92"/>
-      <c r="O17" s="92"/>
-      <c r="P17" s="93"/>
-      <c r="Q17" s="94"/>
-      <c r="R17" s="95"/>
-      <c r="S17" s="95"/>
-      <c r="T17" s="95"/>
-      <c r="U17" s="95"/>
-      <c r="V17" s="95"/>
-      <c r="W17" s="95"/>
-      <c r="X17" s="95"/>
-      <c r="Y17" s="95"/>
-      <c r="Z17" s="95"/>
-      <c r="AA17" s="95"/>
-      <c r="AB17" s="95"/>
-      <c r="AC17" s="95"/>
-      <c r="AD17" s="95"/>
-      <c r="AE17" s="96"/>
-      <c r="AF17" s="91"/>
-      <c r="AG17" s="92"/>
-      <c r="AH17" s="92"/>
-      <c r="AI17" s="93"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="56"/>
+      <c r="U17" s="56"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
+      <c r="AA17" s="56"/>
+      <c r="AB17" s="56"/>
+      <c r="AC17" s="56"/>
+      <c r="AD17" s="56"/>
+      <c r="AE17" s="57"/>
+      <c r="AF17" s="52"/>
+      <c r="AG17" s="53"/>
+      <c r="AH17" s="53"/>
+      <c r="AI17" s="54"/>
     </row>
     <row r="18" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="27"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="92"/>
-      <c r="M18" s="92"/>
-      <c r="N18" s="92"/>
-      <c r="O18" s="92"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="94"/>
-      <c r="R18" s="95"/>
-      <c r="S18" s="95"/>
-      <c r="T18" s="95"/>
-      <c r="U18" s="95"/>
-      <c r="V18" s="95"/>
-      <c r="W18" s="95"/>
-      <c r="X18" s="95"/>
-      <c r="Y18" s="95"/>
-      <c r="Z18" s="95"/>
-      <c r="AA18" s="95"/>
-      <c r="AB18" s="95"/>
-      <c r="AC18" s="95"/>
-      <c r="AD18" s="95"/>
-      <c r="AE18" s="96"/>
-      <c r="AF18" s="91"/>
-      <c r="AG18" s="92"/>
-      <c r="AH18" s="92"/>
-      <c r="AI18" s="93"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="53"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56"/>
+      <c r="AA18" s="56"/>
+      <c r="AB18" s="56"/>
+      <c r="AC18" s="56"/>
+      <c r="AD18" s="56"/>
+      <c r="AE18" s="57"/>
+      <c r="AF18" s="52"/>
+      <c r="AG18" s="53"/>
+      <c r="AH18" s="53"/>
+      <c r="AI18" s="54"/>
     </row>
     <row r="19" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="27"/>
-      <c r="B19" s="85"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="92"/>
-      <c r="N19" s="92"/>
-      <c r="O19" s="92"/>
-      <c r="P19" s="93"/>
-      <c r="Q19" s="94"/>
-      <c r="R19" s="95"/>
-      <c r="S19" s="95"/>
-      <c r="T19" s="95"/>
-      <c r="U19" s="95"/>
-      <c r="V19" s="95"/>
-      <c r="W19" s="95"/>
-      <c r="X19" s="95"/>
-      <c r="Y19" s="95"/>
-      <c r="Z19" s="95"/>
-      <c r="AA19" s="95"/>
-      <c r="AB19" s="95"/>
-      <c r="AC19" s="95"/>
-      <c r="AD19" s="95"/>
-      <c r="AE19" s="96"/>
-      <c r="AF19" s="91"/>
-      <c r="AG19" s="92"/>
-      <c r="AH19" s="92"/>
-      <c r="AI19" s="93"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="56"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="56"/>
+      <c r="X19" s="56"/>
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="56"/>
+      <c r="AA19" s="56"/>
+      <c r="AB19" s="56"/>
+      <c r="AC19" s="56"/>
+      <c r="AD19" s="56"/>
+      <c r="AE19" s="57"/>
+      <c r="AF19" s="52"/>
+      <c r="AG19" s="53"/>
+      <c r="AH19" s="53"/>
+      <c r="AI19" s="54"/>
     </row>
     <row r="20" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="27"/>
-      <c r="B20" s="85"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="92"/>
-      <c r="L20" s="92"/>
-      <c r="M20" s="92"/>
-      <c r="N20" s="92"/>
-      <c r="O20" s="92"/>
-      <c r="P20" s="93"/>
-      <c r="Q20" s="94"/>
-      <c r="R20" s="95"/>
-      <c r="S20" s="95"/>
-      <c r="T20" s="95"/>
-      <c r="U20" s="95"/>
-      <c r="V20" s="95"/>
-      <c r="W20" s="95"/>
-      <c r="X20" s="95"/>
-      <c r="Y20" s="95"/>
-      <c r="Z20" s="95"/>
-      <c r="AA20" s="95"/>
-      <c r="AB20" s="95"/>
-      <c r="AC20" s="95"/>
-      <c r="AD20" s="95"/>
-      <c r="AE20" s="96"/>
-      <c r="AF20" s="91"/>
-      <c r="AG20" s="92"/>
-      <c r="AH20" s="92"/>
-      <c r="AI20" s="93"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="56"/>
+      <c r="AB20" s="56"/>
+      <c r="AC20" s="56"/>
+      <c r="AD20" s="56"/>
+      <c r="AE20" s="57"/>
+      <c r="AF20" s="52"/>
+      <c r="AG20" s="53"/>
+      <c r="AH20" s="53"/>
+      <c r="AI20" s="54"/>
     </row>
     <row r="21" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="27"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
-      <c r="N21" s="92"/>
-      <c r="O21" s="92"/>
-      <c r="P21" s="93"/>
-      <c r="Q21" s="94"/>
-      <c r="R21" s="95"/>
-      <c r="S21" s="95"/>
-      <c r="T21" s="95"/>
-      <c r="U21" s="95"/>
-      <c r="V21" s="95"/>
-      <c r="W21" s="95"/>
-      <c r="X21" s="95"/>
-      <c r="Y21" s="95"/>
-      <c r="Z21" s="95"/>
-      <c r="AA21" s="95"/>
-      <c r="AB21" s="95"/>
-      <c r="AC21" s="95"/>
-      <c r="AD21" s="95"/>
-      <c r="AE21" s="96"/>
-      <c r="AF21" s="91"/>
-      <c r="AG21" s="92"/>
-      <c r="AH21" s="92"/>
-      <c r="AI21" s="93"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="56"/>
+      <c r="U21" s="56"/>
+      <c r="V21" s="56"/>
+      <c r="W21" s="56"/>
+      <c r="X21" s="56"/>
+      <c r="Y21" s="56"/>
+      <c r="Z21" s="56"/>
+      <c r="AA21" s="56"/>
+      <c r="AB21" s="56"/>
+      <c r="AC21" s="56"/>
+      <c r="AD21" s="56"/>
+      <c r="AE21" s="57"/>
+      <c r="AF21" s="52"/>
+      <c r="AG21" s="53"/>
+      <c r="AH21" s="53"/>
+      <c r="AI21" s="54"/>
     </row>
     <row r="22" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="27"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="92"/>
-      <c r="L22" s="92"/>
-      <c r="M22" s="92"/>
-      <c r="N22" s="92"/>
-      <c r="O22" s="92"/>
-      <c r="P22" s="93"/>
-      <c r="Q22" s="94"/>
-      <c r="R22" s="95"/>
-      <c r="S22" s="95"/>
-      <c r="T22" s="95"/>
-      <c r="U22" s="95"/>
-      <c r="V22" s="95"/>
-      <c r="W22" s="95"/>
-      <c r="X22" s="95"/>
-      <c r="Y22" s="95"/>
-      <c r="Z22" s="95"/>
-      <c r="AA22" s="95"/>
-      <c r="AB22" s="95"/>
-      <c r="AC22" s="95"/>
-      <c r="AD22" s="95"/>
-      <c r="AE22" s="96"/>
-      <c r="AF22" s="91"/>
-      <c r="AG22" s="92"/>
-      <c r="AH22" s="92"/>
-      <c r="AI22" s="93"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
+      <c r="T22" s="56"/>
+      <c r="U22" s="56"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="56"/>
+      <c r="X22" s="56"/>
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="56"/>
+      <c r="AA22" s="56"/>
+      <c r="AB22" s="56"/>
+      <c r="AC22" s="56"/>
+      <c r="AD22" s="56"/>
+      <c r="AE22" s="57"/>
+      <c r="AF22" s="52"/>
+      <c r="AG22" s="53"/>
+      <c r="AH22" s="53"/>
+      <c r="AI22" s="54"/>
     </row>
     <row r="23" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="27"/>
-      <c r="B23" s="85"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="92"/>
-      <c r="L23" s="92"/>
-      <c r="M23" s="92"/>
-      <c r="N23" s="92"/>
-      <c r="O23" s="92"/>
-      <c r="P23" s="93"/>
-      <c r="Q23" s="94"/>
-      <c r="R23" s="95"/>
-      <c r="S23" s="95"/>
-      <c r="T23" s="95"/>
-      <c r="U23" s="95"/>
-      <c r="V23" s="95"/>
-      <c r="W23" s="95"/>
-      <c r="X23" s="95"/>
-      <c r="Y23" s="95"/>
-      <c r="Z23" s="95"/>
-      <c r="AA23" s="95"/>
-      <c r="AB23" s="95"/>
-      <c r="AC23" s="95"/>
-      <c r="AD23" s="95"/>
-      <c r="AE23" s="96"/>
-      <c r="AF23" s="91"/>
-      <c r="AG23" s="92"/>
-      <c r="AH23" s="92"/>
-      <c r="AI23" s="93"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="56"/>
+      <c r="U23" s="56"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="56"/>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="56"/>
+      <c r="AA23" s="56"/>
+      <c r="AB23" s="56"/>
+      <c r="AC23" s="56"/>
+      <c r="AD23" s="56"/>
+      <c r="AE23" s="57"/>
+      <c r="AF23" s="52"/>
+      <c r="AG23" s="53"/>
+      <c r="AH23" s="53"/>
+      <c r="AI23" s="54"/>
     </row>
     <row r="24" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="27"/>
-      <c r="B24" s="85"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="92"/>
-      <c r="L24" s="92"/>
-      <c r="M24" s="92"/>
-      <c r="N24" s="92"/>
-      <c r="O24" s="92"/>
-      <c r="P24" s="93"/>
-      <c r="Q24" s="94"/>
-      <c r="R24" s="95"/>
-      <c r="S24" s="95"/>
-      <c r="T24" s="95"/>
-      <c r="U24" s="95"/>
-      <c r="V24" s="95"/>
-      <c r="W24" s="95"/>
-      <c r="X24" s="95"/>
-      <c r="Y24" s="95"/>
-      <c r="Z24" s="95"/>
-      <c r="AA24" s="95"/>
-      <c r="AB24" s="95"/>
-      <c r="AC24" s="95"/>
-      <c r="AD24" s="95"/>
-      <c r="AE24" s="96"/>
-      <c r="AF24" s="91"/>
-      <c r="AG24" s="92"/>
-      <c r="AH24" s="92"/>
-      <c r="AI24" s="93"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="N24" s="53"/>
+      <c r="O24" s="53"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="56"/>
+      <c r="U24" s="56"/>
+      <c r="V24" s="56"/>
+      <c r="W24" s="56"/>
+      <c r="X24" s="56"/>
+      <c r="Y24" s="56"/>
+      <c r="Z24" s="56"/>
+      <c r="AA24" s="56"/>
+      <c r="AB24" s="56"/>
+      <c r="AC24" s="56"/>
+      <c r="AD24" s="56"/>
+      <c r="AE24" s="57"/>
+      <c r="AF24" s="52"/>
+      <c r="AG24" s="53"/>
+      <c r="AH24" s="53"/>
+      <c r="AI24" s="54"/>
     </row>
     <row r="25" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="27"/>
-      <c r="B25" s="85"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="92"/>
-      <c r="L25" s="92"/>
-      <c r="M25" s="92"/>
-      <c r="N25" s="92"/>
-      <c r="O25" s="92"/>
-      <c r="P25" s="93"/>
-      <c r="Q25" s="94"/>
-      <c r="R25" s="95"/>
-      <c r="S25" s="95"/>
-      <c r="T25" s="95"/>
-      <c r="U25" s="95"/>
-      <c r="V25" s="95"/>
-      <c r="W25" s="95"/>
-      <c r="X25" s="95"/>
-      <c r="Y25" s="95"/>
-      <c r="Z25" s="95"/>
-      <c r="AA25" s="95"/>
-      <c r="AB25" s="95"/>
-      <c r="AC25" s="95"/>
-      <c r="AD25" s="95"/>
-      <c r="AE25" s="96"/>
-      <c r="AF25" s="91"/>
-      <c r="AG25" s="92"/>
-      <c r="AH25" s="92"/>
-      <c r="AI25" s="93"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
+      <c r="M25" s="53"/>
+      <c r="N25" s="53"/>
+      <c r="O25" s="53"/>
+      <c r="P25" s="54"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="56"/>
+      <c r="U25" s="56"/>
+      <c r="V25" s="56"/>
+      <c r="W25" s="56"/>
+      <c r="X25" s="56"/>
+      <c r="Y25" s="56"/>
+      <c r="Z25" s="56"/>
+      <c r="AA25" s="56"/>
+      <c r="AB25" s="56"/>
+      <c r="AC25" s="56"/>
+      <c r="AD25" s="56"/>
+      <c r="AE25" s="57"/>
+      <c r="AF25" s="52"/>
+      <c r="AG25" s="53"/>
+      <c r="AH25" s="53"/>
+      <c r="AI25" s="54"/>
     </row>
     <row r="26" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="27"/>
-      <c r="B26" s="85"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="92"/>
-      <c r="L26" s="92"/>
-      <c r="M26" s="92"/>
-      <c r="N26" s="92"/>
-      <c r="O26" s="92"/>
-      <c r="P26" s="93"/>
-      <c r="Q26" s="94"/>
-      <c r="R26" s="95"/>
-      <c r="S26" s="95"/>
-      <c r="T26" s="95"/>
-      <c r="U26" s="95"/>
-      <c r="V26" s="95"/>
-      <c r="W26" s="95"/>
-      <c r="X26" s="95"/>
-      <c r="Y26" s="95"/>
-      <c r="Z26" s="95"/>
-      <c r="AA26" s="95"/>
-      <c r="AB26" s="95"/>
-      <c r="AC26" s="95"/>
-      <c r="AD26" s="95"/>
-      <c r="AE26" s="96"/>
-      <c r="AF26" s="91"/>
-      <c r="AG26" s="92"/>
-      <c r="AH26" s="92"/>
-      <c r="AI26" s="93"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
+      <c r="M26" s="53"/>
+      <c r="N26" s="53"/>
+      <c r="O26" s="53"/>
+      <c r="P26" s="54"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="56"/>
+      <c r="S26" s="56"/>
+      <c r="T26" s="56"/>
+      <c r="U26" s="56"/>
+      <c r="V26" s="56"/>
+      <c r="W26" s="56"/>
+      <c r="X26" s="56"/>
+      <c r="Y26" s="56"/>
+      <c r="Z26" s="56"/>
+      <c r="AA26" s="56"/>
+      <c r="AB26" s="56"/>
+      <c r="AC26" s="56"/>
+      <c r="AD26" s="56"/>
+      <c r="AE26" s="57"/>
+      <c r="AF26" s="52"/>
+      <c r="AG26" s="53"/>
+      <c r="AH26" s="53"/>
+      <c r="AI26" s="54"/>
     </row>
     <row r="27" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="27"/>
-      <c r="B27" s="85"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="92"/>
-      <c r="L27" s="92"/>
-      <c r="M27" s="92"/>
-      <c r="N27" s="92"/>
-      <c r="O27" s="92"/>
-      <c r="P27" s="93"/>
-      <c r="Q27" s="94"/>
-      <c r="R27" s="95"/>
-      <c r="S27" s="95"/>
-      <c r="T27" s="95"/>
-      <c r="U27" s="95"/>
-      <c r="V27" s="95"/>
-      <c r="W27" s="95"/>
-      <c r="X27" s="95"/>
-      <c r="Y27" s="95"/>
-      <c r="Z27" s="95"/>
-      <c r="AA27" s="95"/>
-      <c r="AB27" s="95"/>
-      <c r="AC27" s="95"/>
-      <c r="AD27" s="95"/>
-      <c r="AE27" s="96"/>
-      <c r="AF27" s="91"/>
-      <c r="AG27" s="92"/>
-      <c r="AH27" s="92"/>
-      <c r="AI27" s="93"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
+      <c r="M27" s="53"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="54"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="56"/>
+      <c r="S27" s="56"/>
+      <c r="T27" s="56"/>
+      <c r="U27" s="56"/>
+      <c r="V27" s="56"/>
+      <c r="W27" s="56"/>
+      <c r="X27" s="56"/>
+      <c r="Y27" s="56"/>
+      <c r="Z27" s="56"/>
+      <c r="AA27" s="56"/>
+      <c r="AB27" s="56"/>
+      <c r="AC27" s="56"/>
+      <c r="AD27" s="56"/>
+      <c r="AE27" s="57"/>
+      <c r="AF27" s="52"/>
+      <c r="AG27" s="53"/>
+      <c r="AH27" s="53"/>
+      <c r="AI27" s="54"/>
     </row>
     <row r="28" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="27"/>
-      <c r="B28" s="85"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="91"/>
-      <c r="K28" s="92"/>
-      <c r="L28" s="92"/>
-      <c r="M28" s="92"/>
-      <c r="N28" s="92"/>
-      <c r="O28" s="92"/>
-      <c r="P28" s="93"/>
-      <c r="Q28" s="94"/>
-      <c r="R28" s="95"/>
-      <c r="S28" s="95"/>
-      <c r="T28" s="95"/>
-      <c r="U28" s="95"/>
-      <c r="V28" s="95"/>
-      <c r="W28" s="95"/>
-      <c r="X28" s="95"/>
-      <c r="Y28" s="95"/>
-      <c r="Z28" s="95"/>
-      <c r="AA28" s="95"/>
-      <c r="AB28" s="95"/>
-      <c r="AC28" s="95"/>
-      <c r="AD28" s="95"/>
-      <c r="AE28" s="96"/>
-      <c r="AF28" s="91"/>
-      <c r="AG28" s="92"/>
-      <c r="AH28" s="92"/>
-      <c r="AI28" s="93"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="56"/>
+      <c r="T28" s="56"/>
+      <c r="U28" s="56"/>
+      <c r="V28" s="56"/>
+      <c r="W28" s="56"/>
+      <c r="X28" s="56"/>
+      <c r="Y28" s="56"/>
+      <c r="Z28" s="56"/>
+      <c r="AA28" s="56"/>
+      <c r="AB28" s="56"/>
+      <c r="AC28" s="56"/>
+      <c r="AD28" s="56"/>
+      <c r="AE28" s="57"/>
+      <c r="AF28" s="52"/>
+      <c r="AG28" s="53"/>
+      <c r="AH28" s="53"/>
+      <c r="AI28" s="54"/>
     </row>
     <row r="29" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="27"/>
-      <c r="B29" s="85"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="91"/>
-      <c r="K29" s="92"/>
-      <c r="L29" s="92"/>
-      <c r="M29" s="92"/>
-      <c r="N29" s="92"/>
-      <c r="O29" s="92"/>
-      <c r="P29" s="93"/>
-      <c r="Q29" s="94"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="95"/>
-      <c r="U29" s="95"/>
-      <c r="V29" s="95"/>
-      <c r="W29" s="95"/>
-      <c r="X29" s="95"/>
-      <c r="Y29" s="95"/>
-      <c r="Z29" s="95"/>
-      <c r="AA29" s="95"/>
-      <c r="AB29" s="95"/>
-      <c r="AC29" s="95"/>
-      <c r="AD29" s="95"/>
-      <c r="AE29" s="96"/>
-      <c r="AF29" s="91"/>
-      <c r="AG29" s="92"/>
-      <c r="AH29" s="92"/>
-      <c r="AI29" s="93"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="53"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="54"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="56"/>
+      <c r="S29" s="56"/>
+      <c r="T29" s="56"/>
+      <c r="U29" s="56"/>
+      <c r="V29" s="56"/>
+      <c r="W29" s="56"/>
+      <c r="X29" s="56"/>
+      <c r="Y29" s="56"/>
+      <c r="Z29" s="56"/>
+      <c r="AA29" s="56"/>
+      <c r="AB29" s="56"/>
+      <c r="AC29" s="56"/>
+      <c r="AD29" s="56"/>
+      <c r="AE29" s="57"/>
+      <c r="AF29" s="52"/>
+      <c r="AG29" s="53"/>
+      <c r="AH29" s="53"/>
+      <c r="AI29" s="54"/>
     </row>
     <row r="30" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="27"/>
-      <c r="B30" s="85"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="86"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="92"/>
-      <c r="L30" s="92"/>
-      <c r="M30" s="92"/>
-      <c r="N30" s="92"/>
-      <c r="O30" s="92"/>
-      <c r="P30" s="93"/>
-      <c r="Q30" s="94"/>
-      <c r="R30" s="95"/>
-      <c r="S30" s="95"/>
-      <c r="T30" s="95"/>
-      <c r="U30" s="95"/>
-      <c r="V30" s="95"/>
-      <c r="W30" s="95"/>
-      <c r="X30" s="95"/>
-      <c r="Y30" s="95"/>
-      <c r="Z30" s="95"/>
-      <c r="AA30" s="95"/>
-      <c r="AB30" s="95"/>
-      <c r="AC30" s="95"/>
-      <c r="AD30" s="95"/>
-      <c r="AE30" s="96"/>
-      <c r="AF30" s="91"/>
-      <c r="AG30" s="92"/>
-      <c r="AH30" s="92"/>
-      <c r="AI30" s="93"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
+      <c r="M30" s="53"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="56"/>
+      <c r="S30" s="56"/>
+      <c r="T30" s="56"/>
+      <c r="U30" s="56"/>
+      <c r="V30" s="56"/>
+      <c r="W30" s="56"/>
+      <c r="X30" s="56"/>
+      <c r="Y30" s="56"/>
+      <c r="Z30" s="56"/>
+      <c r="AA30" s="56"/>
+      <c r="AB30" s="56"/>
+      <c r="AC30" s="56"/>
+      <c r="AD30" s="56"/>
+      <c r="AE30" s="57"/>
+      <c r="AF30" s="52"/>
+      <c r="AG30" s="53"/>
+      <c r="AH30" s="53"/>
+      <c r="AI30" s="54"/>
     </row>
     <row r="31" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="27"/>
-      <c r="B31" s="85"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="86"/>
-      <c r="J31" s="91"/>
-      <c r="K31" s="92"/>
-      <c r="L31" s="92"/>
-      <c r="M31" s="92"/>
-      <c r="N31" s="92"/>
-      <c r="O31" s="92"/>
-      <c r="P31" s="93"/>
-      <c r="Q31" s="94"/>
-      <c r="R31" s="95"/>
-      <c r="S31" s="95"/>
-      <c r="T31" s="95"/>
-      <c r="U31" s="95"/>
-      <c r="V31" s="95"/>
-      <c r="W31" s="95"/>
-      <c r="X31" s="95"/>
-      <c r="Y31" s="95"/>
-      <c r="Z31" s="95"/>
-      <c r="AA31" s="95"/>
-      <c r="AB31" s="95"/>
-      <c r="AC31" s="95"/>
-      <c r="AD31" s="95"/>
-      <c r="AE31" s="96"/>
-      <c r="AF31" s="91"/>
-      <c r="AG31" s="92"/>
-      <c r="AH31" s="92"/>
-      <c r="AI31" s="93"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
+      <c r="M31" s="53"/>
+      <c r="N31" s="53"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="54"/>
+      <c r="Q31" s="55"/>
+      <c r="R31" s="56"/>
+      <c r="S31" s="56"/>
+      <c r="T31" s="56"/>
+      <c r="U31" s="56"/>
+      <c r="V31" s="56"/>
+      <c r="W31" s="56"/>
+      <c r="X31" s="56"/>
+      <c r="Y31" s="56"/>
+      <c r="Z31" s="56"/>
+      <c r="AA31" s="56"/>
+      <c r="AB31" s="56"/>
+      <c r="AC31" s="56"/>
+      <c r="AD31" s="56"/>
+      <c r="AE31" s="57"/>
+      <c r="AF31" s="52"/>
+      <c r="AG31" s="53"/>
+      <c r="AH31" s="53"/>
+      <c r="AI31" s="54"/>
     </row>
     <row r="32" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="27"/>
-      <c r="B32" s="85"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="86"/>
-      <c r="J32" s="91"/>
-      <c r="K32" s="111"/>
-      <c r="L32" s="92"/>
-      <c r="M32" s="92"/>
-      <c r="N32" s="92"/>
-      <c r="O32" s="92"/>
-      <c r="P32" s="93"/>
-      <c r="Q32" s="94"/>
-      <c r="R32" s="95"/>
-      <c r="S32" s="95"/>
-      <c r="T32" s="95"/>
-      <c r="U32" s="95"/>
-      <c r="V32" s="95"/>
-      <c r="W32" s="95"/>
-      <c r="X32" s="95"/>
-      <c r="Y32" s="95"/>
-      <c r="Z32" s="95"/>
-      <c r="AA32" s="95"/>
-      <c r="AB32" s="95"/>
-      <c r="AC32" s="95"/>
-      <c r="AD32" s="95"/>
-      <c r="AE32" s="96"/>
-      <c r="AF32" s="91"/>
-      <c r="AG32" s="92"/>
-      <c r="AH32" s="92"/>
-      <c r="AI32" s="93"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="58"/>
+      <c r="L32" s="53"/>
+      <c r="M32" s="53"/>
+      <c r="N32" s="53"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="55"/>
+      <c r="R32" s="56"/>
+      <c r="S32" s="56"/>
+      <c r="T32" s="56"/>
+      <c r="U32" s="56"/>
+      <c r="V32" s="56"/>
+      <c r="W32" s="56"/>
+      <c r="X32" s="56"/>
+      <c r="Y32" s="56"/>
+      <c r="Z32" s="56"/>
+      <c r="AA32" s="56"/>
+      <c r="AB32" s="56"/>
+      <c r="AC32" s="56"/>
+      <c r="AD32" s="56"/>
+      <c r="AE32" s="57"/>
+      <c r="AF32" s="52"/>
+      <c r="AG32" s="53"/>
+      <c r="AH32" s="53"/>
+      <c r="AI32" s="54"/>
     </row>
     <row r="33" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="27"/>
-      <c r="B33" s="85"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="90"/>
-      <c r="I33" s="86"/>
-      <c r="J33" s="91"/>
-      <c r="K33" s="92"/>
-      <c r="L33" s="92"/>
-      <c r="M33" s="92"/>
-      <c r="N33" s="92"/>
-      <c r="O33" s="92"/>
-      <c r="P33" s="93"/>
-      <c r="Q33" s="94"/>
-      <c r="R33" s="95"/>
-      <c r="S33" s="95"/>
-      <c r="T33" s="95"/>
-      <c r="U33" s="95"/>
-      <c r="V33" s="95"/>
-      <c r="W33" s="95"/>
-      <c r="X33" s="95"/>
-      <c r="Y33" s="95"/>
-      <c r="Z33" s="95"/>
-      <c r="AA33" s="95"/>
-      <c r="AB33" s="95"/>
-      <c r="AC33" s="95"/>
-      <c r="AD33" s="95"/>
-      <c r="AE33" s="96"/>
-      <c r="AF33" s="91"/>
-      <c r="AG33" s="92"/>
-      <c r="AH33" s="92"/>
-      <c r="AI33" s="93"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="52"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
+      <c r="M33" s="53"/>
+      <c r="N33" s="53"/>
+      <c r="O33" s="53"/>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="55"/>
+      <c r="R33" s="56"/>
+      <c r="S33" s="56"/>
+      <c r="T33" s="56"/>
+      <c r="U33" s="56"/>
+      <c r="V33" s="56"/>
+      <c r="W33" s="56"/>
+      <c r="X33" s="56"/>
+      <c r="Y33" s="56"/>
+      <c r="Z33" s="56"/>
+      <c r="AA33" s="56"/>
+      <c r="AB33" s="56"/>
+      <c r="AC33" s="56"/>
+      <c r="AD33" s="56"/>
+      <c r="AE33" s="57"/>
+      <c r="AF33" s="52"/>
+      <c r="AG33" s="53"/>
+      <c r="AH33" s="53"/>
+      <c r="AI33" s="54"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -45185,6 +45151,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>

--- a/サンプルプロジェクト/設計書/Nablarchを使用した開発の流れ.xlsx
+++ b/サンプルプロジェクト/設計書/Nablarchを使用した開発の流れ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAB4E83-AC2F-4CEC-A482-CF06CE4D7842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C6216C-5F53-4598-A943-97A58EB7EE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="822" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="24" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>システム名</t>
   </si>
@@ -81,16 +81,6 @@
       <t>タントウシャ</t>
     </rPh>
     <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>第１．０版</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>環境構築</t>
@@ -245,6 +235,75 @@
   <si>
     <t>Nablarchを使用した開発の流れ</t>
     <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>1.1版</t>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>クラス単体テスト</t>
+    <rPh sb="3" eb="5">
+      <t>タンタイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>入力に単体テスト仕様書を追加</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>TIS</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>Object Browser
+コードテーブル登録用データ出力ツール</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>凡例通り歯車アイコンを追加</t>
+    <rPh sb="0" eb="3">
+      <t>ハンレイドオ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハグルマ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>第１．１版</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -713,7 +772,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -827,87 +886,6 @@
     </xf>
     <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1025,6 +1003,99 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -43261,7 +43332,7 @@
   </sheetPr>
   <dimension ref="A1:S513"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -43303,7 +43374,7 @@
       <c r="G23" s="34"/>
       <c r="H23" s="34"/>
       <c r="J23" s="6" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -43317,7 +43388,7 @@
       <c r="H25" s="34"/>
       <c r="I25" s="45">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v>43677</v>
+        <v>44754</v>
       </c>
       <c r="J25" s="45"/>
       <c r="K25" s="45"/>
@@ -43919,55 +43990,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="90" t="s">
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="99" t="s">
-        <v>30</v>
-      </c>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
-      <c r="X1" s="100"/>
-      <c r="Y1" s="100"/>
-      <c r="Z1" s="101"/>
-      <c r="AA1" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB1" s="82"/>
-      <c r="AC1" s="108" t="str">
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="81" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="109"/>
-      <c r="AE1" s="109"/>
-      <c r="AF1" s="110"/>
-      <c r="AG1" s="73">
+      <c r="AD1" s="82"/>
+      <c r="AE1" s="82"/>
+      <c r="AF1" s="83"/>
+      <c r="AG1" s="46">
         <f>IF(D8="","",D8)</f>
         <v>43677</v>
       </c>
-      <c r="AH1" s="74"/>
-      <c r="AI1" s="75"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="48"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -43975,51 +44046,51 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="95"/>
-      <c r="S2" s="102"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="104"/>
-      <c r="AA2" s="80" t="s">
-        <v>22</v>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="76"/>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="53" t="s">
+        <v>21</v>
       </c>
-      <c r="AB2" s="82"/>
-      <c r="AC2" s="86" t="str">
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="59" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
-        <v/>
+        <v>TIS</v>
       </c>
-      <c r="AD2" s="87"/>
-      <c r="AE2" s="87"/>
-      <c r="AF2" s="88"/>
-      <c r="AG2" s="73" t="str">
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="61"/>
+      <c r="AG2" s="46">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v/>
+        <v>44754</v>
       </c>
-      <c r="AH2" s="74"/>
-      <c r="AI2" s="75"/>
+      <c r="AH2" s="47"/>
+      <c r="AI2" s="48"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -44027,43 +44098,43 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="97"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="106"/>
-      <c r="U3" s="106"/>
-      <c r="V3" s="106"/>
-      <c r="W3" s="106"/>
-      <c r="X3" s="106"/>
-      <c r="Y3" s="106"/>
-      <c r="Z3" s="107"/>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="82"/>
-      <c r="AC3" s="108"/>
-      <c r="AD3" s="109"/>
-      <c r="AE3" s="109"/>
-      <c r="AF3" s="110"/>
-      <c r="AG3" s="73"/>
-      <c r="AH3" s="74"/>
-      <c r="AI3" s="75"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="81"/>
+      <c r="AD3" s="82"/>
+      <c r="AE3" s="82"/>
+      <c r="AF3" s="83"/>
+      <c r="AG3" s="46"/>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="48"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -44098,1036 +44169,1212 @@
     </row>
     <row r="7" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="50"/>
+      <c r="D7" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="51"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="51"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="78"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="76" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="78"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78"/>
-      <c r="N7" s="78"/>
-      <c r="O7" s="78"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="76" t="s">
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="R7" s="78"/>
-      <c r="S7" s="78"/>
-      <c r="T7" s="78"/>
-      <c r="U7" s="78"/>
-      <c r="V7" s="78"/>
-      <c r="W7" s="78"/>
-      <c r="X7" s="78"/>
-      <c r="Y7" s="78"/>
-      <c r="Z7" s="78"/>
-      <c r="AA7" s="78"/>
-      <c r="AB7" s="78"/>
-      <c r="AC7" s="78"/>
-      <c r="AD7" s="78"/>
-      <c r="AE7" s="77"/>
-      <c r="AF7" s="76" t="s">
+      <c r="R7" s="51"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="51"/>
+      <c r="X7" s="51"/>
+      <c r="Y7" s="51"/>
+      <c r="Z7" s="51"/>
+      <c r="AA7" s="51"/>
+      <c r="AB7" s="51"/>
+      <c r="AC7" s="51"/>
+      <c r="AD7" s="51"/>
+      <c r="AE7" s="50"/>
+      <c r="AF7" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AG7" s="78"/>
-      <c r="AH7" s="78"/>
-      <c r="AI7" s="77"/>
+      <c r="AG7" s="51"/>
+      <c r="AH7" s="51"/>
+      <c r="AI7" s="50"/>
     </row>
     <row r="8" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="26">
         <v>1</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="97" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="98"/>
+      <c r="D8" s="99">
+        <v>43677</v>
+      </c>
+      <c r="E8" s="100"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="61">
-        <v>43677</v>
-      </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="64" t="s">
+      <c r="H8" s="103"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="65"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="67" t="s">
+      <c r="K8" s="106"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="70" t="s">
+      <c r="R8" s="109"/>
+      <c r="S8" s="109"/>
+      <c r="T8" s="109"/>
+      <c r="U8" s="109"/>
+      <c r="V8" s="109"/>
+      <c r="W8" s="109"/>
+      <c r="X8" s="109"/>
+      <c r="Y8" s="109"/>
+      <c r="Z8" s="109"/>
+      <c r="AA8" s="109"/>
+      <c r="AB8" s="109"/>
+      <c r="AC8" s="109"/>
+      <c r="AD8" s="109"/>
+      <c r="AE8" s="110"/>
+      <c r="AF8" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="R8" s="71"/>
-      <c r="S8" s="71"/>
-      <c r="T8" s="71"/>
-      <c r="U8" s="71"/>
-      <c r="V8" s="71"/>
-      <c r="W8" s="71"/>
-      <c r="X8" s="71"/>
-      <c r="Y8" s="71"/>
-      <c r="Z8" s="71"/>
-      <c r="AA8" s="71"/>
-      <c r="AB8" s="71"/>
-      <c r="AC8" s="71"/>
-      <c r="AD8" s="71"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG8" s="68"/>
-      <c r="AH8" s="68"/>
-      <c r="AI8" s="69"/>
+      <c r="AG8" s="106"/>
+      <c r="AH8" s="106"/>
+      <c r="AI8" s="107"/>
     </row>
     <row r="9" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="27"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="56"/>
-      <c r="AB9" s="56"/>
-      <c r="AC9" s="56"/>
-      <c r="AD9" s="56"/>
-      <c r="AE9" s="57"/>
-      <c r="AF9" s="52"/>
-      <c r="AG9" s="53"/>
-      <c r="AH9" s="53"/>
-      <c r="AI9" s="54"/>
+      <c r="A9" s="27">
+        <v>2</v>
+      </c>
+      <c r="B9" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="86"/>
+      <c r="D9" s="87">
+        <v>44754</v>
+      </c>
+      <c r="E9" s="88"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="113" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="90"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="114" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="115" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9" s="95"/>
+      <c r="S9" s="95"/>
+      <c r="T9" s="95"/>
+      <c r="U9" s="95"/>
+      <c r="V9" s="95"/>
+      <c r="W9" s="95"/>
+      <c r="X9" s="95"/>
+      <c r="Y9" s="95"/>
+      <c r="Z9" s="95"/>
+      <c r="AA9" s="95"/>
+      <c r="AB9" s="95"/>
+      <c r="AC9" s="95"/>
+      <c r="AD9" s="95"/>
+      <c r="AE9" s="96"/>
+      <c r="AF9" s="114" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG9" s="92"/>
+      <c r="AH9" s="92"/>
+      <c r="AI9" s="93"/>
     </row>
-    <row r="10" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:40" s="25" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="27"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="56"/>
-      <c r="AB10" s="56"/>
-      <c r="AC10" s="56"/>
-      <c r="AD10" s="56"/>
-      <c r="AE10" s="57"/>
-      <c r="AF10" s="52"/>
-      <c r="AG10" s="53"/>
-      <c r="AH10" s="53"/>
-      <c r="AI10" s="54"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="115" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="92"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="92"/>
+      <c r="O10" s="92"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="115" t="s">
+        <v>36</v>
+      </c>
+      <c r="R10" s="95"/>
+      <c r="S10" s="95"/>
+      <c r="T10" s="95"/>
+      <c r="U10" s="95"/>
+      <c r="V10" s="95"/>
+      <c r="W10" s="95"/>
+      <c r="X10" s="95"/>
+      <c r="Y10" s="95"/>
+      <c r="Z10" s="95"/>
+      <c r="AA10" s="95"/>
+      <c r="AB10" s="95"/>
+      <c r="AC10" s="95"/>
+      <c r="AD10" s="95"/>
+      <c r="AE10" s="96"/>
+      <c r="AF10" s="114" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG10" s="92"/>
+      <c r="AH10" s="92"/>
+      <c r="AI10" s="93"/>
     </row>
     <row r="11" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="27"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="56"/>
-      <c r="X11" s="56"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="56"/>
-      <c r="AB11" s="56"/>
-      <c r="AC11" s="56"/>
-      <c r="AD11" s="56"/>
-      <c r="AE11" s="57"/>
-      <c r="AF11" s="52"/>
-      <c r="AG11" s="53"/>
-      <c r="AH11" s="53"/>
-      <c r="AI11" s="54"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="94"/>
+      <c r="R11" s="95"/>
+      <c r="S11" s="95"/>
+      <c r="T11" s="95"/>
+      <c r="U11" s="95"/>
+      <c r="V11" s="95"/>
+      <c r="W11" s="95"/>
+      <c r="X11" s="95"/>
+      <c r="Y11" s="95"/>
+      <c r="Z11" s="95"/>
+      <c r="AA11" s="95"/>
+      <c r="AB11" s="95"/>
+      <c r="AC11" s="95"/>
+      <c r="AD11" s="95"/>
+      <c r="AE11" s="96"/>
+      <c r="AF11" s="91"/>
+      <c r="AG11" s="92"/>
+      <c r="AH11" s="92"/>
+      <c r="AI11" s="93"/>
     </row>
     <row r="12" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="27"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="56"/>
-      <c r="V12" s="56"/>
-      <c r="W12" s="56"/>
-      <c r="X12" s="56"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="56"/>
-      <c r="AA12" s="56"/>
-      <c r="AB12" s="56"/>
-      <c r="AC12" s="56"/>
-      <c r="AD12" s="56"/>
-      <c r="AE12" s="57"/>
-      <c r="AF12" s="52"/>
-      <c r="AG12" s="53"/>
-      <c r="AH12" s="53"/>
-      <c r="AI12" s="54"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="92"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="95"/>
+      <c r="S12" s="95"/>
+      <c r="T12" s="95"/>
+      <c r="U12" s="95"/>
+      <c r="V12" s="95"/>
+      <c r="W12" s="95"/>
+      <c r="X12" s="95"/>
+      <c r="Y12" s="95"/>
+      <c r="Z12" s="95"/>
+      <c r="AA12" s="95"/>
+      <c r="AB12" s="95"/>
+      <c r="AC12" s="95"/>
+      <c r="AD12" s="95"/>
+      <c r="AE12" s="96"/>
+      <c r="AF12" s="91"/>
+      <c r="AG12" s="92"/>
+      <c r="AH12" s="92"/>
+      <c r="AI12" s="93"/>
     </row>
     <row r="13" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="27"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="56"/>
-      <c r="V13" s="56"/>
-      <c r="W13" s="56"/>
-      <c r="X13" s="56"/>
-      <c r="Y13" s="56"/>
-      <c r="Z13" s="56"/>
-      <c r="AA13" s="56"/>
-      <c r="AB13" s="56"/>
-      <c r="AC13" s="56"/>
-      <c r="AD13" s="56"/>
-      <c r="AE13" s="57"/>
-      <c r="AF13" s="52"/>
-      <c r="AG13" s="53"/>
-      <c r="AH13" s="53"/>
-      <c r="AI13" s="54"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="92"/>
+      <c r="O13" s="92"/>
+      <c r="P13" s="93"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="95"/>
+      <c r="S13" s="95"/>
+      <c r="T13" s="95"/>
+      <c r="U13" s="95"/>
+      <c r="V13" s="95"/>
+      <c r="W13" s="95"/>
+      <c r="X13" s="95"/>
+      <c r="Y13" s="95"/>
+      <c r="Z13" s="95"/>
+      <c r="AA13" s="95"/>
+      <c r="AB13" s="95"/>
+      <c r="AC13" s="95"/>
+      <c r="AD13" s="95"/>
+      <c r="AE13" s="96"/>
+      <c r="AF13" s="91"/>
+      <c r="AG13" s="92"/>
+      <c r="AH13" s="92"/>
+      <c r="AI13" s="93"/>
     </row>
     <row r="14" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="27"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="56"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="56"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="56"/>
-      <c r="AA14" s="56"/>
-      <c r="AB14" s="56"/>
-      <c r="AC14" s="56"/>
-      <c r="AD14" s="56"/>
-      <c r="AE14" s="57"/>
-      <c r="AF14" s="52"/>
-      <c r="AG14" s="53"/>
-      <c r="AH14" s="53"/>
-      <c r="AI14" s="54"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="95"/>
+      <c r="S14" s="95"/>
+      <c r="T14" s="95"/>
+      <c r="U14" s="95"/>
+      <c r="V14" s="95"/>
+      <c r="W14" s="95"/>
+      <c r="X14" s="95"/>
+      <c r="Y14" s="95"/>
+      <c r="Z14" s="95"/>
+      <c r="AA14" s="95"/>
+      <c r="AB14" s="95"/>
+      <c r="AC14" s="95"/>
+      <c r="AD14" s="95"/>
+      <c r="AE14" s="96"/>
+      <c r="AF14" s="91"/>
+      <c r="AG14" s="92"/>
+      <c r="AH14" s="92"/>
+      <c r="AI14" s="93"/>
     </row>
     <row r="15" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="27"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="56"/>
-      <c r="V15" s="56"/>
-      <c r="W15" s="56"/>
-      <c r="X15" s="56"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="56"/>
-      <c r="AA15" s="56"/>
-      <c r="AB15" s="56"/>
-      <c r="AC15" s="56"/>
-      <c r="AD15" s="56"/>
-      <c r="AE15" s="57"/>
-      <c r="AF15" s="52"/>
-      <c r="AG15" s="53"/>
-      <c r="AH15" s="53"/>
-      <c r="AI15" s="54"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="93"/>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="95"/>
+      <c r="S15" s="95"/>
+      <c r="T15" s="95"/>
+      <c r="U15" s="95"/>
+      <c r="V15" s="95"/>
+      <c r="W15" s="95"/>
+      <c r="X15" s="95"/>
+      <c r="Y15" s="95"/>
+      <c r="Z15" s="95"/>
+      <c r="AA15" s="95"/>
+      <c r="AB15" s="95"/>
+      <c r="AC15" s="95"/>
+      <c r="AD15" s="95"/>
+      <c r="AE15" s="96"/>
+      <c r="AF15" s="91"/>
+      <c r="AG15" s="92"/>
+      <c r="AH15" s="92"/>
+      <c r="AI15" s="93"/>
     </row>
     <row r="16" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="27"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
-      <c r="AA16" s="56"/>
-      <c r="AB16" s="56"/>
-      <c r="AC16" s="56"/>
-      <c r="AD16" s="56"/>
-      <c r="AE16" s="57"/>
-      <c r="AF16" s="52"/>
-      <c r="AG16" s="53"/>
-      <c r="AH16" s="53"/>
-      <c r="AI16" s="54"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="95"/>
+      <c r="S16" s="95"/>
+      <c r="T16" s="95"/>
+      <c r="U16" s="95"/>
+      <c r="V16" s="95"/>
+      <c r="W16" s="95"/>
+      <c r="X16" s="95"/>
+      <c r="Y16" s="95"/>
+      <c r="Z16" s="95"/>
+      <c r="AA16" s="95"/>
+      <c r="AB16" s="95"/>
+      <c r="AC16" s="95"/>
+      <c r="AD16" s="95"/>
+      <c r="AE16" s="96"/>
+      <c r="AF16" s="91"/>
+      <c r="AG16" s="92"/>
+      <c r="AH16" s="92"/>
+      <c r="AI16" s="93"/>
     </row>
     <row r="17" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="27"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="56"/>
-      <c r="AA17" s="56"/>
-      <c r="AB17" s="56"/>
-      <c r="AC17" s="56"/>
-      <c r="AD17" s="56"/>
-      <c r="AE17" s="57"/>
-      <c r="AF17" s="52"/>
-      <c r="AG17" s="53"/>
-      <c r="AH17" s="53"/>
-      <c r="AI17" s="54"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="93"/>
+      <c r="Q17" s="94"/>
+      <c r="R17" s="95"/>
+      <c r="S17" s="95"/>
+      <c r="T17" s="95"/>
+      <c r="U17" s="95"/>
+      <c r="V17" s="95"/>
+      <c r="W17" s="95"/>
+      <c r="X17" s="95"/>
+      <c r="Y17" s="95"/>
+      <c r="Z17" s="95"/>
+      <c r="AA17" s="95"/>
+      <c r="AB17" s="95"/>
+      <c r="AC17" s="95"/>
+      <c r="AD17" s="95"/>
+      <c r="AE17" s="96"/>
+      <c r="AF17" s="91"/>
+      <c r="AG17" s="92"/>
+      <c r="AH17" s="92"/>
+      <c r="AI17" s="93"/>
     </row>
     <row r="18" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="27"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="56"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="56"/>
-      <c r="X18" s="56"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="56"/>
-      <c r="AA18" s="56"/>
-      <c r="AB18" s="56"/>
-      <c r="AC18" s="56"/>
-      <c r="AD18" s="56"/>
-      <c r="AE18" s="57"/>
-      <c r="AF18" s="52"/>
-      <c r="AG18" s="53"/>
-      <c r="AH18" s="53"/>
-      <c r="AI18" s="54"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="92"/>
+      <c r="O18" s="92"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="95"/>
+      <c r="S18" s="95"/>
+      <c r="T18" s="95"/>
+      <c r="U18" s="95"/>
+      <c r="V18" s="95"/>
+      <c r="W18" s="95"/>
+      <c r="X18" s="95"/>
+      <c r="Y18" s="95"/>
+      <c r="Z18" s="95"/>
+      <c r="AA18" s="95"/>
+      <c r="AB18" s="95"/>
+      <c r="AC18" s="95"/>
+      <c r="AD18" s="95"/>
+      <c r="AE18" s="96"/>
+      <c r="AF18" s="91"/>
+      <c r="AG18" s="92"/>
+      <c r="AH18" s="92"/>
+      <c r="AI18" s="93"/>
     </row>
     <row r="19" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="27"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="56"/>
-      <c r="U19" s="56"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="56"/>
-      <c r="AA19" s="56"/>
-      <c r="AB19" s="56"/>
-      <c r="AC19" s="56"/>
-      <c r="AD19" s="56"/>
-      <c r="AE19" s="57"/>
-      <c r="AF19" s="52"/>
-      <c r="AG19" s="53"/>
-      <c r="AH19" s="53"/>
-      <c r="AI19" s="54"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="92"/>
+      <c r="O19" s="92"/>
+      <c r="P19" s="93"/>
+      <c r="Q19" s="94"/>
+      <c r="R19" s="95"/>
+      <c r="S19" s="95"/>
+      <c r="T19" s="95"/>
+      <c r="U19" s="95"/>
+      <c r="V19" s="95"/>
+      <c r="W19" s="95"/>
+      <c r="X19" s="95"/>
+      <c r="Y19" s="95"/>
+      <c r="Z19" s="95"/>
+      <c r="AA19" s="95"/>
+      <c r="AB19" s="95"/>
+      <c r="AC19" s="95"/>
+      <c r="AD19" s="95"/>
+      <c r="AE19" s="96"/>
+      <c r="AF19" s="91"/>
+      <c r="AG19" s="92"/>
+      <c r="AH19" s="92"/>
+      <c r="AI19" s="93"/>
     </row>
     <row r="20" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="27"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="56"/>
-      <c r="AB20" s="56"/>
-      <c r="AC20" s="56"/>
-      <c r="AD20" s="56"/>
-      <c r="AE20" s="57"/>
-      <c r="AF20" s="52"/>
-      <c r="AG20" s="53"/>
-      <c r="AH20" s="53"/>
-      <c r="AI20" s="54"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="92"/>
+      <c r="N20" s="92"/>
+      <c r="O20" s="92"/>
+      <c r="P20" s="93"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="95"/>
+      <c r="S20" s="95"/>
+      <c r="T20" s="95"/>
+      <c r="U20" s="95"/>
+      <c r="V20" s="95"/>
+      <c r="W20" s="95"/>
+      <c r="X20" s="95"/>
+      <c r="Y20" s="95"/>
+      <c r="Z20" s="95"/>
+      <c r="AA20" s="95"/>
+      <c r="AB20" s="95"/>
+      <c r="AC20" s="95"/>
+      <c r="AD20" s="95"/>
+      <c r="AE20" s="96"/>
+      <c r="AF20" s="91"/>
+      <c r="AG20" s="92"/>
+      <c r="AH20" s="92"/>
+      <c r="AI20" s="93"/>
     </row>
     <row r="21" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="27"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="56"/>
-      <c r="U21" s="56"/>
-      <c r="V21" s="56"/>
-      <c r="W21" s="56"/>
-      <c r="X21" s="56"/>
-      <c r="Y21" s="56"/>
-      <c r="Z21" s="56"/>
-      <c r="AA21" s="56"/>
-      <c r="AB21" s="56"/>
-      <c r="AC21" s="56"/>
-      <c r="AD21" s="56"/>
-      <c r="AE21" s="57"/>
-      <c r="AF21" s="52"/>
-      <c r="AG21" s="53"/>
-      <c r="AH21" s="53"/>
-      <c r="AI21" s="54"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+      <c r="N21" s="92"/>
+      <c r="O21" s="92"/>
+      <c r="P21" s="93"/>
+      <c r="Q21" s="94"/>
+      <c r="R21" s="95"/>
+      <c r="S21" s="95"/>
+      <c r="T21" s="95"/>
+      <c r="U21" s="95"/>
+      <c r="V21" s="95"/>
+      <c r="W21" s="95"/>
+      <c r="X21" s="95"/>
+      <c r="Y21" s="95"/>
+      <c r="Z21" s="95"/>
+      <c r="AA21" s="95"/>
+      <c r="AB21" s="95"/>
+      <c r="AC21" s="95"/>
+      <c r="AD21" s="95"/>
+      <c r="AE21" s="96"/>
+      <c r="AF21" s="91"/>
+      <c r="AG21" s="92"/>
+      <c r="AH21" s="92"/>
+      <c r="AI21" s="93"/>
     </row>
     <row r="22" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="27"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="56"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="56"/>
-      <c r="X22" s="56"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="56"/>
-      <c r="AA22" s="56"/>
-      <c r="AB22" s="56"/>
-      <c r="AC22" s="56"/>
-      <c r="AD22" s="56"/>
-      <c r="AE22" s="57"/>
-      <c r="AF22" s="52"/>
-      <c r="AG22" s="53"/>
-      <c r="AH22" s="53"/>
-      <c r="AI22" s="54"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="92"/>
+      <c r="N22" s="92"/>
+      <c r="O22" s="92"/>
+      <c r="P22" s="93"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="95"/>
+      <c r="S22" s="95"/>
+      <c r="T22" s="95"/>
+      <c r="U22" s="95"/>
+      <c r="V22" s="95"/>
+      <c r="W22" s="95"/>
+      <c r="X22" s="95"/>
+      <c r="Y22" s="95"/>
+      <c r="Z22" s="95"/>
+      <c r="AA22" s="95"/>
+      <c r="AB22" s="95"/>
+      <c r="AC22" s="95"/>
+      <c r="AD22" s="95"/>
+      <c r="AE22" s="96"/>
+      <c r="AF22" s="91"/>
+      <c r="AG22" s="92"/>
+      <c r="AH22" s="92"/>
+      <c r="AI22" s="93"/>
     </row>
     <row r="23" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="27"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="56"/>
-      <c r="U23" s="56"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="56"/>
-      <c r="AA23" s="56"/>
-      <c r="AB23" s="56"/>
-      <c r="AC23" s="56"/>
-      <c r="AD23" s="56"/>
-      <c r="AE23" s="57"/>
-      <c r="AF23" s="52"/>
-      <c r="AG23" s="53"/>
-      <c r="AH23" s="53"/>
-      <c r="AI23" s="54"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="92"/>
+      <c r="L23" s="92"/>
+      <c r="M23" s="92"/>
+      <c r="N23" s="92"/>
+      <c r="O23" s="92"/>
+      <c r="P23" s="93"/>
+      <c r="Q23" s="94"/>
+      <c r="R23" s="95"/>
+      <c r="S23" s="95"/>
+      <c r="T23" s="95"/>
+      <c r="U23" s="95"/>
+      <c r="V23" s="95"/>
+      <c r="W23" s="95"/>
+      <c r="X23" s="95"/>
+      <c r="Y23" s="95"/>
+      <c r="Z23" s="95"/>
+      <c r="AA23" s="95"/>
+      <c r="AB23" s="95"/>
+      <c r="AC23" s="95"/>
+      <c r="AD23" s="95"/>
+      <c r="AE23" s="96"/>
+      <c r="AF23" s="91"/>
+      <c r="AG23" s="92"/>
+      <c r="AH23" s="92"/>
+      <c r="AI23" s="93"/>
     </row>
     <row r="24" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="27"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="56"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="56"/>
-      <c r="U24" s="56"/>
-      <c r="V24" s="56"/>
-      <c r="W24" s="56"/>
-      <c r="X24" s="56"/>
-      <c r="Y24" s="56"/>
-      <c r="Z24" s="56"/>
-      <c r="AA24" s="56"/>
-      <c r="AB24" s="56"/>
-      <c r="AC24" s="56"/>
-      <c r="AD24" s="56"/>
-      <c r="AE24" s="57"/>
-      <c r="AF24" s="52"/>
-      <c r="AG24" s="53"/>
-      <c r="AH24" s="53"/>
-      <c r="AI24" s="54"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="92"/>
+      <c r="L24" s="92"/>
+      <c r="M24" s="92"/>
+      <c r="N24" s="92"/>
+      <c r="O24" s="92"/>
+      <c r="P24" s="93"/>
+      <c r="Q24" s="94"/>
+      <c r="R24" s="95"/>
+      <c r="S24" s="95"/>
+      <c r="T24" s="95"/>
+      <c r="U24" s="95"/>
+      <c r="V24" s="95"/>
+      <c r="W24" s="95"/>
+      <c r="X24" s="95"/>
+      <c r="Y24" s="95"/>
+      <c r="Z24" s="95"/>
+      <c r="AA24" s="95"/>
+      <c r="AB24" s="95"/>
+      <c r="AC24" s="95"/>
+      <c r="AD24" s="95"/>
+      <c r="AE24" s="96"/>
+      <c r="AF24" s="91"/>
+      <c r="AG24" s="92"/>
+      <c r="AH24" s="92"/>
+      <c r="AI24" s="93"/>
     </row>
     <row r="25" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="27"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="56"/>
-      <c r="S25" s="56"/>
-      <c r="T25" s="56"/>
-      <c r="U25" s="56"/>
-      <c r="V25" s="56"/>
-      <c r="W25" s="56"/>
-      <c r="X25" s="56"/>
-      <c r="Y25" s="56"/>
-      <c r="Z25" s="56"/>
-      <c r="AA25" s="56"/>
-      <c r="AB25" s="56"/>
-      <c r="AC25" s="56"/>
-      <c r="AD25" s="56"/>
-      <c r="AE25" s="57"/>
-      <c r="AF25" s="52"/>
-      <c r="AG25" s="53"/>
-      <c r="AH25" s="53"/>
-      <c r="AI25" s="54"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="92"/>
+      <c r="M25" s="92"/>
+      <c r="N25" s="92"/>
+      <c r="O25" s="92"/>
+      <c r="P25" s="93"/>
+      <c r="Q25" s="94"/>
+      <c r="R25" s="95"/>
+      <c r="S25" s="95"/>
+      <c r="T25" s="95"/>
+      <c r="U25" s="95"/>
+      <c r="V25" s="95"/>
+      <c r="W25" s="95"/>
+      <c r="X25" s="95"/>
+      <c r="Y25" s="95"/>
+      <c r="Z25" s="95"/>
+      <c r="AA25" s="95"/>
+      <c r="AB25" s="95"/>
+      <c r="AC25" s="95"/>
+      <c r="AD25" s="95"/>
+      <c r="AE25" s="96"/>
+      <c r="AF25" s="91"/>
+      <c r="AG25" s="92"/>
+      <c r="AH25" s="92"/>
+      <c r="AI25" s="93"/>
     </row>
     <row r="26" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="27"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="56"/>
-      <c r="S26" s="56"/>
-      <c r="T26" s="56"/>
-      <c r="U26" s="56"/>
-      <c r="V26" s="56"/>
-      <c r="W26" s="56"/>
-      <c r="X26" s="56"/>
-      <c r="Y26" s="56"/>
-      <c r="Z26" s="56"/>
-      <c r="AA26" s="56"/>
-      <c r="AB26" s="56"/>
-      <c r="AC26" s="56"/>
-      <c r="AD26" s="56"/>
-      <c r="AE26" s="57"/>
-      <c r="AF26" s="52"/>
-      <c r="AG26" s="53"/>
-      <c r="AH26" s="53"/>
-      <c r="AI26" s="54"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="92"/>
+      <c r="M26" s="92"/>
+      <c r="N26" s="92"/>
+      <c r="O26" s="92"/>
+      <c r="P26" s="93"/>
+      <c r="Q26" s="94"/>
+      <c r="R26" s="95"/>
+      <c r="S26" s="95"/>
+      <c r="T26" s="95"/>
+      <c r="U26" s="95"/>
+      <c r="V26" s="95"/>
+      <c r="W26" s="95"/>
+      <c r="X26" s="95"/>
+      <c r="Y26" s="95"/>
+      <c r="Z26" s="95"/>
+      <c r="AA26" s="95"/>
+      <c r="AB26" s="95"/>
+      <c r="AC26" s="95"/>
+      <c r="AD26" s="95"/>
+      <c r="AE26" s="96"/>
+      <c r="AF26" s="91"/>
+      <c r="AG26" s="92"/>
+      <c r="AH26" s="92"/>
+      <c r="AI26" s="93"/>
     </row>
     <row r="27" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="27"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="55"/>
-      <c r="R27" s="56"/>
-      <c r="S27" s="56"/>
-      <c r="T27" s="56"/>
-      <c r="U27" s="56"/>
-      <c r="V27" s="56"/>
-      <c r="W27" s="56"/>
-      <c r="X27" s="56"/>
-      <c r="Y27" s="56"/>
-      <c r="Z27" s="56"/>
-      <c r="AA27" s="56"/>
-      <c r="AB27" s="56"/>
-      <c r="AC27" s="56"/>
-      <c r="AD27" s="56"/>
-      <c r="AE27" s="57"/>
-      <c r="AF27" s="52"/>
-      <c r="AG27" s="53"/>
-      <c r="AH27" s="53"/>
-      <c r="AI27" s="54"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="91"/>
+      <c r="K27" s="92"/>
+      <c r="L27" s="92"/>
+      <c r="M27" s="92"/>
+      <c r="N27" s="92"/>
+      <c r="O27" s="92"/>
+      <c r="P27" s="93"/>
+      <c r="Q27" s="94"/>
+      <c r="R27" s="95"/>
+      <c r="S27" s="95"/>
+      <c r="T27" s="95"/>
+      <c r="U27" s="95"/>
+      <c r="V27" s="95"/>
+      <c r="W27" s="95"/>
+      <c r="X27" s="95"/>
+      <c r="Y27" s="95"/>
+      <c r="Z27" s="95"/>
+      <c r="AA27" s="95"/>
+      <c r="AB27" s="95"/>
+      <c r="AC27" s="95"/>
+      <c r="AD27" s="95"/>
+      <c r="AE27" s="96"/>
+      <c r="AF27" s="91"/>
+      <c r="AG27" s="92"/>
+      <c r="AH27" s="92"/>
+      <c r="AI27" s="93"/>
     </row>
     <row r="28" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="27"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="56"/>
-      <c r="S28" s="56"/>
-      <c r="T28" s="56"/>
-      <c r="U28" s="56"/>
-      <c r="V28" s="56"/>
-      <c r="W28" s="56"/>
-      <c r="X28" s="56"/>
-      <c r="Y28" s="56"/>
-      <c r="Z28" s="56"/>
-      <c r="AA28" s="56"/>
-      <c r="AB28" s="56"/>
-      <c r="AC28" s="56"/>
-      <c r="AD28" s="56"/>
-      <c r="AE28" s="57"/>
-      <c r="AF28" s="52"/>
-      <c r="AG28" s="53"/>
-      <c r="AH28" s="53"/>
-      <c r="AI28" s="54"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="91"/>
+      <c r="K28" s="92"/>
+      <c r="L28" s="92"/>
+      <c r="M28" s="92"/>
+      <c r="N28" s="92"/>
+      <c r="O28" s="92"/>
+      <c r="P28" s="93"/>
+      <c r="Q28" s="94"/>
+      <c r="R28" s="95"/>
+      <c r="S28" s="95"/>
+      <c r="T28" s="95"/>
+      <c r="U28" s="95"/>
+      <c r="V28" s="95"/>
+      <c r="W28" s="95"/>
+      <c r="X28" s="95"/>
+      <c r="Y28" s="95"/>
+      <c r="Z28" s="95"/>
+      <c r="AA28" s="95"/>
+      <c r="AB28" s="95"/>
+      <c r="AC28" s="95"/>
+      <c r="AD28" s="95"/>
+      <c r="AE28" s="96"/>
+      <c r="AF28" s="91"/>
+      <c r="AG28" s="92"/>
+      <c r="AH28" s="92"/>
+      <c r="AI28" s="93"/>
     </row>
     <row r="29" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="27"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="56"/>
-      <c r="S29" s="56"/>
-      <c r="T29" s="56"/>
-      <c r="U29" s="56"/>
-      <c r="V29" s="56"/>
-      <c r="W29" s="56"/>
-      <c r="X29" s="56"/>
-      <c r="Y29" s="56"/>
-      <c r="Z29" s="56"/>
-      <c r="AA29" s="56"/>
-      <c r="AB29" s="56"/>
-      <c r="AC29" s="56"/>
-      <c r="AD29" s="56"/>
-      <c r="AE29" s="57"/>
-      <c r="AF29" s="52"/>
-      <c r="AG29" s="53"/>
-      <c r="AH29" s="53"/>
-      <c r="AI29" s="54"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="92"/>
+      <c r="L29" s="92"/>
+      <c r="M29" s="92"/>
+      <c r="N29" s="92"/>
+      <c r="O29" s="92"/>
+      <c r="P29" s="93"/>
+      <c r="Q29" s="94"/>
+      <c r="R29" s="95"/>
+      <c r="S29" s="95"/>
+      <c r="T29" s="95"/>
+      <c r="U29" s="95"/>
+      <c r="V29" s="95"/>
+      <c r="W29" s="95"/>
+      <c r="X29" s="95"/>
+      <c r="Y29" s="95"/>
+      <c r="Z29" s="95"/>
+      <c r="AA29" s="95"/>
+      <c r="AB29" s="95"/>
+      <c r="AC29" s="95"/>
+      <c r="AD29" s="95"/>
+      <c r="AE29" s="96"/>
+      <c r="AF29" s="91"/>
+      <c r="AG29" s="92"/>
+      <c r="AH29" s="92"/>
+      <c r="AI29" s="93"/>
     </row>
     <row r="30" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="27"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="55"/>
-      <c r="R30" s="56"/>
-      <c r="S30" s="56"/>
-      <c r="T30" s="56"/>
-      <c r="U30" s="56"/>
-      <c r="V30" s="56"/>
-      <c r="W30" s="56"/>
-      <c r="X30" s="56"/>
-      <c r="Y30" s="56"/>
-      <c r="Z30" s="56"/>
-      <c r="AA30" s="56"/>
-      <c r="AB30" s="56"/>
-      <c r="AC30" s="56"/>
-      <c r="AD30" s="56"/>
-      <c r="AE30" s="57"/>
-      <c r="AF30" s="52"/>
-      <c r="AG30" s="53"/>
-      <c r="AH30" s="53"/>
-      <c r="AI30" s="54"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="92"/>
+      <c r="L30" s="92"/>
+      <c r="M30" s="92"/>
+      <c r="N30" s="92"/>
+      <c r="O30" s="92"/>
+      <c r="P30" s="93"/>
+      <c r="Q30" s="94"/>
+      <c r="R30" s="95"/>
+      <c r="S30" s="95"/>
+      <c r="T30" s="95"/>
+      <c r="U30" s="95"/>
+      <c r="V30" s="95"/>
+      <c r="W30" s="95"/>
+      <c r="X30" s="95"/>
+      <c r="Y30" s="95"/>
+      <c r="Z30" s="95"/>
+      <c r="AA30" s="95"/>
+      <c r="AB30" s="95"/>
+      <c r="AC30" s="95"/>
+      <c r="AD30" s="95"/>
+      <c r="AE30" s="96"/>
+      <c r="AF30" s="91"/>
+      <c r="AG30" s="92"/>
+      <c r="AH30" s="92"/>
+      <c r="AI30" s="93"/>
     </row>
     <row r="31" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="27"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="55"/>
-      <c r="R31" s="56"/>
-      <c r="S31" s="56"/>
-      <c r="T31" s="56"/>
-      <c r="U31" s="56"/>
-      <c r="V31" s="56"/>
-      <c r="W31" s="56"/>
-      <c r="X31" s="56"/>
-      <c r="Y31" s="56"/>
-      <c r="Z31" s="56"/>
-      <c r="AA31" s="56"/>
-      <c r="AB31" s="56"/>
-      <c r="AC31" s="56"/>
-      <c r="AD31" s="56"/>
-      <c r="AE31" s="57"/>
-      <c r="AF31" s="52"/>
-      <c r="AG31" s="53"/>
-      <c r="AH31" s="53"/>
-      <c r="AI31" s="54"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="91"/>
+      <c r="K31" s="92"/>
+      <c r="L31" s="92"/>
+      <c r="M31" s="92"/>
+      <c r="N31" s="92"/>
+      <c r="O31" s="92"/>
+      <c r="P31" s="93"/>
+      <c r="Q31" s="94"/>
+      <c r="R31" s="95"/>
+      <c r="S31" s="95"/>
+      <c r="T31" s="95"/>
+      <c r="U31" s="95"/>
+      <c r="V31" s="95"/>
+      <c r="W31" s="95"/>
+      <c r="X31" s="95"/>
+      <c r="Y31" s="95"/>
+      <c r="Z31" s="95"/>
+      <c r="AA31" s="95"/>
+      <c r="AB31" s="95"/>
+      <c r="AC31" s="95"/>
+      <c r="AD31" s="95"/>
+      <c r="AE31" s="96"/>
+      <c r="AF31" s="91"/>
+      <c r="AG31" s="92"/>
+      <c r="AH31" s="92"/>
+      <c r="AI31" s="93"/>
     </row>
     <row r="32" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="27"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="54"/>
-      <c r="Q32" s="55"/>
-      <c r="R32" s="56"/>
-      <c r="S32" s="56"/>
-      <c r="T32" s="56"/>
-      <c r="U32" s="56"/>
-      <c r="V32" s="56"/>
-      <c r="W32" s="56"/>
-      <c r="X32" s="56"/>
-      <c r="Y32" s="56"/>
-      <c r="Z32" s="56"/>
-      <c r="AA32" s="56"/>
-      <c r="AB32" s="56"/>
-      <c r="AC32" s="56"/>
-      <c r="AD32" s="56"/>
-      <c r="AE32" s="57"/>
-      <c r="AF32" s="52"/>
-      <c r="AG32" s="53"/>
-      <c r="AH32" s="53"/>
-      <c r="AI32" s="54"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="91"/>
+      <c r="K32" s="111"/>
+      <c r="L32" s="92"/>
+      <c r="M32" s="92"/>
+      <c r="N32" s="92"/>
+      <c r="O32" s="92"/>
+      <c r="P32" s="93"/>
+      <c r="Q32" s="94"/>
+      <c r="R32" s="95"/>
+      <c r="S32" s="95"/>
+      <c r="T32" s="95"/>
+      <c r="U32" s="95"/>
+      <c r="V32" s="95"/>
+      <c r="W32" s="95"/>
+      <c r="X32" s="95"/>
+      <c r="Y32" s="95"/>
+      <c r="Z32" s="95"/>
+      <c r="AA32" s="95"/>
+      <c r="AB32" s="95"/>
+      <c r="AC32" s="95"/>
+      <c r="AD32" s="95"/>
+      <c r="AE32" s="96"/>
+      <c r="AF32" s="91"/>
+      <c r="AG32" s="92"/>
+      <c r="AH32" s="92"/>
+      <c r="AI32" s="93"/>
     </row>
     <row r="33" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="27"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="55"/>
-      <c r="R33" s="56"/>
-      <c r="S33" s="56"/>
-      <c r="T33" s="56"/>
-      <c r="U33" s="56"/>
-      <c r="V33" s="56"/>
-      <c r="W33" s="56"/>
-      <c r="X33" s="56"/>
-      <c r="Y33" s="56"/>
-      <c r="Z33" s="56"/>
-      <c r="AA33" s="56"/>
-      <c r="AB33" s="56"/>
-      <c r="AC33" s="56"/>
-      <c r="AD33" s="56"/>
-      <c r="AE33" s="57"/>
-      <c r="AF33" s="52"/>
-      <c r="AG33" s="53"/>
-      <c r="AH33" s="53"/>
-      <c r="AI33" s="54"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="91"/>
+      <c r="K33" s="92"/>
+      <c r="L33" s="92"/>
+      <c r="M33" s="92"/>
+      <c r="N33" s="92"/>
+      <c r="O33" s="92"/>
+      <c r="P33" s="93"/>
+      <c r="Q33" s="94"/>
+      <c r="R33" s="95"/>
+      <c r="S33" s="95"/>
+      <c r="T33" s="95"/>
+      <c r="U33" s="95"/>
+      <c r="V33" s="95"/>
+      <c r="W33" s="95"/>
+      <c r="X33" s="95"/>
+      <c r="Y33" s="95"/>
+      <c r="Z33" s="95"/>
+      <c r="AA33" s="95"/>
+      <c r="AB33" s="95"/>
+      <c r="AC33" s="95"/>
+      <c r="AD33" s="95"/>
+      <c r="AE33" s="96"/>
+      <c r="AF33" s="91"/>
+      <c r="AG33" s="92"/>
+      <c r="AH33" s="92"/>
+      <c r="AI33" s="93"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -45151,162 +45398,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -45320,7 +45411,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:DN102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A31" zoomScale="80" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="BC82" sqref="BC82"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -45330,7 +45423,7 @@
   <sheetData>
     <row r="1" spans="2:50" s="8" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B1" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS1" s="9"/>
       <c r="AX1" s="9"/>
@@ -45432,7 +45525,7 @@
     <row r="96" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="97" spans="2:118" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B97" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C97" s="11"/>
       <c r="D97" s="11"/>
@@ -45673,7 +45766,7 @@
     <row r="99" spans="2:118" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B99" s="14"/>
       <c r="C99" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D99" s="15"/>
       <c r="E99" s="15"/>
@@ -45695,7 +45788,7 @@
       <c r="V99" s="15"/>
       <c r="W99" s="15"/>
       <c r="X99" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y99" s="15"/>
       <c r="Z99" s="15"/>
@@ -45724,7 +45817,7 @@
       <c r="AW99" s="15"/>
       <c r="AX99" s="15"/>
       <c r="AY99" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ99" s="15"/>
       <c r="BA99" s="15"/>
@@ -45745,7 +45838,7 @@
       <c r="BP99" s="15"/>
       <c r="BQ99" s="15"/>
       <c r="BT99" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BU99" s="15"/>
       <c r="BV99" s="15"/>
@@ -45782,7 +45875,7 @@
       <c r="DA99" s="15"/>
       <c r="DB99" s="15"/>
       <c r="DC99" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="DD99" s="15"/>
       <c r="DE99" s="15"/>
@@ -45798,7 +45891,7 @@
     <row r="100" spans="2:118" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B100" s="14"/>
       <c r="C100" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D100" s="15"/>
       <c r="E100" s="15"/>
@@ -45904,7 +45997,7 @@
       <c r="DB100" s="15"/>
       <c r="DC100" s="15"/>
       <c r="DD100" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="DE100" s="15"/>
       <c r="DG100" s="15"/>
@@ -46023,7 +46116,7 @@
       <c r="DB101" s="15"/>
       <c r="DC101" s="15"/>
       <c r="DD101" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="DE101" s="15"/>
       <c r="DG101" s="15"/>

--- a/サンプルプロジェクト/設計書/Nablarchを使用した開発の流れ.xlsx
+++ b/サンプルプロジェクト/設計書/Nablarchを使用した開発の流れ.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C6216C-5F53-4598-A943-97A58EB7EE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="285" windowWidth="23565" windowHeight="8190" tabRatio="822" activeTab="2"/>
+    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="24" r:id="rId1"/>
@@ -17,12 +18,23 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$39</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>システム名</t>
   </si>
@@ -69,16 +81,6 @@
       <t>タントウシャ</t>
     </rPh>
     <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>第１．０版</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>環境構築</t>
@@ -234,11 +236,80 @@
     <t>Nablarchを使用した開発の流れ</t>
     <phoneticPr fontId="18"/>
   </si>
+  <si>
+    <t>1.1版</t>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>クラス単体テスト</t>
+    <rPh sb="3" eb="5">
+      <t>タンタイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>入力に単体テスト仕様書を追加</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タンタイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>TIS</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>Object Browser
+コードテーブル登録用データ出力ツール</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>凡例通り歯車アイコンを追加</t>
+    <rPh sb="0" eb="3">
+      <t>ハンレイドオ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハグルマ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>第１．１版</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
@@ -701,7 +772,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -815,87 +886,6 @@
     </xf>
     <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1014,15 +1004,108 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="パーセント 2" xfId="6"/>
+    <cellStyle name="パーセント 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="3"/>
-    <cellStyle name="標準 2 2" xfId="5"/>
-    <cellStyle name="標準 3" xfId="4"/>
-    <cellStyle name="標準_画面標準" xfId="1"/>
-    <cellStyle name="標準_画面標準定義" xfId="2"/>
+    <cellStyle name="標準 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1034,6 +1117,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1056,7 +1142,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 17"/>
+        <xdr:cNvPr id="2" name="Group 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -1071,7 +1163,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Text Box 12"/>
+          <xdr:cNvPr id="3" name="Text Box 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1155,7 +1253,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Text Box 13"/>
+          <xdr:cNvPr id="4" name="Text Box 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -1255,7 +1359,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Text Box 18"/>
+        <xdr:cNvPr id="5" name="Text Box 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1373,7 +1483,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="296" name="カギ線コネクタ 295"/>
+        <xdr:cNvPr id="296" name="カギ線コネクタ 295">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000028010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="358" idx="3"/>
           <a:endCxn id="690" idx="1"/>
@@ -1428,7 +1544,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="358" name="メモ 357"/>
+        <xdr:cNvPr id="358" name="メモ 357">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000066010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -1449,7 +1571,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1678,7 +1799,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="152" name="メモ 151"/>
+        <xdr:cNvPr id="152" name="メモ 151">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000098000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -1702,7 +1829,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -1929,7 +2055,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="曲折矢印 1"/>
+        <xdr:cNvPr id="2" name="曲折矢印 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -1955,7 +2087,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2025,7 +2156,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2091,7 +2228,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2160,7 +2303,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="角丸四角形 4"/>
+        <xdr:cNvPr id="5" name="角丸四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -2182,7 +2331,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2252,7 +2400,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2318,7 +2472,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="直線矢印コネクタ 10"/>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
@@ -2340,7 +2500,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2374,7 +2533,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="直線矢印コネクタ 11"/>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
@@ -2396,7 +2561,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2430,7 +2594,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="ホームベース 13"/>
+        <xdr:cNvPr id="14" name="ホームベース 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -2453,7 +2623,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2681,7 +2850,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="山形 14"/>
+        <xdr:cNvPr id="15" name="山形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -2704,7 +2879,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2938,7 +3112,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="山形 15"/>
+        <xdr:cNvPr id="16" name="山形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -2963,7 +3143,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3213,7 +3392,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="メモ 16"/>
+        <xdr:cNvPr id="17" name="メモ 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -3234,7 +3419,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3514,7 +3698,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="メモ 17"/>
+        <xdr:cNvPr id="18" name="メモ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -3535,7 +3725,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3818,7 +4007,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="円柱 18"/>
+        <xdr:cNvPr id="19" name="円柱 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4087,7 +4282,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="フローチャート : 代替処理 26"/>
+        <xdr:cNvPr id="27" name="フローチャート : 代替処理 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -4105,7 +4306,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -4351,7 +4551,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="フローチャート: 処理 28"/>
+        <xdr:cNvPr id="29" name="フローチャート: 処理 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4420,7 +4626,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="メモ 29"/>
+        <xdr:cNvPr id="30" name="メモ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -4441,7 +4653,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -4660,7 +4871,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="正方形/長方形 32"/>
+        <xdr:cNvPr id="33" name="正方形/長方形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4736,7 +4953,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="メモ 33"/>
+        <xdr:cNvPr id="34" name="メモ 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -4762,7 +4985,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -5009,7 +5231,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="フローチャート : 代替処理 35"/>
+        <xdr:cNvPr id="36" name="フローチャート : 代替処理 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -5027,7 +5255,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -5317,7 +5544,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="メモ 36"/>
+        <xdr:cNvPr id="37" name="メモ 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -5343,7 +5576,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -5590,7 +5822,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="フローチャート : 代替処理 37"/>
+        <xdr:cNvPr id="38" name="フローチャート : 代替処理 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -5608,7 +5846,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -5898,7 +6135,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="メモ 39"/>
+        <xdr:cNvPr id="40" name="メモ 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -5924,7 +6167,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -6207,7 +6449,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="フローチャート : 代替処理 41"/>
+        <xdr:cNvPr id="42" name="フローチャート : 代替処理 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -6225,7 +6473,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -6515,7 +6762,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="メモ 42"/>
+        <xdr:cNvPr id="43" name="メモ 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -6541,7 +6794,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -6832,7 +7084,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="メモ 46"/>
+        <xdr:cNvPr id="47" name="メモ 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -6853,7 +7111,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -7095,7 +7352,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="Rectangle 38"/>
+        <xdr:cNvPr id="48" name="Rectangle 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7352,7 +7615,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="正方形/長方形 48"/>
+        <xdr:cNvPr id="49" name="正方形/長方形 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7428,7 +7697,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="図 12" descr="C:\Documents and Settings\tis301227\Local Settings\Temporary Internet Files\Content.IE5\67Q664PZ\MC900428969[1].wmf"/>
+        <xdr:cNvPr id="50" name="図 12" descr="C:\Documents and Settings\tis301227\Local Settings\Temporary Internet Files\Content.IE5\67Q664PZ\MC900428969[1].wmf">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -7496,7 +7771,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="Rectangle 83"/>
+        <xdr:cNvPr id="51" name="Rectangle 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -7779,7 +8060,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="フローチャート : 代替処理 51"/>
+        <xdr:cNvPr id="52" name="フローチャート : 代替処理 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -7797,7 +8084,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -8043,7 +8329,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="正方形/長方形 52"/>
+        <xdr:cNvPr id="53" name="正方形/長方形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8108,7 +8400,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="Rectangle 83"/>
+        <xdr:cNvPr id="54" name="Rectangle 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -8402,7 +8700,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="山形 54"/>
+        <xdr:cNvPr id="55" name="山形 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -8430,7 +8734,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -8650,7 +8953,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="フローチャート : カード 20"/>
+        <xdr:cNvPr id="56" name="フローチャート : カード 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8746,20 +9055,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="57" name="グループ化 56"/>
+        <xdr:cNvPr id="57" name="グループ化 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="16417181" y="1966230"/>
-          <a:ext cx="851644" cy="881745"/>
+          <a:off x="16614825" y="1944799"/>
+          <a:ext cx="863550" cy="853170"/>
           <a:chOff x="15677028" y="9610164"/>
           <a:chExt cx="858367" cy="856130"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="58" name="右カーブ矢印 57"/>
+          <xdr:cNvPr id="58" name="右カーブ矢印 57">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
@@ -8780,7 +9101,6 @@
             <a:headEnd type="none" w="med" len="med"/>
             <a:tailEnd type="none" w="med" len="med"/>
           </a:ln>
-          <a:extLst/>
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="0">
@@ -8833,7 +9153,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="59" name="右カーブ矢印 58"/>
+          <xdr:cNvPr id="59" name="右カーブ矢印 58">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
@@ -8854,7 +9180,6 @@
             <a:headEnd type="none" w="med" len="med"/>
             <a:tailEnd type="none" w="med" len="med"/>
           </a:ln>
-          <a:extLst/>
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="0">
@@ -8923,7 +9248,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="図 59"/>
+        <xdr:cNvPr id="60" name="図 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -8967,20 +9298,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="371" name="グループ化 370"/>
+        <xdr:cNvPr id="371" name="グループ化 370">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000073010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6362700" y="12296775"/>
-          <a:ext cx="517620" cy="335618"/>
+          <a:off x="6441281" y="11984831"/>
+          <a:ext cx="524764" cy="326093"/>
           <a:chOff x="6686550" y="13626923"/>
           <a:chExt cx="517620" cy="335618"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="63" name="図 62"/>
+          <xdr:cNvPr id="63" name="図 62">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -9009,7 +9352,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="64" name="Rectangle 38"/>
+          <xdr:cNvPr id="64" name="Rectangle 38">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000040000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -9267,7 +9616,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="Rectangle 38"/>
+        <xdr:cNvPr id="66" name="Rectangle 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -9531,7 +9886,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="Rectangle 38"/>
+        <xdr:cNvPr id="67" name="Rectangle 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -9795,7 +10156,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="メモ 67"/>
+        <xdr:cNvPr id="68" name="メモ 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -9821,7 +10188,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -10040,7 +10406,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="メモ 68"/>
+        <xdr:cNvPr id="69" name="メモ 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000045000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -10066,7 +10438,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -10285,7 +10656,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="74" name="フローチャート : 代替処理 73"/>
+        <xdr:cNvPr id="74" name="フローチャート : 代替処理 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -10303,7 +10680,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -10552,7 +10928,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="80" name="Picture 103" descr="MC900432614"/>
+        <xdr:cNvPr id="80" name="Picture 103" descr="MC900432614">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000050000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -10607,7 +10989,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="81" name="直線矢印コネクタ 80"/>
+        <xdr:cNvPr id="81" name="直線矢印コネクタ 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000051000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="52" idx="3"/>
           <a:endCxn id="53" idx="1"/>
@@ -10663,20 +11051,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="903" name="グループ化 902"/>
+        <xdr:cNvPr id="903" name="グループ化 902">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000087030000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16226559" y="12265299"/>
-          <a:ext cx="1615497" cy="528503"/>
+          <a:off x="16421822" y="11958118"/>
+          <a:ext cx="1634547" cy="514215"/>
           <a:chOff x="16049625" y="10126671"/>
           <a:chExt cx="1619250" cy="526771"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="45" name="Rectangle 38"/>
+          <xdr:cNvPr id="45" name="Rectangle 38">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -10956,7 +11356,13 @@
       </xdr:sp>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="61" name="図 60"/>
+          <xdr:cNvPr id="61" name="図 60">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -10985,7 +11391,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="82" name="正方形/長方形 81"/>
+          <xdr:cNvPr id="82" name="正方形/長方形 81">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000052000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -11058,7 +11470,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="83" name="正方形/長方形 82"/>
+        <xdr:cNvPr id="83" name="正方形/長方形 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000053000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11134,7 +11552,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="84" name="正方形/長方形 83"/>
+        <xdr:cNvPr id="84" name="正方形/長方形 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000054000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11210,7 +11634,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="92" name="直線矢印コネクタ 91"/>
+        <xdr:cNvPr id="92" name="直線矢印コネクタ 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="74" idx="3"/>
           <a:endCxn id="63" idx="1"/>
@@ -11266,7 +11696,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="93" name="フローチャート : 代替処理 92"/>
+        <xdr:cNvPr id="93" name="フローチャート : 代替処理 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -11284,7 +11720,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -11533,7 +11968,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="94" name="カギ線コネクタ 93"/>
+        <xdr:cNvPr id="94" name="カギ線コネクタ 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="18" idx="3"/>
           <a:endCxn id="93" idx="1"/>
@@ -11558,7 +11999,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -11592,7 +12032,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="95" name="メモ 94"/>
+        <xdr:cNvPr id="95" name="メモ 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -11613,7 +12059,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -11896,7 +12341,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="102" name="フローチャート : カード 20"/>
+        <xdr:cNvPr id="102" name="フローチャート : カード 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000066000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11968,7 +12419,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="103" name="Picture 103" descr="MC900432614"/>
+        <xdr:cNvPr id="103" name="Picture 103" descr="MC900432614">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000067000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -12023,7 +12480,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="104" name="直線矢印コネクタ 103"/>
+        <xdr:cNvPr id="104" name="直線矢印コネクタ 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000068000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="95" idx="2"/>
           <a:endCxn id="102" idx="0"/>
@@ -12077,7 +12540,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="105" name="正方形/長方形 104"/>
+        <xdr:cNvPr id="105" name="正方形/長方形 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000069000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12143,7 +12612,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="106" name="正方形/長方形 105"/>
+        <xdr:cNvPr id="106" name="正方形/長方形 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12219,7 +12694,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="109" name="正方形/長方形 108"/>
+        <xdr:cNvPr id="109" name="正方形/長方形 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -12285,7 +12766,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="110" name="直線矢印コネクタ 109"/>
+        <xdr:cNvPr id="110" name="直線矢印コネクタ 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="38" idx="3"/>
           <a:endCxn id="34" idx="1"/>
@@ -12341,7 +12828,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="111" name="直線矢印コネクタ 110"/>
+        <xdr:cNvPr id="111" name="直線矢印コネクタ 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="34" idx="3"/>
           <a:endCxn id="36" idx="1"/>
@@ -12397,7 +12890,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="112" name="直線矢印コネクタ 111"/>
+        <xdr:cNvPr id="112" name="直線矢印コネクタ 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000070000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="36" idx="3"/>
           <a:endCxn id="84" idx="1"/>
@@ -12453,7 +12952,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="113" name="メモ 112"/>
+        <xdr:cNvPr id="113" name="メモ 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000071000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -12479,7 +12984,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -12726,7 +13230,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="115" name="メモ 114"/>
+        <xdr:cNvPr id="115" name="メモ 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000073000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -12752,7 +13262,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -12968,7 +13477,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="116" name="メモ 115"/>
+        <xdr:cNvPr id="116" name="メモ 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000074000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -12994,7 +13509,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -13210,7 +13724,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="117" name="メモ 116"/>
+        <xdr:cNvPr id="117" name="メモ 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000075000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -13236,7 +13756,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -13455,7 +13974,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="118" name="カギ線コネクタ 117"/>
+        <xdr:cNvPr id="118" name="カギ線コネクタ 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000076000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="69" idx="2"/>
           <a:endCxn id="117" idx="0"/>
@@ -13475,7 +14000,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -13498,24 +14022,30 @@
     <xdr:from>
       <xdr:col>92</xdr:col>
       <xdr:colOff>1680</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>109</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="119" name="フローチャート: 処理 118"/>
+        <xdr:cNvPr id="119" name="フローチャート: 処理 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000077000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18070605" y="7753350"/>
-          <a:ext cx="3398746" cy="3086100"/>
+          <a:off x="18270630" y="8496299"/>
+          <a:ext cx="3398746" cy="3438525"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -13615,18 +14145,24 @@
     <xdr:to>
       <xdr:col>109</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="120" name="フローチャート: 処理 119"/>
+        <xdr:cNvPr id="120" name="フローチャート: 処理 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000078000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18070605" y="4495800"/>
-          <a:ext cx="3398746" cy="3086100"/>
+          <a:off x="18270630" y="4733925"/>
+          <a:ext cx="3398746" cy="3676650"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -13718,26 +14254,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>97</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:col>96</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>104</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:col>103</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="121" name="フローチャート : 代替処理 120"/>
+        <xdr:cNvPr id="121" name="フローチャート : 代替処理 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000079000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="20669251" y="4495800"/>
-          <a:ext cx="1400175" cy="514350"/>
+          <a:off x="19259551" y="6105525"/>
+          <a:ext cx="1400175" cy="514351"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -13749,7 +14291,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -14028,24 +14569,30 @@
     <xdr:from>
       <xdr:col>97</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>25853</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>159203</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>103</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>21770</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>155120</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="122" name="正方形/長方形 121"/>
+        <xdr:cNvPr id="122" name="正方形/長方形 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19767096" y="6298746"/>
-          <a:ext cx="1224643" cy="526595"/>
+          <a:off x="19373850" y="6950528"/>
+          <a:ext cx="1200150" cy="510267"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14104,23 +14651,29 @@
     <xdr:from>
       <xdr:col>97</xdr:col>
       <xdr:colOff>324</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>103</xdr:col>
       <xdr:colOff>199702</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="125" name="フローチャート : 代替処理 124"/>
+        <xdr:cNvPr id="125" name="フローチャート : 代替処理 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="19069374" y="6724650"/>
+          <a:off x="19269399" y="7781925"/>
           <a:ext cx="1399528" cy="514349"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
@@ -14133,7 +14686,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -14410,26 +14962,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>93</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>94</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>108</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>106</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="126" name="フローチャート: 処理 125"/>
+        <xdr:cNvPr id="126" name="フローチャート: 処理 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00007E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18268950" y="5695950"/>
-          <a:ext cx="3000375" cy="857250"/>
+          <a:off x="18773776" y="6838950"/>
+          <a:ext cx="2390774" cy="685800"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -14481,24 +15039,30 @@
     <xdr:from>
       <xdr:col>97</xdr:col>
       <xdr:colOff>54430</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>32097</xdr:rowOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>60672</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>104</xdr:col>
       <xdr:colOff>54430</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>68037</xdr:rowOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>96612</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="128" name="フローチャート : 代替処理 127"/>
+        <xdr:cNvPr id="128" name="フローチャート : 代替処理 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000080000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="19716751" y="10373526"/>
-          <a:ext cx="1428750" cy="566618"/>
+          <a:off x="19323505" y="10452447"/>
+          <a:ext cx="1400175" cy="550290"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -14510,7 +15074,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -14745,24 +15308,30 @@
     <xdr:from>
       <xdr:col>94</xdr:col>
       <xdr:colOff>31977</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>18489</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>28014</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>100</xdr:col>
       <xdr:colOff>31977</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>18490</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>28015</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="129" name="メモ 128"/>
+        <xdr:cNvPr id="129" name="メモ 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000081000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="18495823" y="8737527"/>
-          <a:ext cx="1186962" cy="505559"/>
+          <a:off x="18700977" y="9391089"/>
+          <a:ext cx="1200150" cy="514351"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst/>
@@ -14778,7 +15347,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -15004,7 +15572,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="130" name="メモ 129"/>
+        <xdr:cNvPr id="130" name="メモ 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000082000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -15029,7 +15603,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -15246,7 +15819,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="131" name="直線矢印コネクタ 130"/>
+        <xdr:cNvPr id="131" name="直線矢印コネクタ 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000083000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="130" idx="2"/>
           <a:endCxn id="329" idx="0"/>
@@ -15288,28 +15867,34 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>100</xdr:col>
-      <xdr:colOff>100013</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>90489</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>100</xdr:col>
-      <xdr:colOff>100014</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>100013</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="133" name="直線矢印コネクタ 132"/>
+        <xdr:cNvPr id="133" name="直線矢印コネクタ 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000085000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="121" idx="2"/>
           <a:endCxn id="126" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="19769138" y="5524500"/>
-          <a:ext cx="1" cy="171450"/>
+        <a:xfrm>
+          <a:off x="19959639" y="6619876"/>
+          <a:ext cx="9524" cy="219074"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -15343,18 +15928,24 @@
     <xdr:from>
       <xdr:col>100</xdr:col>
       <xdr:colOff>100013</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>100</xdr:col>
       <xdr:colOff>100013</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="134" name="直線矢印コネクタ 133"/>
+        <xdr:cNvPr id="134" name="直線矢印コネクタ 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000086000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="126" idx="2"/>
           <a:endCxn id="125" idx="0"/>
@@ -15362,8 +15953,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19769138" y="6553200"/>
-          <a:ext cx="0" cy="171450"/>
+          <a:off x="19969163" y="7524750"/>
+          <a:ext cx="0" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -15396,19 +15987,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>100</xdr:col>
-      <xdr:colOff>151039</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>35378</xdr:rowOff>
+      <xdr:colOff>148998</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>44903</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>100</xdr:col>
-      <xdr:colOff>156483</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>32097</xdr:rowOff>
+      <xdr:colOff>154443</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>60672</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="136" name="直線矢印コネクタ 135"/>
+        <xdr:cNvPr id="136" name="直線矢印コネクタ 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000088000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="349" idx="2"/>
           <a:endCxn id="128" idx="0"/>
@@ -15416,8 +16013,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20425682" y="9846128"/>
-          <a:ext cx="5444" cy="527398"/>
+          <a:off x="20018148" y="10093778"/>
+          <a:ext cx="5445" cy="358669"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -15462,7 +16059,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="138" name="直線矢印コネクタ 137"/>
+        <xdr:cNvPr id="138" name="直線矢印コネクタ 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="165" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -15517,7 +16120,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="140" name="正方形/長方形 139"/>
+        <xdr:cNvPr id="140" name="正方形/長方形 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00008C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15593,7 +16202,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="151" name="メモ 150"/>
+        <xdr:cNvPr id="151" name="メモ 150">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000097000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -15617,7 +16232,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -15834,7 +16448,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="157" name="正方形/長方形 156"/>
+        <xdr:cNvPr id="157" name="正方形/長方形 156">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -15926,7 +16546,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="159" name="直線矢印コネクタ 158"/>
+        <xdr:cNvPr id="159" name="直線矢印コネクタ 158">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="189" idx="3"/>
           <a:endCxn id="52" idx="1"/>
@@ -15982,7 +16608,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="160" name="直線矢印コネクタ 159"/>
+        <xdr:cNvPr id="160" name="直線矢印コネクタ 159">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="542" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -16037,7 +16669,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="163" name="正方形/長方形 162"/>
+        <xdr:cNvPr id="163" name="正方形/長方形 162">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A3000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16116,7 +16754,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="164" name="図 163"/>
+        <xdr:cNvPr id="164" name="図 163">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A4000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -16160,7 +16804,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="166" name="直線矢印コネクタ 165"/>
+        <xdr:cNvPr id="166" name="直線矢印コネクタ 165">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A6000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="83" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -16215,7 +16865,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="167" name="直線矢印コネクタ 166"/>
+        <xdr:cNvPr id="167" name="直線矢印コネクタ 166">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A7000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="140" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -16270,7 +16926,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="168" name="直線矢印コネクタ 167"/>
+        <xdr:cNvPr id="168" name="直線矢印コネクタ 167">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A8000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -16323,7 +16985,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="169" name="直線矢印コネクタ 168"/>
+        <xdr:cNvPr id="169" name="直線矢印コネクタ 168">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A9000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="33" idx="2"/>
           <a:endCxn id="140" idx="0"/>
@@ -16379,7 +17047,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="173" name="Rectangle 38"/>
+        <xdr:cNvPr id="173" name="Rectangle 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000AD000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -16636,7 +17310,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="183" name="フローチャート : カード 20"/>
+        <xdr:cNvPr id="183" name="フローチャート : カード 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B7000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -16692,7 +17372,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="184" name="図 183"/>
+        <xdr:cNvPr id="184" name="図 183">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B8000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -16755,7 +17441,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="185" name="メモ 184"/>
+        <xdr:cNvPr id="185" name="メモ 184">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B9000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -16776,7 +17468,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -17018,7 +17709,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="186" name="直線矢印コネクタ 185"/>
+        <xdr:cNvPr id="186" name="直線矢印コネクタ 185">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BA000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="18" idx="2"/>
           <a:endCxn id="183" idx="0"/>
@@ -17072,7 +17769,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="189" name="メモ 188"/>
+        <xdr:cNvPr id="189" name="メモ 188">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BD000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -17098,7 +17801,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -17340,7 +18042,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="191" name="メモ 190"/>
+        <xdr:cNvPr id="191" name="メモ 190">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BF000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -17365,7 +18073,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -17582,7 +18289,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="192" name="直線矢印コネクタ 191"/>
+        <xdr:cNvPr id="192" name="直線矢印コネクタ 191">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="322" idx="2"/>
           <a:endCxn id="165" idx="0"/>
@@ -17636,7 +18349,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="222" name="メモ 221"/>
+        <xdr:cNvPr id="222" name="メモ 221">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000DE000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -17662,7 +18381,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -17881,7 +18599,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="223" name="メモ 222"/>
+        <xdr:cNvPr id="223" name="メモ 222">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000DF000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -17907,7 +18631,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -18126,7 +18849,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="224" name="メモ 223"/>
+        <xdr:cNvPr id="224" name="メモ 223">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000E0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -18152,7 +18881,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -18371,7 +19099,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="225" name="フローチャート: 処理 224"/>
+        <xdr:cNvPr id="225" name="フローチャート: 処理 224">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000E1000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -18440,7 +19174,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="227" name="フローチャート: 処理 226"/>
+        <xdr:cNvPr id="227" name="フローチャート: 処理 226">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000E3000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -18509,7 +19249,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="233" name="フローチャート : 代替処理 232"/>
+        <xdr:cNvPr id="233" name="フローチャート : 代替処理 232">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000E9000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -18527,7 +19273,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -18817,7 +19562,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="234" name="直線矢印コネクタ 233"/>
+        <xdr:cNvPr id="234" name="直線矢印コネクタ 233">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000EA000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="233" idx="3"/>
           <a:endCxn id="189" idx="1"/>
@@ -18873,7 +19624,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="237" name="フローチャート : 代替処理 236"/>
+        <xdr:cNvPr id="237" name="フローチャート : 代替処理 236">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000ED000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -18891,7 +19648,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -19181,7 +19937,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="238" name="メモ 237"/>
+        <xdr:cNvPr id="238" name="メモ 237">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000EE000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -19202,7 +19964,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -19449,7 +20210,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="239" name="メモ 238"/>
+        <xdr:cNvPr id="239" name="メモ 238">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000EF000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -19470,7 +20237,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -19717,7 +20483,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="240" name="フローチャート: 処理 239"/>
+        <xdr:cNvPr id="240" name="フローチャート: 処理 239">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000F0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -19775,24 +20547,30 @@
     <xdr:from>
       <xdr:col>97</xdr:col>
       <xdr:colOff>154441</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>54430</xdr:rowOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>92530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>103</xdr:col>
       <xdr:colOff>154441</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>54430</xdr:rowOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>92530</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="259" name="メモ 258"/>
+        <xdr:cNvPr id="259" name="メモ 258">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="19816762" y="11457216"/>
-          <a:ext cx="1224643" cy="530678"/>
+          <a:off x="19423516" y="11341555"/>
+          <a:ext cx="1200150" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst/>
@@ -19812,7 +20590,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -20055,18 +20832,24 @@
     <xdr:from>
       <xdr:col>100</xdr:col>
       <xdr:colOff>154441</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>68037</xdr:rowOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>96612</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>100</xdr:col>
-      <xdr:colOff>156483</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>54430</xdr:rowOff>
+      <xdr:colOff>154443</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>92530</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="260" name="直線矢印コネクタ 259"/>
+        <xdr:cNvPr id="260" name="直線矢印コネクタ 259">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="128" idx="2"/>
           <a:endCxn id="259" idx="0"/>
@@ -20074,8 +20857,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="20429084" y="10940144"/>
-          <a:ext cx="2042" cy="517072"/>
+          <a:off x="20023591" y="11002737"/>
+          <a:ext cx="2" cy="338818"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -20120,7 +20903,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="261" name="メモ 260"/>
+        <xdr:cNvPr id="261" name="メモ 260">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -20141,7 +20930,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -20383,7 +21171,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="263" name="カギ線コネクタ 262"/>
+        <xdr:cNvPr id="263" name="カギ線コネクタ 262">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="330" idx="3"/>
           <a:endCxn id="185" idx="1"/>
@@ -20408,7 +21202,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -20442,7 +21235,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="264" name="正方形/長方形 263"/>
+        <xdr:cNvPr id="264" name="正方形/長方形 263">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -20508,7 +21307,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="265" name="メモ 264"/>
+        <xdr:cNvPr id="265" name="メモ 264">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -20529,7 +21334,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -20748,7 +21552,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="329" name="フローチャート: 処理 328"/>
+        <xdr:cNvPr id="329" name="フローチャート: 処理 328">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000049010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -20817,7 +21627,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="281" name="メモ 280"/>
+        <xdr:cNvPr id="281" name="メモ 280">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000019010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -20838,7 +21654,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -21122,7 +21937,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="282" name="メモ 281"/>
+        <xdr:cNvPr id="282" name="メモ 281">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001A010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -21143,7 +21964,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -21362,7 +22182,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="283" name="フローチャート : 代替処理 282"/>
+        <xdr:cNvPr id="283" name="フローチャート : 代替処理 282">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001B010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -21380,7 +22206,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -21709,7 +22534,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="286" name="直線矢印コネクタ 285"/>
+        <xdr:cNvPr id="286" name="直線矢印コネクタ 285">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="283" idx="3"/>
           <a:endCxn id="377" idx="1"/>
@@ -21763,7 +22594,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="165" name="フローチャート : 代替処理 164"/>
+        <xdr:cNvPr id="165" name="フローチャート : 代替処理 164">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A5000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -21781,7 +22618,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -22027,7 +22863,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="352" name="直線矢印コネクタ 351"/>
+        <xdr:cNvPr id="352" name="直線矢印コネクタ 351">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000060010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="377" idx="3"/>
           <a:endCxn id="165" idx="1"/>
@@ -22081,7 +22923,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="401" name="直線矢印コネクタ 400"/>
+        <xdr:cNvPr id="401" name="直線矢印コネクタ 400">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000091010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="237" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -22136,7 +22984,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="405" name="下矢印 404"/>
+        <xdr:cNvPr id="405" name="下矢印 404">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000095010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -22226,7 +23080,13 @@
     <xdr:ext cx="1400175" cy="492443"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="413" name="正方形/長方形 412"/>
+        <xdr:cNvPr id="413" name="正方形/長方形 412">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00009D010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -22318,7 +23178,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="271" name="フローチャート : 代替処理 270"/>
+        <xdr:cNvPr id="271" name="フローチャート : 代替処理 270">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -22336,7 +23202,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -22626,7 +23491,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="272" name="メモ 271"/>
+        <xdr:cNvPr id="272" name="メモ 271">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -22647,7 +23518,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -22873,7 +23743,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="273" name="直線矢印コネクタ 272"/>
+        <xdr:cNvPr id="273" name="直線矢印コネクタ 272">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="271" idx="3"/>
           <a:endCxn id="272" idx="1"/>
@@ -22927,7 +23803,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="248" name="メモ 247"/>
+        <xdr:cNvPr id="248" name="メモ 247">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000F8000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -22948,7 +23830,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -23209,7 +24090,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="252" name="メモ 251"/>
+        <xdr:cNvPr id="252" name="メモ 251">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000FC000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -23234,7 +24121,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -23451,7 +24337,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="253" name="フローチャート: 処理 252"/>
+        <xdr:cNvPr id="253" name="フローチャート: 処理 252">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000FD000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -23520,7 +24412,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="270" name="メモ 269"/>
+        <xdr:cNvPr id="270" name="メモ 269">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -23545,7 +24443,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -23762,7 +24659,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="203" name="フローチャート: 処理 202"/>
+        <xdr:cNvPr id="203" name="フローチャート: 処理 202">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000CB000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -23833,7 +24736,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="204" name="メモ 203"/>
+        <xdr:cNvPr id="204" name="メモ 203">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000CC000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -23859,7 +24768,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -24075,7 +24983,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="205" name="Rectangle 38"/>
+        <xdr:cNvPr id="205" name="Rectangle 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000CD000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -24339,7 +25253,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="206" name="メモ 205"/>
+        <xdr:cNvPr id="206" name="メモ 205">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000CE000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -24363,7 +25283,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -24577,7 +25496,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="207" name="Rectangle 38"/>
+        <xdr:cNvPr id="207" name="Rectangle 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000CF000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -24892,7 +25817,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="208" name="フローチャート: 処理 207"/>
+        <xdr:cNvPr id="208" name="フローチャート: 処理 207">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -24964,7 +25895,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="209" name="フローチャート : 代替処理 208"/>
+        <xdr:cNvPr id="209" name="フローチャート : 代替処理 208">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D1000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -24982,7 +25919,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -25215,7 +26151,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="210" name="Rectangle 38"/>
+        <xdr:cNvPr id="210" name="Rectangle 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D2000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -25479,7 +26421,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="211" name="正方形/長方形 210"/>
+        <xdr:cNvPr id="211" name="正方形/長方形 210">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D3000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -25536,7 +26484,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="212" name="Rectangle 38"/>
+        <xdr:cNvPr id="212" name="Rectangle 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D4000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -25800,7 +26754,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="213" name="フローチャート : カード 20"/>
+        <xdr:cNvPr id="213" name="フローチャート : カード 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D5000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -25856,7 +26816,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="214" name="Rectangle 38"/>
+        <xdr:cNvPr id="214" name="Rectangle 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D6000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -26120,7 +27086,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="215" name="Picture 103" descr="MC900432614"/>
+        <xdr:cNvPr id="215" name="Picture 103" descr="MC900432614">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D7000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -26175,7 +27147,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="216" name="直線矢印コネクタ 215"/>
+        <xdr:cNvPr id="216" name="直線矢印コネクタ 215">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D8000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -26228,7 +27206,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="217" name="直線矢印コネクタ 216"/>
+        <xdr:cNvPr id="217" name="直線矢印コネクタ 216">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D9000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -26281,7 +27265,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="218" name="Rectangle 38"/>
+        <xdr:cNvPr id="218" name="Rectangle 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000DA000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -26545,7 +27535,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="219" name="Rectangle 38"/>
+        <xdr:cNvPr id="219" name="Rectangle 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000DB000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -26809,7 +27805,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="244" name="直線矢印コネクタ 243"/>
+        <xdr:cNvPr id="244" name="直線矢印コネクタ 243">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000F4000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -26864,7 +27866,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="245" name="Rectangle 38"/>
+        <xdr:cNvPr id="245" name="Rectangle 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000F5000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -27128,7 +28136,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="275" name="メモ 274"/>
+        <xdr:cNvPr id="275" name="メモ 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -27150,7 +28164,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -27366,7 +28379,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="276" name="Rectangle 38"/>
+        <xdr:cNvPr id="276" name="Rectangle 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -27630,7 +28649,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="277" name="メモ 276"/>
+        <xdr:cNvPr id="277" name="メモ 276">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -27655,7 +28680,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -27869,7 +28893,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="278" name="Rectangle 38"/>
+        <xdr:cNvPr id="278" name="Rectangle 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000016010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -28153,7 +29183,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="289" name="メモ 288"/>
+        <xdr:cNvPr id="289" name="メモ 288">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000021010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -28174,7 +29210,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -28393,7 +29428,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="290" name="メモ 289"/>
+        <xdr:cNvPr id="290" name="メモ 289">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000022010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -28414,7 +29455,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -28656,7 +29696,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="293" name="正方形/長方形 292"/>
+        <xdr:cNvPr id="293" name="正方形/長方形 292">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000025010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -28735,7 +29781,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="304" name="直線矢印コネクタ 303"/>
+        <xdr:cNvPr id="304" name="直線矢印コネクタ 303">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000030010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="152" idx="2"/>
           <a:endCxn id="227" idx="0"/>
@@ -28791,20 +29843,32 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="384" name="グループ化 383"/>
+        <xdr:cNvPr id="384" name="グループ化 383">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000080010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11963399" y="12296774"/>
-          <a:ext cx="517620" cy="335618"/>
+          <a:off x="12108655" y="11984830"/>
+          <a:ext cx="524764" cy="326093"/>
           <a:chOff x="6686550" y="13626923"/>
           <a:chExt cx="517620" cy="335618"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="385" name="図 384"/>
+          <xdr:cNvPr id="385" name="図 384">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000081010000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -28833,7 +29897,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="386" name="Rectangle 38"/>
+          <xdr:cNvPr id="386" name="Rectangle 38">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000082010000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -29091,7 +30161,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="515" name="フローチャート: 処理 514"/>
+        <xdr:cNvPr id="515" name="フローチャート: 処理 514">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -29160,7 +30236,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="516" name="直線矢印コネクタ 515"/>
+        <xdr:cNvPr id="516" name="直線矢印コネクタ 515">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="38" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -29215,7 +30297,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="542" name="フローチャート : 代替処理 541"/>
+        <xdr:cNvPr id="542" name="フローチャート : 代替処理 541">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -29233,7 +30321,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -29479,7 +30566,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="552" name="フローチャート: 処理 551"/>
+        <xdr:cNvPr id="552" name="フローチャート: 処理 551">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000028020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -29550,7 +30643,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="553" name="直線矢印コネクタ 552"/>
+        <xdr:cNvPr id="553" name="直線矢印コネクタ 552">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000029020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -29603,7 +30702,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="589" name="カギ線コネクタ 588"/>
+        <xdr:cNvPr id="589" name="カギ線コネクタ 588">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004D020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="223" idx="3"/>
           <a:endCxn id="157" idx="2"/>
@@ -29628,7 +30733,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="stealth" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -29662,7 +30766,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="592" name="カギ線コネクタ 591"/>
+        <xdr:cNvPr id="592" name="カギ線コネクタ 591">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000050020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="222" idx="3"/>
           <a:endCxn id="30" idx="1"/>
@@ -29689,7 +30799,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="stealth" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -29723,7 +30832,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="602" name="直線矢印コネクタ 601"/>
+        <xdr:cNvPr id="602" name="直線矢印コネクタ 601">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005A020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -29776,7 +30891,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="617" name="直線矢印コネクタ 616"/>
+        <xdr:cNvPr id="617" name="直線矢印コネクタ 616">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000069020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="284" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -29831,7 +30952,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="659" name="メモ 658"/>
+        <xdr:cNvPr id="659" name="メモ 658">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000093020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -29853,7 +30980,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -30072,7 +31198,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="689" name="メモ 688"/>
+        <xdr:cNvPr id="689" name="メモ 688">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B1020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -30093,7 +31225,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -30334,7 +31465,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="690" name="フローチャート : 代替処理 689"/>
+        <xdr:cNvPr id="690" name="フローチャート : 代替処理 689">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B2020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -30352,7 +31489,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -30598,7 +31734,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="691" name="直線矢印コネクタ 690"/>
+        <xdr:cNvPr id="691" name="直線矢印コネクタ 690">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000B3020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="690" idx="3"/>
           <a:endCxn id="689" idx="1"/>
@@ -30654,7 +31796,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="698" name="正方形/長方形 697"/>
+        <xdr:cNvPr id="698" name="正方形/長方形 697">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BA020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -30721,7 +31869,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="702" name="正方形/長方形 701"/>
+        <xdr:cNvPr id="702" name="正方形/長方形 701">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000BE020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -30788,7 +31942,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="713" name="フローチャート : 代替処理 712"/>
+        <xdr:cNvPr id="713" name="フローチャート : 代替処理 712">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000C9020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -30806,7 +31966,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -31052,7 +32211,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="714" name="直線矢印コネクタ 713"/>
+        <xdr:cNvPr id="714" name="直線矢印コネクタ 713">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000CA020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="279" idx="3"/>
           <a:endCxn id="270" idx="1"/>
@@ -31108,7 +32273,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="728" name="カギ線コネクタ 727"/>
+        <xdr:cNvPr id="728" name="カギ線コネクタ 727">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000D8020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="225" idx="0"/>
           <a:endCxn id="515" idx="1"/>
@@ -31133,7 +32304,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="stealth" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -31167,7 +32337,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="731" name="直線矢印コネクタ 730"/>
+        <xdr:cNvPr id="731" name="直線矢印コネクタ 730">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000DB020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="152" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -31222,7 +32398,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="864" name="直線矢印コネクタ 863"/>
+        <xdr:cNvPr id="864" name="直線矢印コネクタ 863">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000060030000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="279" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -31277,7 +32459,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="877" name="フローチャート : 代替処理 876"/>
+        <xdr:cNvPr id="877" name="フローチャート : 代替処理 876">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006D030000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -31295,7 +32483,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -31541,7 +32728,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="878" name="直線矢印コネクタ 877"/>
+        <xdr:cNvPr id="878" name="直線矢印コネクタ 877">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006E030000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="877" idx="2"/>
           <a:endCxn id="17" idx="0"/>
@@ -31599,7 +32792,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="897" name="直線矢印コネクタ 896"/>
+        <xdr:cNvPr id="897" name="直線矢印コネクタ 896">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000081030000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="93" idx="3"/>
           <a:endCxn id="95" idx="1"/>
@@ -31653,7 +32852,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="930" name="下矢印 929"/>
+        <xdr:cNvPr id="930" name="下矢印 929">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A2030000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -31743,7 +32948,13 @@
     <xdr:ext cx="1400175" cy="492443"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="931" name="正方形/長方形 930"/>
+        <xdr:cNvPr id="931" name="正方形/長方形 930">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A3030000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -31835,7 +33046,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="932" name="下矢印 931"/>
+        <xdr:cNvPr id="932" name="下矢印 931">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A4030000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -31925,7 +33142,13 @@
     <xdr:ext cx="1400175" cy="492443"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="933" name="正方形/長方形 932"/>
+        <xdr:cNvPr id="933" name="正方形/長方形 932">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A5030000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -32017,7 +33240,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="934" name="上矢印 933"/>
+        <xdr:cNvPr id="934" name="上矢印 933">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A6030000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -32107,7 +33336,13 @@
     <xdr:ext cx="1400175" cy="492443"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="935" name="正方形/長方形 934"/>
+        <xdr:cNvPr id="935" name="正方形/長方形 934">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A7030000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -32199,7 +33434,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="936" name="下矢印 935"/>
+        <xdr:cNvPr id="936" name="下矢印 935">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A8030000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -32289,7 +33530,13 @@
     <xdr:ext cx="1400175" cy="492443"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="937" name="正方形/長方形 936"/>
+        <xdr:cNvPr id="937" name="正方形/長方形 936">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000A9030000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -32381,7 +33628,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="990" name="直線矢印コネクタ 989"/>
+        <xdr:cNvPr id="990" name="直線矢印コネクタ 989">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000DE030000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -32434,7 +33687,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="994" name="直線矢印コネクタ 993"/>
+        <xdr:cNvPr id="994" name="直線矢印コネクタ 993">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000E2030000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -32487,7 +33746,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="1044" name="直線矢印コネクタ 1043"/>
+        <xdr:cNvPr id="1044" name="直線矢印コネクタ 1043">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="689" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -32540,7 +33805,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="1053" name="直線矢印コネクタ 1052"/>
+        <xdr:cNvPr id="1053" name="直線矢印コネクタ 1052">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="33" idx="0"/>
           <a:endCxn id="83" idx="2"/>
@@ -32596,7 +33867,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1078" name="正方形/長方形 1077"/>
+        <xdr:cNvPr id="1078" name="正方形/長方形 1077">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000036040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -32663,7 +33940,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1079" name="正方形/長方形 1078"/>
+        <xdr:cNvPr id="1079" name="正方形/長方形 1078">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000037040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -32730,7 +34013,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1085" name="正方形/長方形 1084"/>
+        <xdr:cNvPr id="1085" name="正方形/長方形 1084">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003D040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -32797,7 +34086,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="262" name="フローチャート: 処理 261"/>
+        <xdr:cNvPr id="262" name="フローチャート: 処理 261">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -32866,7 +34161,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="266" name="正方形/長方形 265"/>
+        <xdr:cNvPr id="266" name="正方形/長方形 265">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -32953,7 +34254,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="カギ線コネクタ 9"/>
+        <xdr:cNvPr id="10" name="カギ線コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="152" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -33005,7 +34312,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="267" name="正方形/長方形 266"/>
+        <xdr:cNvPr id="267" name="正方形/長方形 266">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -33072,7 +34385,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="279" name="正方形/長方形 278"/>
+        <xdr:cNvPr id="279" name="正方形/長方形 278">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000017010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -33139,7 +34458,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="280" name="正方形/長方形 279"/>
+        <xdr:cNvPr id="280" name="正方形/長方形 279">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000018010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -33206,7 +34531,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="284" name="正方形/長方形 283"/>
+        <xdr:cNvPr id="284" name="正方形/長方形 283">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -33273,7 +34604,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="285" name="正方形/長方形 284"/>
+        <xdr:cNvPr id="285" name="正方形/長方形 284">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -33340,7 +34677,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="287" name="正方形/長方形 286"/>
+        <xdr:cNvPr id="287" name="正方形/長方形 286">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -33407,7 +34750,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="288" name="カギ線コネクタ 287"/>
+        <xdr:cNvPr id="288" name="カギ線コネクタ 287">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000020010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="267" idx="3"/>
           <a:endCxn id="253" idx="0"/>
@@ -33460,7 +34809,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="292" name="カギ線コネクタ 291"/>
+        <xdr:cNvPr id="292" name="カギ線コネクタ 291">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000024010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="227" idx="3"/>
           <a:endCxn id="280" idx="1"/>
@@ -33513,7 +34868,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="294" name="カギ線コネクタ 293"/>
+        <xdr:cNvPr id="294" name="カギ線コネクタ 293">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000026010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="280" idx="2"/>
         </xdr:cNvCxnSpPr>
@@ -33565,7 +34926,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="297" name="カギ線コネクタ 296"/>
+        <xdr:cNvPr id="297" name="カギ線コネクタ 296">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000029010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="253" idx="2"/>
           <a:endCxn id="328" idx="0"/>
@@ -33620,7 +34987,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="302" name="正方形/長方形 301"/>
+        <xdr:cNvPr id="302" name="正方形/長方形 301">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002E010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -33687,7 +35060,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="303" name="正方形/長方形 302"/>
+        <xdr:cNvPr id="303" name="正方形/長方形 302">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002F010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -33754,7 +35133,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="291" name="カギ線コネクタ 290"/>
+        <xdr:cNvPr id="291" name="カギ線コネクタ 290">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000023010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="877" idx="3"/>
           <a:endCxn id="47" idx="1"/>
@@ -33809,7 +35194,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="299" name="正方形/長方形 298"/>
+        <xdr:cNvPr id="299" name="正方形/長方形 298">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002B010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -33876,7 +35267,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="300" name="正方形/長方形 299"/>
+        <xdr:cNvPr id="300" name="正方形/長方形 299">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002C010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -33943,7 +35340,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="306" name="正方形/長方形 305"/>
+        <xdr:cNvPr id="306" name="正方形/長方形 305">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000032010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -34010,7 +35413,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="307" name="カギ線コネクタ 306"/>
+        <xdr:cNvPr id="307" name="カギ線コネクタ 306">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000033010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="74" idx="3"/>
           <a:endCxn id="290" idx="1"/>
@@ -34065,7 +35474,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="308" name="カギ線コネクタ 307"/>
+        <xdr:cNvPr id="308" name="カギ線コネクタ 307">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000034010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="225" idx="2"/>
           <a:endCxn id="233" idx="1"/>
@@ -34118,7 +35533,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="309" name="正方形/長方形 308"/>
+        <xdr:cNvPr id="309" name="正方形/長方形 308">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000035010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -34185,7 +35606,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="310" name="正方形/長方形 309"/>
+        <xdr:cNvPr id="310" name="正方形/長方形 309">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000036010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -34252,7 +35679,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="311" name="正方形/長方形 310"/>
+        <xdr:cNvPr id="311" name="正方形/長方形 310">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000037010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -34319,7 +35752,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="312" name="正方形/長方形 311"/>
+        <xdr:cNvPr id="312" name="正方形/長方形 311">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000038010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -34386,7 +35825,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="313" name="カギ線コネクタ 312"/>
+        <xdr:cNvPr id="313" name="カギ線コネクタ 312">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000039010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="311" idx="3"/>
           <a:endCxn id="49" idx="1"/>
@@ -34411,7 +35856,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -34445,7 +35889,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="314" name="直線矢印コネクタ 313"/>
+        <xdr:cNvPr id="314" name="直線矢印コネクタ 313">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003A010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="312" idx="3"/>
           <a:endCxn id="19" idx="2"/>
@@ -34499,7 +35949,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="315" name="カギ線コネクタ 314"/>
+        <xdr:cNvPr id="315" name="カギ線コネクタ 314">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003B010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="53" idx="3"/>
           <a:endCxn id="102" idx="1"/>
@@ -34524,7 +35980,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -34558,7 +36013,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="330" name="正方形/長方形 329"/>
+        <xdr:cNvPr id="330" name="正方形/長方形 329">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004A010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -34625,7 +36086,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="331" name="正方形/長方形 330"/>
+        <xdr:cNvPr id="331" name="正方形/長方形 330">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004B010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -34692,7 +36159,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="333" name="直線矢印コネクタ 332"/>
+        <xdr:cNvPr id="333" name="直線矢印コネクタ 332">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004D010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="331" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -34745,7 +36218,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="337" name="カギ線コネクタ 336"/>
+        <xdr:cNvPr id="337" name="カギ線コネクタ 336">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000051010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -34797,7 +36276,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="343" name="正方形/長方形 342"/>
+        <xdr:cNvPr id="343" name="正方形/長方形 342">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000057010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -34864,7 +36349,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="298" name="メモ 297"/>
+        <xdr:cNvPr id="298" name="メモ 297">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002A010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -34885,7 +36376,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -35101,7 +36591,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="301" name="Rectangle 38"/>
+        <xdr:cNvPr id="301" name="Rectangle 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002D010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -35416,7 +36912,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="316" name="フローチャート: 処理 315"/>
+        <xdr:cNvPr id="316" name="フローチャート: 処理 315">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003C010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -35485,7 +36987,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="317" name="メモ 316"/>
+        <xdr:cNvPr id="317" name="メモ 316">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003D010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -35506,7 +37014,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -35747,7 +37254,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="318" name="メモ 317"/>
+        <xdr:cNvPr id="318" name="メモ 317">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003E010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -35768,7 +37281,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -36009,7 +37521,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="319" name="メモ 318"/>
+        <xdr:cNvPr id="319" name="メモ 318">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00003F010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -36030,7 +37548,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -36249,7 +37766,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="320" name="カギ線コネクタ 319"/>
+        <xdr:cNvPr id="320" name="カギ線コネクタ 319">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000040010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="222" idx="3"/>
           <a:endCxn id="319" idx="1"/>
@@ -36276,7 +37799,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="stealth" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -36310,7 +37832,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="321" name="メモ 320"/>
+        <xdr:cNvPr id="321" name="メモ 320">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000041010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -36336,7 +37864,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -36555,7 +38082,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="322" name="フローチャート: 処理 321"/>
+        <xdr:cNvPr id="322" name="フローチャート: 処理 321">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000042010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -36624,7 +38157,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="332" name="メモ 331"/>
+        <xdr:cNvPr id="332" name="メモ 331">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004C010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -36645,7 +38184,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -36864,7 +38402,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="334" name="フローチャート: 処理 333"/>
+        <xdr:cNvPr id="334" name="フローチャート: 処理 333">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004E010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -36933,7 +38477,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="361" name="正方形/長方形 360"/>
+        <xdr:cNvPr id="361" name="正方形/長方形 360">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000069010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -37009,7 +38559,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="367" name="直線矢印コネクタ 366"/>
+        <xdr:cNvPr id="367" name="直線矢印コネクタ 366">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00006F010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="361" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -37066,7 +38622,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="372" name="直線矢印コネクタ 371"/>
+        <xdr:cNvPr id="372" name="直線矢印コネクタ 371">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000074010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="293" idx="3"/>
         </xdr:cNvCxnSpPr>
@@ -37121,7 +38683,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="377" name="正方形/長方形 376"/>
+        <xdr:cNvPr id="377" name="正方形/長方形 376">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000079010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -37205,7 +38773,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="387" name="直線矢印コネクタ 386"/>
+        <xdr:cNvPr id="387" name="直線矢印コネクタ 386">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000083010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="42" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -37260,7 +38834,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="323" name="正方形/長方形 322"/>
+        <xdr:cNvPr id="323" name="正方形/長方形 322">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000043010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -37341,7 +38921,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="324" name="フローチャート : 代替処理 323"/>
+        <xdr:cNvPr id="324" name="フローチャート : 代替処理 323">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000044010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -37359,7 +38945,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -37649,7 +39234,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="325" name="メモ 324"/>
+        <xdr:cNvPr id="325" name="メモ 324">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000045010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -37675,7 +39266,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -37894,7 +39484,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="326" name="直線矢印コネクタ 325"/>
+        <xdr:cNvPr id="326" name="直線矢印コネクタ 325">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000046010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="324" idx="3"/>
           <a:endCxn id="327" idx="1"/>
@@ -37950,7 +39546,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="327" name="フローチャート: 処理 326"/>
+        <xdr:cNvPr id="327" name="フローチャート: 処理 326">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000047010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -38019,7 +39621,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="328" name="フローチャート: 処理 327"/>
+        <xdr:cNvPr id="328" name="フローチャート: 処理 327">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000048010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -38088,7 +39696,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="335" name="メモ 334"/>
+        <xdr:cNvPr id="335" name="メモ 334">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00004F010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -38114,7 +39728,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -38343,7 +39956,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="336" name="フローチャート: 処理 335"/>
+        <xdr:cNvPr id="336" name="フローチャート: 処理 335">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000050010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -38412,7 +40031,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="340" name="正方形/長方形 339"/>
+        <xdr:cNvPr id="340" name="正方形/長方形 339">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000054010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -38477,7 +40102,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="341" name="正方形/長方形 340"/>
+        <xdr:cNvPr id="341" name="正方形/長方形 340">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000055010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -38542,7 +40173,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="342" name="フローチャート : カード 20"/>
+        <xdr:cNvPr id="342" name="フローチャート : カード 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000056010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -38606,7 +40243,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="346" name="カギ線コネクタ 345"/>
+        <xdr:cNvPr id="346" name="カギ線コネクタ 345">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005A010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="342" idx="2"/>
           <a:endCxn id="53" idx="0"/>
@@ -38631,7 +40274,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -38665,7 +40307,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="347" name="直線矢印コネクタ 346"/>
+        <xdr:cNvPr id="347" name="直線矢印コネクタ 346">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005B010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="47" idx="2"/>
           <a:endCxn id="342" idx="0"/>
@@ -38723,7 +40371,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="345" name="直線矢印コネクタ 343"/>
+        <xdr:cNvPr id="345" name="直線矢印コネクタ 343">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000059010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="17" idx="2"/>
           <a:endCxn id="74" idx="0"/>
@@ -38770,24 +40424,30 @@
     <xdr:from>
       <xdr:col>101</xdr:col>
       <xdr:colOff>54429</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>58509</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>68034</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>107</xdr:col>
       <xdr:colOff>56109</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>14548</xdr:rowOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>24073</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="348" name="正方形/長方形 347"/>
+        <xdr:cNvPr id="348" name="正方形/長方形 347">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005C010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19903064" y="8777547"/>
-          <a:ext cx="1188641" cy="461597"/>
+          <a:off x="20123604" y="9431109"/>
+          <a:ext cx="1201830" cy="470389"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -38838,24 +40498,30 @@
     <xdr:from>
       <xdr:col>93</xdr:col>
       <xdr:colOff>48985</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>35378</xdr:rowOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>44903</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>108</xdr:col>
       <xdr:colOff>48985</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>35378</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>44903</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="349" name="フローチャート: 処理 348"/>
+        <xdr:cNvPr id="349" name="フローチャート: 処理 348">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005D010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18894878" y="8961664"/>
-          <a:ext cx="3061607" cy="884464"/>
+          <a:off x="18517960" y="9236528"/>
+          <a:ext cx="3000375" cy="857250"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -38918,7 +40584,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="305" name="カギ線コネクタ 337"/>
+        <xdr:cNvPr id="305" name="カギ線コネクタ 337">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000031010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="267" idx="2"/>
           <a:endCxn id="336" idx="0"/>
@@ -38971,7 +40643,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="339" name="カギ線コネクタ 338"/>
+        <xdr:cNvPr id="339" name="カギ線コネクタ 338">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000053010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -39021,7 +40699,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="344" name="直線矢印コネクタ 343"/>
+        <xdr:cNvPr id="344" name="直線矢印コネクタ 343">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000058010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -39074,7 +40758,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="350" name="直線矢印コネクタ 349"/>
+        <xdr:cNvPr id="350" name="直線矢印コネクタ 349">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00005E010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -39127,7 +40817,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="295" name="直線矢印コネクタ 294"/>
+        <xdr:cNvPr id="295" name="直線矢印コネクタ 294">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000027010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="353" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -39182,7 +40878,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="338" name="メモ 337"/>
+        <xdr:cNvPr id="338" name="メモ 337">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000052010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -39203,7 +40905,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -39497,7 +41198,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="353" name="フローチャート : 代替処理 352"/>
+        <xdr:cNvPr id="353" name="フローチャート : 代替処理 352">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000061010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -39515,7 +41222,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="0">
@@ -39774,7 +41480,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="354" name="フローチャート: 処理 353"/>
+        <xdr:cNvPr id="354" name="フローチャート: 処理 353">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000062010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -39843,7 +41555,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="355" name="直線矢印コネクタ 354"/>
+        <xdr:cNvPr id="355" name="直線矢印コネクタ 354">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000063010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -39896,7 +41614,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="540" name="メモ 539"/>
+        <xdr:cNvPr id="540" name="メモ 539">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -39917,7 +41641,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -40201,7 +41924,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="541" name="メモ 540"/>
+        <xdr:cNvPr id="541" name="メモ 540">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D020000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -40222,7 +41951,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -40441,7 +42169,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="359" name="メモ 358"/>
+        <xdr:cNvPr id="359" name="メモ 358">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000067010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -40462,7 +42196,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -40716,7 +42449,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="360" name="直線矢印コネクタ 359"/>
+        <xdr:cNvPr id="360" name="直線矢印コネクタ 359">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000068010000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="328" idx="1"/>
         </xdr:cNvCxnSpPr>
@@ -40754,11 +42493,521 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>97</xdr:col>
+      <xdr:colOff>108177</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>56589</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>103</xdr:col>
+      <xdr:colOff>108177</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>56590</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="351" name="メモ 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19A8547B-CBE1-4C10-B1D8-E7677DF9E442}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="19377252" y="5304864"/>
+          <a:ext cx="1200150" cy="514351"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:prstDash val="dash"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="ja-JP"/>
+          </a:defPPr>
+          <a:lvl1pPr algn="r" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="639763" indent="-182563" algn="r" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="1279525" indent="-365125" algn="r" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1919288" indent="-547688" algn="r" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="2559050" indent="-730250" algn="r" rtl="0" fontAlgn="base">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="20000"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:schemeClr val="folHlink"/>
+            </a:buClr>
+            <a:buSzPct val="70000"/>
+            <a:buFont typeface="Wingdings" pitchFamily="2" charset="2"/>
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr kumimoji="1" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>単体テスト仕様書</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>94</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>106</xdr:col>
+      <xdr:colOff>69396</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="356" name="フローチャート: 処理 355">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F1E8B13-3521-47F8-9992-6E1F87E96734}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18783300" y="5226503"/>
+          <a:ext cx="2355396" cy="688522"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>100</xdr:col>
+      <xdr:colOff>90489</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>100</xdr:col>
+      <xdr:colOff>91848</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="357" name="直線矢印コネクタ 356">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E64A3BF6-712B-4404-ADF1-6157E614ADFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="356" idx="2"/>
+          <a:endCxn id="121" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="19959639" y="5915025"/>
+          <a:ext cx="1359" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>140493</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>140495</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>186388</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>28319</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="362" name="Picture 103" descr="MC900432614">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{791753E8-215D-4537-A4EC-A2607F8157DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9522618" y="13273089"/>
+          <a:ext cx="248301" cy="221199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>173830</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>90489</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>17318</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>145001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="363" name="Picture 103" descr="MC900432614">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E012A03F-0251-4129-B716-B90D1198D6AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6519861" y="12556333"/>
+          <a:ext cx="248301" cy="221199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -40800,7 +43049,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -40833,9 +43082,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -40868,6 +43134,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -41043,13 +43326,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S513"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -41091,7 +43374,7 @@
       <c r="G23" s="34"/>
       <c r="H23" s="34"/>
       <c r="J23" s="6" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -41105,7 +43388,7 @@
       <c r="H25" s="34"/>
       <c r="I25" s="45">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v>43677</v>
+        <v>44754</v>
       </c>
       <c r="J25" s="45"/>
       <c r="K25" s="45"/>
@@ -41691,7 +43974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -41707,55 +43990,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="90" t="s">
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="72" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="92"/>
-      <c r="S1" s="99" t="s">
-        <v>30</v>
-      </c>
-      <c r="T1" s="100"/>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100"/>
-      <c r="W1" s="100"/>
-      <c r="X1" s="100"/>
-      <c r="Y1" s="100"/>
-      <c r="Z1" s="101"/>
-      <c r="AA1" s="80" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB1" s="82"/>
-      <c r="AC1" s="108" t="str">
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="81" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="109"/>
-      <c r="AE1" s="109"/>
-      <c r="AF1" s="110"/>
-      <c r="AG1" s="73">
+      <c r="AD1" s="82"/>
+      <c r="AE1" s="82"/>
+      <c r="AF1" s="83"/>
+      <c r="AG1" s="46">
         <f>IF(D8="","",D8)</f>
         <v>43677</v>
       </c>
-      <c r="AH1" s="74"/>
-      <c r="AI1" s="75"/>
+      <c r="AH1" s="47"/>
+      <c r="AI1" s="48"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -41763,51 +44046,51 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="93"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="95"/>
-      <c r="S2" s="102"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="103"/>
-      <c r="Z2" s="104"/>
-      <c r="AA2" s="80" t="s">
-        <v>22</v>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="76"/>
+      <c r="U2" s="76"/>
+      <c r="V2" s="76"/>
+      <c r="W2" s="76"/>
+      <c r="X2" s="76"/>
+      <c r="Y2" s="76"/>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="53" t="s">
+        <v>21</v>
       </c>
-      <c r="AB2" s="82"/>
-      <c r="AC2" s="86" t="str">
+      <c r="AB2" s="55"/>
+      <c r="AC2" s="59" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
-        <v/>
+        <v>TIS</v>
       </c>
-      <c r="AD2" s="87"/>
-      <c r="AE2" s="87"/>
-      <c r="AF2" s="88"/>
-      <c r="AG2" s="73" t="str">
+      <c r="AD2" s="60"/>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="61"/>
+      <c r="AG2" s="46">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v/>
+        <v>44754</v>
       </c>
-      <c r="AH2" s="74"/>
-      <c r="AI2" s="75"/>
+      <c r="AH2" s="47"/>
+      <c r="AI2" s="48"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -41815,43 +44098,43 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="97"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="105"/>
-      <c r="T3" s="106"/>
-      <c r="U3" s="106"/>
-      <c r="V3" s="106"/>
-      <c r="W3" s="106"/>
-      <c r="X3" s="106"/>
-      <c r="Y3" s="106"/>
-      <c r="Z3" s="107"/>
-      <c r="AA3" s="80"/>
-      <c r="AB3" s="82"/>
-      <c r="AC3" s="108"/>
-      <c r="AD3" s="109"/>
-      <c r="AE3" s="109"/>
-      <c r="AF3" s="110"/>
-      <c r="AG3" s="73"/>
-      <c r="AH3" s="74"/>
-      <c r="AI3" s="75"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="78"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="55"/>
+      <c r="AC3" s="81"/>
+      <c r="AD3" s="82"/>
+      <c r="AE3" s="82"/>
+      <c r="AF3" s="83"/>
+      <c r="AG3" s="46"/>
+      <c r="AH3" s="47"/>
+      <c r="AI3" s="48"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -41886,1036 +44169,1212 @@
     </row>
     <row r="7" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="50"/>
+      <c r="D7" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="51"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="51"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="76" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="76" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="78"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="76" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="78"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="79" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78"/>
-      <c r="N7" s="78"/>
-      <c r="O7" s="78"/>
-      <c r="P7" s="77"/>
-      <c r="Q7" s="76" t="s">
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="R7" s="78"/>
-      <c r="S7" s="78"/>
-      <c r="T7" s="78"/>
-      <c r="U7" s="78"/>
-      <c r="V7" s="78"/>
-      <c r="W7" s="78"/>
-      <c r="X7" s="78"/>
-      <c r="Y7" s="78"/>
-      <c r="Z7" s="78"/>
-      <c r="AA7" s="78"/>
-      <c r="AB7" s="78"/>
-      <c r="AC7" s="78"/>
-      <c r="AD7" s="78"/>
-      <c r="AE7" s="77"/>
-      <c r="AF7" s="76" t="s">
+      <c r="R7" s="51"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="51"/>
+      <c r="X7" s="51"/>
+      <c r="Y7" s="51"/>
+      <c r="Z7" s="51"/>
+      <c r="AA7" s="51"/>
+      <c r="AB7" s="51"/>
+      <c r="AC7" s="51"/>
+      <c r="AD7" s="51"/>
+      <c r="AE7" s="50"/>
+      <c r="AF7" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="AG7" s="78"/>
-      <c r="AH7" s="78"/>
-      <c r="AI7" s="77"/>
+      <c r="AG7" s="51"/>
+      <c r="AH7" s="51"/>
+      <c r="AI7" s="50"/>
     </row>
     <row r="8" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="26">
         <v>1</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="97" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="98"/>
+      <c r="D8" s="99">
+        <v>43677</v>
+      </c>
+      <c r="E8" s="100"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="61">
-        <v>43677</v>
-      </c>
-      <c r="E8" s="62"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="64" t="s">
+      <c r="H8" s="103"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="65"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="67" t="s">
+      <c r="K8" s="106"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="69"/>
-      <c r="Q8" s="70" t="s">
+      <c r="R8" s="109"/>
+      <c r="S8" s="109"/>
+      <c r="T8" s="109"/>
+      <c r="U8" s="109"/>
+      <c r="V8" s="109"/>
+      <c r="W8" s="109"/>
+      <c r="X8" s="109"/>
+      <c r="Y8" s="109"/>
+      <c r="Z8" s="109"/>
+      <c r="AA8" s="109"/>
+      <c r="AB8" s="109"/>
+      <c r="AC8" s="109"/>
+      <c r="AD8" s="109"/>
+      <c r="AE8" s="110"/>
+      <c r="AF8" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="R8" s="71"/>
-      <c r="S8" s="71"/>
-      <c r="T8" s="71"/>
-      <c r="U8" s="71"/>
-      <c r="V8" s="71"/>
-      <c r="W8" s="71"/>
-      <c r="X8" s="71"/>
-      <c r="Y8" s="71"/>
-      <c r="Z8" s="71"/>
-      <c r="AA8" s="71"/>
-      <c r="AB8" s="71"/>
-      <c r="AC8" s="71"/>
-      <c r="AD8" s="71"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG8" s="68"/>
-      <c r="AH8" s="68"/>
-      <c r="AI8" s="69"/>
+      <c r="AG8" s="106"/>
+      <c r="AH8" s="106"/>
+      <c r="AI8" s="107"/>
     </row>
     <row r="9" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="27"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="56"/>
-      <c r="AB9" s="56"/>
-      <c r="AC9" s="56"/>
-      <c r="AD9" s="56"/>
-      <c r="AE9" s="57"/>
-      <c r="AF9" s="52"/>
-      <c r="AG9" s="53"/>
-      <c r="AH9" s="53"/>
-      <c r="AI9" s="54"/>
+      <c r="A9" s="27">
+        <v>2</v>
+      </c>
+      <c r="B9" s="112" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="86"/>
+      <c r="D9" s="87">
+        <v>44754</v>
+      </c>
+      <c r="E9" s="88"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="113" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="90"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="114" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="93"/>
+      <c r="Q9" s="115" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9" s="95"/>
+      <c r="S9" s="95"/>
+      <c r="T9" s="95"/>
+      <c r="U9" s="95"/>
+      <c r="V9" s="95"/>
+      <c r="W9" s="95"/>
+      <c r="X9" s="95"/>
+      <c r="Y9" s="95"/>
+      <c r="Z9" s="95"/>
+      <c r="AA9" s="95"/>
+      <c r="AB9" s="95"/>
+      <c r="AC9" s="95"/>
+      <c r="AD9" s="95"/>
+      <c r="AE9" s="96"/>
+      <c r="AF9" s="114" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG9" s="92"/>
+      <c r="AH9" s="92"/>
+      <c r="AI9" s="93"/>
     </row>
-    <row r="10" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:40" s="25" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="27"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="56"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="56"/>
-      <c r="AB10" s="56"/>
-      <c r="AC10" s="56"/>
-      <c r="AD10" s="56"/>
-      <c r="AE10" s="57"/>
-      <c r="AF10" s="52"/>
-      <c r="AG10" s="53"/>
-      <c r="AH10" s="53"/>
-      <c r="AI10" s="54"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="115" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="92"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="92"/>
+      <c r="N10" s="92"/>
+      <c r="O10" s="92"/>
+      <c r="P10" s="93"/>
+      <c r="Q10" s="115" t="s">
+        <v>36</v>
+      </c>
+      <c r="R10" s="95"/>
+      <c r="S10" s="95"/>
+      <c r="T10" s="95"/>
+      <c r="U10" s="95"/>
+      <c r="V10" s="95"/>
+      <c r="W10" s="95"/>
+      <c r="X10" s="95"/>
+      <c r="Y10" s="95"/>
+      <c r="Z10" s="95"/>
+      <c r="AA10" s="95"/>
+      <c r="AB10" s="95"/>
+      <c r="AC10" s="95"/>
+      <c r="AD10" s="95"/>
+      <c r="AE10" s="96"/>
+      <c r="AF10" s="114" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG10" s="92"/>
+      <c r="AH10" s="92"/>
+      <c r="AI10" s="93"/>
     </row>
     <row r="11" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="27"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="56"/>
-      <c r="S11" s="56"/>
-      <c r="T11" s="56"/>
-      <c r="U11" s="56"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="56"/>
-      <c r="X11" s="56"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="56"/>
-      <c r="AB11" s="56"/>
-      <c r="AC11" s="56"/>
-      <c r="AD11" s="56"/>
-      <c r="AE11" s="57"/>
-      <c r="AF11" s="52"/>
-      <c r="AG11" s="53"/>
-      <c r="AH11" s="53"/>
-      <c r="AI11" s="54"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
+      <c r="M11" s="92"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="94"/>
+      <c r="R11" s="95"/>
+      <c r="S11" s="95"/>
+      <c r="T11" s="95"/>
+      <c r="U11" s="95"/>
+      <c r="V11" s="95"/>
+      <c r="W11" s="95"/>
+      <c r="X11" s="95"/>
+      <c r="Y11" s="95"/>
+      <c r="Z11" s="95"/>
+      <c r="AA11" s="95"/>
+      <c r="AB11" s="95"/>
+      <c r="AC11" s="95"/>
+      <c r="AD11" s="95"/>
+      <c r="AE11" s="96"/>
+      <c r="AF11" s="91"/>
+      <c r="AG11" s="92"/>
+      <c r="AH11" s="92"/>
+      <c r="AI11" s="93"/>
     </row>
     <row r="12" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="27"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="56"/>
-      <c r="S12" s="56"/>
-      <c r="T12" s="56"/>
-      <c r="U12" s="56"/>
-      <c r="V12" s="56"/>
-      <c r="W12" s="56"/>
-      <c r="X12" s="56"/>
-      <c r="Y12" s="56"/>
-      <c r="Z12" s="56"/>
-      <c r="AA12" s="56"/>
-      <c r="AB12" s="56"/>
-      <c r="AC12" s="56"/>
-      <c r="AD12" s="56"/>
-      <c r="AE12" s="57"/>
-      <c r="AF12" s="52"/>
-      <c r="AG12" s="53"/>
-      <c r="AH12" s="53"/>
-      <c r="AI12" s="54"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="92"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="95"/>
+      <c r="S12" s="95"/>
+      <c r="T12" s="95"/>
+      <c r="U12" s="95"/>
+      <c r="V12" s="95"/>
+      <c r="W12" s="95"/>
+      <c r="X12" s="95"/>
+      <c r="Y12" s="95"/>
+      <c r="Z12" s="95"/>
+      <c r="AA12" s="95"/>
+      <c r="AB12" s="95"/>
+      <c r="AC12" s="95"/>
+      <c r="AD12" s="95"/>
+      <c r="AE12" s="96"/>
+      <c r="AF12" s="91"/>
+      <c r="AG12" s="92"/>
+      <c r="AH12" s="92"/>
+      <c r="AI12" s="93"/>
     </row>
     <row r="13" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="27"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="56"/>
-      <c r="S13" s="56"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="56"/>
-      <c r="V13" s="56"/>
-      <c r="W13" s="56"/>
-      <c r="X13" s="56"/>
-      <c r="Y13" s="56"/>
-      <c r="Z13" s="56"/>
-      <c r="AA13" s="56"/>
-      <c r="AB13" s="56"/>
-      <c r="AC13" s="56"/>
-      <c r="AD13" s="56"/>
-      <c r="AE13" s="57"/>
-      <c r="AF13" s="52"/>
-      <c r="AG13" s="53"/>
-      <c r="AH13" s="53"/>
-      <c r="AI13" s="54"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="92"/>
+      <c r="O13" s="92"/>
+      <c r="P13" s="93"/>
+      <c r="Q13" s="94"/>
+      <c r="R13" s="95"/>
+      <c r="S13" s="95"/>
+      <c r="T13" s="95"/>
+      <c r="U13" s="95"/>
+      <c r="V13" s="95"/>
+      <c r="W13" s="95"/>
+      <c r="X13" s="95"/>
+      <c r="Y13" s="95"/>
+      <c r="Z13" s="95"/>
+      <c r="AA13" s="95"/>
+      <c r="AB13" s="95"/>
+      <c r="AC13" s="95"/>
+      <c r="AD13" s="95"/>
+      <c r="AE13" s="96"/>
+      <c r="AF13" s="91"/>
+      <c r="AG13" s="92"/>
+      <c r="AH13" s="92"/>
+      <c r="AI13" s="93"/>
     </row>
     <row r="14" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="27"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="53"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="56"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="56"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="56"/>
-      <c r="AA14" s="56"/>
-      <c r="AB14" s="56"/>
-      <c r="AC14" s="56"/>
-      <c r="AD14" s="56"/>
-      <c r="AE14" s="57"/>
-      <c r="AF14" s="52"/>
-      <c r="AG14" s="53"/>
-      <c r="AH14" s="53"/>
-      <c r="AI14" s="54"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
+      <c r="M14" s="92"/>
+      <c r="N14" s="92"/>
+      <c r="O14" s="92"/>
+      <c r="P14" s="93"/>
+      <c r="Q14" s="94"/>
+      <c r="R14" s="95"/>
+      <c r="S14" s="95"/>
+      <c r="T14" s="95"/>
+      <c r="U14" s="95"/>
+      <c r="V14" s="95"/>
+      <c r="W14" s="95"/>
+      <c r="X14" s="95"/>
+      <c r="Y14" s="95"/>
+      <c r="Z14" s="95"/>
+      <c r="AA14" s="95"/>
+      <c r="AB14" s="95"/>
+      <c r="AC14" s="95"/>
+      <c r="AD14" s="95"/>
+      <c r="AE14" s="96"/>
+      <c r="AF14" s="91"/>
+      <c r="AG14" s="92"/>
+      <c r="AH14" s="92"/>
+      <c r="AI14" s="93"/>
     </row>
     <row r="15" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="27"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="53"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="56"/>
-      <c r="V15" s="56"/>
-      <c r="W15" s="56"/>
-      <c r="X15" s="56"/>
-      <c r="Y15" s="56"/>
-      <c r="Z15" s="56"/>
-      <c r="AA15" s="56"/>
-      <c r="AB15" s="56"/>
-      <c r="AC15" s="56"/>
-      <c r="AD15" s="56"/>
-      <c r="AE15" s="57"/>
-      <c r="AF15" s="52"/>
-      <c r="AG15" s="53"/>
-      <c r="AH15" s="53"/>
-      <c r="AI15" s="54"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="91"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="92"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="93"/>
+      <c r="Q15" s="94"/>
+      <c r="R15" s="95"/>
+      <c r="S15" s="95"/>
+      <c r="T15" s="95"/>
+      <c r="U15" s="95"/>
+      <c r="V15" s="95"/>
+      <c r="W15" s="95"/>
+      <c r="X15" s="95"/>
+      <c r="Y15" s="95"/>
+      <c r="Z15" s="95"/>
+      <c r="AA15" s="95"/>
+      <c r="AB15" s="95"/>
+      <c r="AC15" s="95"/>
+      <c r="AD15" s="95"/>
+      <c r="AE15" s="96"/>
+      <c r="AF15" s="91"/>
+      <c r="AG15" s="92"/>
+      <c r="AH15" s="92"/>
+      <c r="AI15" s="93"/>
     </row>
     <row r="16" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="27"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="53"/>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="53"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
-      <c r="AA16" s="56"/>
-      <c r="AB16" s="56"/>
-      <c r="AC16" s="56"/>
-      <c r="AD16" s="56"/>
-      <c r="AE16" s="57"/>
-      <c r="AF16" s="52"/>
-      <c r="AG16" s="53"/>
-      <c r="AH16" s="53"/>
-      <c r="AI16" s="54"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="88"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="91"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="94"/>
+      <c r="R16" s="95"/>
+      <c r="S16" s="95"/>
+      <c r="T16" s="95"/>
+      <c r="U16" s="95"/>
+      <c r="V16" s="95"/>
+      <c r="W16" s="95"/>
+      <c r="X16" s="95"/>
+      <c r="Y16" s="95"/>
+      <c r="Z16" s="95"/>
+      <c r="AA16" s="95"/>
+      <c r="AB16" s="95"/>
+      <c r="AC16" s="95"/>
+      <c r="AD16" s="95"/>
+      <c r="AE16" s="96"/>
+      <c r="AF16" s="91"/>
+      <c r="AG16" s="92"/>
+      <c r="AH16" s="92"/>
+      <c r="AI16" s="93"/>
     </row>
     <row r="17" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="27"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="56"/>
-      <c r="S17" s="56"/>
-      <c r="T17" s="56"/>
-      <c r="U17" s="56"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="56"/>
-      <c r="AA17" s="56"/>
-      <c r="AB17" s="56"/>
-      <c r="AC17" s="56"/>
-      <c r="AD17" s="56"/>
-      <c r="AE17" s="57"/>
-      <c r="AF17" s="52"/>
-      <c r="AG17" s="53"/>
-      <c r="AH17" s="53"/>
-      <c r="AI17" s="54"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
+      <c r="M17" s="92"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="93"/>
+      <c r="Q17" s="94"/>
+      <c r="R17" s="95"/>
+      <c r="S17" s="95"/>
+      <c r="T17" s="95"/>
+      <c r="U17" s="95"/>
+      <c r="V17" s="95"/>
+      <c r="W17" s="95"/>
+      <c r="X17" s="95"/>
+      <c r="Y17" s="95"/>
+      <c r="Z17" s="95"/>
+      <c r="AA17" s="95"/>
+      <c r="AB17" s="95"/>
+      <c r="AC17" s="95"/>
+      <c r="AD17" s="95"/>
+      <c r="AE17" s="96"/>
+      <c r="AF17" s="91"/>
+      <c r="AG17" s="92"/>
+      <c r="AH17" s="92"/>
+      <c r="AI17" s="93"/>
     </row>
     <row r="18" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="27"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="53"/>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="56"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="56"/>
-      <c r="X18" s="56"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="56"/>
-      <c r="AA18" s="56"/>
-      <c r="AB18" s="56"/>
-      <c r="AC18" s="56"/>
-      <c r="AD18" s="56"/>
-      <c r="AE18" s="57"/>
-      <c r="AF18" s="52"/>
-      <c r="AG18" s="53"/>
-      <c r="AH18" s="53"/>
-      <c r="AI18" s="54"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="92"/>
+      <c r="O18" s="92"/>
+      <c r="P18" s="93"/>
+      <c r="Q18" s="94"/>
+      <c r="R18" s="95"/>
+      <c r="S18" s="95"/>
+      <c r="T18" s="95"/>
+      <c r="U18" s="95"/>
+      <c r="V18" s="95"/>
+      <c r="W18" s="95"/>
+      <c r="X18" s="95"/>
+      <c r="Y18" s="95"/>
+      <c r="Z18" s="95"/>
+      <c r="AA18" s="95"/>
+      <c r="AB18" s="95"/>
+      <c r="AC18" s="95"/>
+      <c r="AD18" s="95"/>
+      <c r="AE18" s="96"/>
+      <c r="AF18" s="91"/>
+      <c r="AG18" s="92"/>
+      <c r="AH18" s="92"/>
+      <c r="AI18" s="93"/>
     </row>
     <row r="19" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="27"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="56"/>
-      <c r="U19" s="56"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="56"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="56"/>
-      <c r="AA19" s="56"/>
-      <c r="AB19" s="56"/>
-      <c r="AC19" s="56"/>
-      <c r="AD19" s="56"/>
-      <c r="AE19" s="57"/>
-      <c r="AF19" s="52"/>
-      <c r="AG19" s="53"/>
-      <c r="AH19" s="53"/>
-      <c r="AI19" s="54"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="92"/>
+      <c r="O19" s="92"/>
+      <c r="P19" s="93"/>
+      <c r="Q19" s="94"/>
+      <c r="R19" s="95"/>
+      <c r="S19" s="95"/>
+      <c r="T19" s="95"/>
+      <c r="U19" s="95"/>
+      <c r="V19" s="95"/>
+      <c r="W19" s="95"/>
+      <c r="X19" s="95"/>
+      <c r="Y19" s="95"/>
+      <c r="Z19" s="95"/>
+      <c r="AA19" s="95"/>
+      <c r="AB19" s="95"/>
+      <c r="AC19" s="95"/>
+      <c r="AD19" s="95"/>
+      <c r="AE19" s="96"/>
+      <c r="AF19" s="91"/>
+      <c r="AG19" s="92"/>
+      <c r="AH19" s="92"/>
+      <c r="AI19" s="93"/>
     </row>
     <row r="20" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="27"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="56"/>
-      <c r="AB20" s="56"/>
-      <c r="AC20" s="56"/>
-      <c r="AD20" s="56"/>
-      <c r="AE20" s="57"/>
-      <c r="AF20" s="52"/>
-      <c r="AG20" s="53"/>
-      <c r="AH20" s="53"/>
-      <c r="AI20" s="54"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="89"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="92"/>
+      <c r="M20" s="92"/>
+      <c r="N20" s="92"/>
+      <c r="O20" s="92"/>
+      <c r="P20" s="93"/>
+      <c r="Q20" s="94"/>
+      <c r="R20" s="95"/>
+      <c r="S20" s="95"/>
+      <c r="T20" s="95"/>
+      <c r="U20" s="95"/>
+      <c r="V20" s="95"/>
+      <c r="W20" s="95"/>
+      <c r="X20" s="95"/>
+      <c r="Y20" s="95"/>
+      <c r="Z20" s="95"/>
+      <c r="AA20" s="95"/>
+      <c r="AB20" s="95"/>
+      <c r="AC20" s="95"/>
+      <c r="AD20" s="95"/>
+      <c r="AE20" s="96"/>
+      <c r="AF20" s="91"/>
+      <c r="AG20" s="92"/>
+      <c r="AH20" s="92"/>
+      <c r="AI20" s="93"/>
     </row>
     <row r="21" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="27"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="56"/>
-      <c r="U21" s="56"/>
-      <c r="V21" s="56"/>
-      <c r="W21" s="56"/>
-      <c r="X21" s="56"/>
-      <c r="Y21" s="56"/>
-      <c r="Z21" s="56"/>
-      <c r="AA21" s="56"/>
-      <c r="AB21" s="56"/>
-      <c r="AC21" s="56"/>
-      <c r="AD21" s="56"/>
-      <c r="AE21" s="57"/>
-      <c r="AF21" s="52"/>
-      <c r="AG21" s="53"/>
-      <c r="AH21" s="53"/>
-      <c r="AI21" s="54"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
+      <c r="M21" s="92"/>
+      <c r="N21" s="92"/>
+      <c r="O21" s="92"/>
+      <c r="P21" s="93"/>
+      <c r="Q21" s="94"/>
+      <c r="R21" s="95"/>
+      <c r="S21" s="95"/>
+      <c r="T21" s="95"/>
+      <c r="U21" s="95"/>
+      <c r="V21" s="95"/>
+      <c r="W21" s="95"/>
+      <c r="X21" s="95"/>
+      <c r="Y21" s="95"/>
+      <c r="Z21" s="95"/>
+      <c r="AA21" s="95"/>
+      <c r="AB21" s="95"/>
+      <c r="AC21" s="95"/>
+      <c r="AD21" s="95"/>
+      <c r="AE21" s="96"/>
+      <c r="AF21" s="91"/>
+      <c r="AG21" s="92"/>
+      <c r="AH21" s="92"/>
+      <c r="AI21" s="93"/>
     </row>
     <row r="22" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="27"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="56"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="56"/>
-      <c r="X22" s="56"/>
-      <c r="Y22" s="56"/>
-      <c r="Z22" s="56"/>
-      <c r="AA22" s="56"/>
-      <c r="AB22" s="56"/>
-      <c r="AC22" s="56"/>
-      <c r="AD22" s="56"/>
-      <c r="AE22" s="57"/>
-      <c r="AF22" s="52"/>
-      <c r="AG22" s="53"/>
-      <c r="AH22" s="53"/>
-      <c r="AI22" s="54"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="92"/>
+      <c r="M22" s="92"/>
+      <c r="N22" s="92"/>
+      <c r="O22" s="92"/>
+      <c r="P22" s="93"/>
+      <c r="Q22" s="94"/>
+      <c r="R22" s="95"/>
+      <c r="S22" s="95"/>
+      <c r="T22" s="95"/>
+      <c r="U22" s="95"/>
+      <c r="V22" s="95"/>
+      <c r="W22" s="95"/>
+      <c r="X22" s="95"/>
+      <c r="Y22" s="95"/>
+      <c r="Z22" s="95"/>
+      <c r="AA22" s="95"/>
+      <c r="AB22" s="95"/>
+      <c r="AC22" s="95"/>
+      <c r="AD22" s="95"/>
+      <c r="AE22" s="96"/>
+      <c r="AF22" s="91"/>
+      <c r="AG22" s="92"/>
+      <c r="AH22" s="92"/>
+      <c r="AI22" s="93"/>
     </row>
     <row r="23" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="27"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="56"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="56"/>
-      <c r="U23" s="56"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="56"/>
-      <c r="AA23" s="56"/>
-      <c r="AB23" s="56"/>
-      <c r="AC23" s="56"/>
-      <c r="AD23" s="56"/>
-      <c r="AE23" s="57"/>
-      <c r="AF23" s="52"/>
-      <c r="AG23" s="53"/>
-      <c r="AH23" s="53"/>
-      <c r="AI23" s="54"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="88"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="91"/>
+      <c r="K23" s="92"/>
+      <c r="L23" s="92"/>
+      <c r="M23" s="92"/>
+      <c r="N23" s="92"/>
+      <c r="O23" s="92"/>
+      <c r="P23" s="93"/>
+      <c r="Q23" s="94"/>
+      <c r="R23" s="95"/>
+      <c r="S23" s="95"/>
+      <c r="T23" s="95"/>
+      <c r="U23" s="95"/>
+      <c r="V23" s="95"/>
+      <c r="W23" s="95"/>
+      <c r="X23" s="95"/>
+      <c r="Y23" s="95"/>
+      <c r="Z23" s="95"/>
+      <c r="AA23" s="95"/>
+      <c r="AB23" s="95"/>
+      <c r="AC23" s="95"/>
+      <c r="AD23" s="95"/>
+      <c r="AE23" s="96"/>
+      <c r="AF23" s="91"/>
+      <c r="AG23" s="92"/>
+      <c r="AH23" s="92"/>
+      <c r="AI23" s="93"/>
     </row>
     <row r="24" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="27"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="56"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="56"/>
-      <c r="U24" s="56"/>
-      <c r="V24" s="56"/>
-      <c r="W24" s="56"/>
-      <c r="X24" s="56"/>
-      <c r="Y24" s="56"/>
-      <c r="Z24" s="56"/>
-      <c r="AA24" s="56"/>
-      <c r="AB24" s="56"/>
-      <c r="AC24" s="56"/>
-      <c r="AD24" s="56"/>
-      <c r="AE24" s="57"/>
-      <c r="AF24" s="52"/>
-      <c r="AG24" s="53"/>
-      <c r="AH24" s="53"/>
-      <c r="AI24" s="54"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="91"/>
+      <c r="K24" s="92"/>
+      <c r="L24" s="92"/>
+      <c r="M24" s="92"/>
+      <c r="N24" s="92"/>
+      <c r="O24" s="92"/>
+      <c r="P24" s="93"/>
+      <c r="Q24" s="94"/>
+      <c r="R24" s="95"/>
+      <c r="S24" s="95"/>
+      <c r="T24" s="95"/>
+      <c r="U24" s="95"/>
+      <c r="V24" s="95"/>
+      <c r="W24" s="95"/>
+      <c r="X24" s="95"/>
+      <c r="Y24" s="95"/>
+      <c r="Z24" s="95"/>
+      <c r="AA24" s="95"/>
+      <c r="AB24" s="95"/>
+      <c r="AC24" s="95"/>
+      <c r="AD24" s="95"/>
+      <c r="AE24" s="96"/>
+      <c r="AF24" s="91"/>
+      <c r="AG24" s="92"/>
+      <c r="AH24" s="92"/>
+      <c r="AI24" s="93"/>
     </row>
     <row r="25" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="27"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="56"/>
-      <c r="S25" s="56"/>
-      <c r="T25" s="56"/>
-      <c r="U25" s="56"/>
-      <c r="V25" s="56"/>
-      <c r="W25" s="56"/>
-      <c r="X25" s="56"/>
-      <c r="Y25" s="56"/>
-      <c r="Z25" s="56"/>
-      <c r="AA25" s="56"/>
-      <c r="AB25" s="56"/>
-      <c r="AC25" s="56"/>
-      <c r="AD25" s="56"/>
-      <c r="AE25" s="57"/>
-      <c r="AF25" s="52"/>
-      <c r="AG25" s="53"/>
-      <c r="AH25" s="53"/>
-      <c r="AI25" s="54"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="91"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="92"/>
+      <c r="M25" s="92"/>
+      <c r="N25" s="92"/>
+      <c r="O25" s="92"/>
+      <c r="P25" s="93"/>
+      <c r="Q25" s="94"/>
+      <c r="R25" s="95"/>
+      <c r="S25" s="95"/>
+      <c r="T25" s="95"/>
+      <c r="U25" s="95"/>
+      <c r="V25" s="95"/>
+      <c r="W25" s="95"/>
+      <c r="X25" s="95"/>
+      <c r="Y25" s="95"/>
+      <c r="Z25" s="95"/>
+      <c r="AA25" s="95"/>
+      <c r="AB25" s="95"/>
+      <c r="AC25" s="95"/>
+      <c r="AD25" s="95"/>
+      <c r="AE25" s="96"/>
+      <c r="AF25" s="91"/>
+      <c r="AG25" s="92"/>
+      <c r="AH25" s="92"/>
+      <c r="AI25" s="93"/>
     </row>
     <row r="26" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="27"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53"/>
-      <c r="M26" s="53"/>
-      <c r="N26" s="53"/>
-      <c r="O26" s="53"/>
-      <c r="P26" s="54"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="56"/>
-      <c r="S26" s="56"/>
-      <c r="T26" s="56"/>
-      <c r="U26" s="56"/>
-      <c r="V26" s="56"/>
-      <c r="W26" s="56"/>
-      <c r="X26" s="56"/>
-      <c r="Y26" s="56"/>
-      <c r="Z26" s="56"/>
-      <c r="AA26" s="56"/>
-      <c r="AB26" s="56"/>
-      <c r="AC26" s="56"/>
-      <c r="AD26" s="56"/>
-      <c r="AE26" s="57"/>
-      <c r="AF26" s="52"/>
-      <c r="AG26" s="53"/>
-      <c r="AH26" s="53"/>
-      <c r="AI26" s="54"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="92"/>
+      <c r="M26" s="92"/>
+      <c r="N26" s="92"/>
+      <c r="O26" s="92"/>
+      <c r="P26" s="93"/>
+      <c r="Q26" s="94"/>
+      <c r="R26" s="95"/>
+      <c r="S26" s="95"/>
+      <c r="T26" s="95"/>
+      <c r="U26" s="95"/>
+      <c r="V26" s="95"/>
+      <c r="W26" s="95"/>
+      <c r="X26" s="95"/>
+      <c r="Y26" s="95"/>
+      <c r="Z26" s="95"/>
+      <c r="AA26" s="95"/>
+      <c r="AB26" s="95"/>
+      <c r="AC26" s="95"/>
+      <c r="AD26" s="95"/>
+      <c r="AE26" s="96"/>
+      <c r="AF26" s="91"/>
+      <c r="AG26" s="92"/>
+      <c r="AH26" s="92"/>
+      <c r="AI26" s="93"/>
     </row>
     <row r="27" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="27"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53"/>
-      <c r="M27" s="53"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="54"/>
-      <c r="Q27" s="55"/>
-      <c r="R27" s="56"/>
-      <c r="S27" s="56"/>
-      <c r="T27" s="56"/>
-      <c r="U27" s="56"/>
-      <c r="V27" s="56"/>
-      <c r="W27" s="56"/>
-      <c r="X27" s="56"/>
-      <c r="Y27" s="56"/>
-      <c r="Z27" s="56"/>
-      <c r="AA27" s="56"/>
-      <c r="AB27" s="56"/>
-      <c r="AC27" s="56"/>
-      <c r="AD27" s="56"/>
-      <c r="AE27" s="57"/>
-      <c r="AF27" s="52"/>
-      <c r="AG27" s="53"/>
-      <c r="AH27" s="53"/>
-      <c r="AI27" s="54"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="91"/>
+      <c r="K27" s="92"/>
+      <c r="L27" s="92"/>
+      <c r="M27" s="92"/>
+      <c r="N27" s="92"/>
+      <c r="O27" s="92"/>
+      <c r="P27" s="93"/>
+      <c r="Q27" s="94"/>
+      <c r="R27" s="95"/>
+      <c r="S27" s="95"/>
+      <c r="T27" s="95"/>
+      <c r="U27" s="95"/>
+      <c r="V27" s="95"/>
+      <c r="W27" s="95"/>
+      <c r="X27" s="95"/>
+      <c r="Y27" s="95"/>
+      <c r="Z27" s="95"/>
+      <c r="AA27" s="95"/>
+      <c r="AB27" s="95"/>
+      <c r="AC27" s="95"/>
+      <c r="AD27" s="95"/>
+      <c r="AE27" s="96"/>
+      <c r="AF27" s="91"/>
+      <c r="AG27" s="92"/>
+      <c r="AH27" s="92"/>
+      <c r="AI27" s="93"/>
     </row>
     <row r="28" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="27"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="53"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="56"/>
-      <c r="S28" s="56"/>
-      <c r="T28" s="56"/>
-      <c r="U28" s="56"/>
-      <c r="V28" s="56"/>
-      <c r="W28" s="56"/>
-      <c r="X28" s="56"/>
-      <c r="Y28" s="56"/>
-      <c r="Z28" s="56"/>
-      <c r="AA28" s="56"/>
-      <c r="AB28" s="56"/>
-      <c r="AC28" s="56"/>
-      <c r="AD28" s="56"/>
-      <c r="AE28" s="57"/>
-      <c r="AF28" s="52"/>
-      <c r="AG28" s="53"/>
-      <c r="AH28" s="53"/>
-      <c r="AI28" s="54"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="91"/>
+      <c r="K28" s="92"/>
+      <c r="L28" s="92"/>
+      <c r="M28" s="92"/>
+      <c r="N28" s="92"/>
+      <c r="O28" s="92"/>
+      <c r="P28" s="93"/>
+      <c r="Q28" s="94"/>
+      <c r="R28" s="95"/>
+      <c r="S28" s="95"/>
+      <c r="T28" s="95"/>
+      <c r="U28" s="95"/>
+      <c r="V28" s="95"/>
+      <c r="W28" s="95"/>
+      <c r="X28" s="95"/>
+      <c r="Y28" s="95"/>
+      <c r="Z28" s="95"/>
+      <c r="AA28" s="95"/>
+      <c r="AB28" s="95"/>
+      <c r="AC28" s="95"/>
+      <c r="AD28" s="95"/>
+      <c r="AE28" s="96"/>
+      <c r="AF28" s="91"/>
+      <c r="AG28" s="92"/>
+      <c r="AH28" s="92"/>
+      <c r="AI28" s="93"/>
     </row>
     <row r="29" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="27"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-      <c r="M29" s="53"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="54"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="56"/>
-      <c r="S29" s="56"/>
-      <c r="T29" s="56"/>
-      <c r="U29" s="56"/>
-      <c r="V29" s="56"/>
-      <c r="W29" s="56"/>
-      <c r="X29" s="56"/>
-      <c r="Y29" s="56"/>
-      <c r="Z29" s="56"/>
-      <c r="AA29" s="56"/>
-      <c r="AB29" s="56"/>
-      <c r="AC29" s="56"/>
-      <c r="AD29" s="56"/>
-      <c r="AE29" s="57"/>
-      <c r="AF29" s="52"/>
-      <c r="AG29" s="53"/>
-      <c r="AH29" s="53"/>
-      <c r="AI29" s="54"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="91"/>
+      <c r="K29" s="92"/>
+      <c r="L29" s="92"/>
+      <c r="M29" s="92"/>
+      <c r="N29" s="92"/>
+      <c r="O29" s="92"/>
+      <c r="P29" s="93"/>
+      <c r="Q29" s="94"/>
+      <c r="R29" s="95"/>
+      <c r="S29" s="95"/>
+      <c r="T29" s="95"/>
+      <c r="U29" s="95"/>
+      <c r="V29" s="95"/>
+      <c r="W29" s="95"/>
+      <c r="X29" s="95"/>
+      <c r="Y29" s="95"/>
+      <c r="Z29" s="95"/>
+      <c r="AA29" s="95"/>
+      <c r="AB29" s="95"/>
+      <c r="AC29" s="95"/>
+      <c r="AD29" s="95"/>
+      <c r="AE29" s="96"/>
+      <c r="AF29" s="91"/>
+      <c r="AG29" s="92"/>
+      <c r="AH29" s="92"/>
+      <c r="AI29" s="93"/>
     </row>
     <row r="30" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="27"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="55"/>
-      <c r="R30" s="56"/>
-      <c r="S30" s="56"/>
-      <c r="T30" s="56"/>
-      <c r="U30" s="56"/>
-      <c r="V30" s="56"/>
-      <c r="W30" s="56"/>
-      <c r="X30" s="56"/>
-      <c r="Y30" s="56"/>
-      <c r="Z30" s="56"/>
-      <c r="AA30" s="56"/>
-      <c r="AB30" s="56"/>
-      <c r="AC30" s="56"/>
-      <c r="AD30" s="56"/>
-      <c r="AE30" s="57"/>
-      <c r="AF30" s="52"/>
-      <c r="AG30" s="53"/>
-      <c r="AH30" s="53"/>
-      <c r="AI30" s="54"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="89"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="90"/>
+      <c r="I30" s="86"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="92"/>
+      <c r="L30" s="92"/>
+      <c r="M30" s="92"/>
+      <c r="N30" s="92"/>
+      <c r="O30" s="92"/>
+      <c r="P30" s="93"/>
+      <c r="Q30" s="94"/>
+      <c r="R30" s="95"/>
+      <c r="S30" s="95"/>
+      <c r="T30" s="95"/>
+      <c r="U30" s="95"/>
+      <c r="V30" s="95"/>
+      <c r="W30" s="95"/>
+      <c r="X30" s="95"/>
+      <c r="Y30" s="95"/>
+      <c r="Z30" s="95"/>
+      <c r="AA30" s="95"/>
+      <c r="AB30" s="95"/>
+      <c r="AC30" s="95"/>
+      <c r="AD30" s="95"/>
+      <c r="AE30" s="96"/>
+      <c r="AF30" s="91"/>
+      <c r="AG30" s="92"/>
+      <c r="AH30" s="92"/>
+      <c r="AI30" s="93"/>
     </row>
     <row r="31" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="27"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="54"/>
-      <c r="Q31" s="55"/>
-      <c r="R31" s="56"/>
-      <c r="S31" s="56"/>
-      <c r="T31" s="56"/>
-      <c r="U31" s="56"/>
-      <c r="V31" s="56"/>
-      <c r="W31" s="56"/>
-      <c r="X31" s="56"/>
-      <c r="Y31" s="56"/>
-      <c r="Z31" s="56"/>
-      <c r="AA31" s="56"/>
-      <c r="AB31" s="56"/>
-      <c r="AC31" s="56"/>
-      <c r="AD31" s="56"/>
-      <c r="AE31" s="57"/>
-      <c r="AF31" s="52"/>
-      <c r="AG31" s="53"/>
-      <c r="AH31" s="53"/>
-      <c r="AI31" s="54"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="90"/>
+      <c r="I31" s="86"/>
+      <c r="J31" s="91"/>
+      <c r="K31" s="92"/>
+      <c r="L31" s="92"/>
+      <c r="M31" s="92"/>
+      <c r="N31" s="92"/>
+      <c r="O31" s="92"/>
+      <c r="P31" s="93"/>
+      <c r="Q31" s="94"/>
+      <c r="R31" s="95"/>
+      <c r="S31" s="95"/>
+      <c r="T31" s="95"/>
+      <c r="U31" s="95"/>
+      <c r="V31" s="95"/>
+      <c r="W31" s="95"/>
+      <c r="X31" s="95"/>
+      <c r="Y31" s="95"/>
+      <c r="Z31" s="95"/>
+      <c r="AA31" s="95"/>
+      <c r="AB31" s="95"/>
+      <c r="AC31" s="95"/>
+      <c r="AD31" s="95"/>
+      <c r="AE31" s="96"/>
+      <c r="AF31" s="91"/>
+      <c r="AG31" s="92"/>
+      <c r="AH31" s="92"/>
+      <c r="AI31" s="93"/>
     </row>
     <row r="32" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="27"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="46"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="52"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="54"/>
-      <c r="Q32" s="55"/>
-      <c r="R32" s="56"/>
-      <c r="S32" s="56"/>
-      <c r="T32" s="56"/>
-      <c r="U32" s="56"/>
-      <c r="V32" s="56"/>
-      <c r="W32" s="56"/>
-      <c r="X32" s="56"/>
-      <c r="Y32" s="56"/>
-      <c r="Z32" s="56"/>
-      <c r="AA32" s="56"/>
-      <c r="AB32" s="56"/>
-      <c r="AC32" s="56"/>
-      <c r="AD32" s="56"/>
-      <c r="AE32" s="57"/>
-      <c r="AF32" s="52"/>
-      <c r="AG32" s="53"/>
-      <c r="AH32" s="53"/>
-      <c r="AI32" s="54"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="86"/>
+      <c r="J32" s="91"/>
+      <c r="K32" s="111"/>
+      <c r="L32" s="92"/>
+      <c r="M32" s="92"/>
+      <c r="N32" s="92"/>
+      <c r="O32" s="92"/>
+      <c r="P32" s="93"/>
+      <c r="Q32" s="94"/>
+      <c r="R32" s="95"/>
+      <c r="S32" s="95"/>
+      <c r="T32" s="95"/>
+      <c r="U32" s="95"/>
+      <c r="V32" s="95"/>
+      <c r="W32" s="95"/>
+      <c r="X32" s="95"/>
+      <c r="Y32" s="95"/>
+      <c r="Z32" s="95"/>
+      <c r="AA32" s="95"/>
+      <c r="AB32" s="95"/>
+      <c r="AC32" s="95"/>
+      <c r="AD32" s="95"/>
+      <c r="AE32" s="96"/>
+      <c r="AF32" s="91"/>
+      <c r="AG32" s="92"/>
+      <c r="AH32" s="92"/>
+      <c r="AI32" s="93"/>
     </row>
     <row r="33" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="27"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="50"/>
-      <c r="G33" s="46"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
-      <c r="O33" s="53"/>
-      <c r="P33" s="54"/>
-      <c r="Q33" s="55"/>
-      <c r="R33" s="56"/>
-      <c r="S33" s="56"/>
-      <c r="T33" s="56"/>
-      <c r="U33" s="56"/>
-      <c r="V33" s="56"/>
-      <c r="W33" s="56"/>
-      <c r="X33" s="56"/>
-      <c r="Y33" s="56"/>
-      <c r="Z33" s="56"/>
-      <c r="AA33" s="56"/>
-      <c r="AB33" s="56"/>
-      <c r="AC33" s="56"/>
-      <c r="AD33" s="56"/>
-      <c r="AE33" s="57"/>
-      <c r="AF33" s="52"/>
-      <c r="AG33" s="53"/>
-      <c r="AH33" s="53"/>
-      <c r="AI33" s="54"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="86"/>
+      <c r="J33" s="91"/>
+      <c r="K33" s="92"/>
+      <c r="L33" s="92"/>
+      <c r="M33" s="92"/>
+      <c r="N33" s="92"/>
+      <c r="O33" s="92"/>
+      <c r="P33" s="93"/>
+      <c r="Q33" s="94"/>
+      <c r="R33" s="95"/>
+      <c r="S33" s="95"/>
+      <c r="T33" s="95"/>
+      <c r="U33" s="95"/>
+      <c r="V33" s="95"/>
+      <c r="W33" s="95"/>
+      <c r="X33" s="95"/>
+      <c r="Y33" s="95"/>
+      <c r="Z33" s="95"/>
+      <c r="AA33" s="95"/>
+      <c r="AB33" s="95"/>
+      <c r="AC33" s="95"/>
+      <c r="AD33" s="95"/>
+      <c r="AE33" s="96"/>
+      <c r="AF33" s="91"/>
+      <c r="AG33" s="92"/>
+      <c r="AH33" s="92"/>
+      <c r="AI33" s="93"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -42939,162 +45398,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -43105,11 +45408,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:DN102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S41" sqref="S41"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A31" zoomScale="80" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="BC82" sqref="BC82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -43120,7 +45423,7 @@
   <sheetData>
     <row r="1" spans="2:50" s="8" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
       <c r="B1" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AS1" s="9"/>
       <c r="AX1" s="9"/>
@@ -43222,7 +45525,7 @@
     <row r="96" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="97" spans="2:118" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B97" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C97" s="11"/>
       <c r="D97" s="11"/>
@@ -43463,7 +45766,7 @@
     <row r="99" spans="2:118" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B99" s="14"/>
       <c r="C99" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D99" s="15"/>
       <c r="E99" s="15"/>
@@ -43485,7 +45788,7 @@
       <c r="V99" s="15"/>
       <c r="W99" s="15"/>
       <c r="X99" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y99" s="15"/>
       <c r="Z99" s="15"/>
@@ -43514,7 +45817,7 @@
       <c r="AW99" s="15"/>
       <c r="AX99" s="15"/>
       <c r="AY99" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ99" s="15"/>
       <c r="BA99" s="15"/>
@@ -43535,7 +45838,7 @@
       <c r="BP99" s="15"/>
       <c r="BQ99" s="15"/>
       <c r="BT99" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BU99" s="15"/>
       <c r="BV99" s="15"/>
@@ -43572,7 +45875,7 @@
       <c r="DA99" s="15"/>
       <c r="DB99" s="15"/>
       <c r="DC99" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="DD99" s="15"/>
       <c r="DE99" s="15"/>
@@ -43588,7 +45891,7 @@
     <row r="100" spans="2:118" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B100" s="14"/>
       <c r="C100" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D100" s="15"/>
       <c r="E100" s="15"/>
@@ -43694,7 +45997,7 @@
       <c r="DB100" s="15"/>
       <c r="DC100" s="15"/>
       <c r="DD100" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="DE100" s="15"/>
       <c r="DG100" s="15"/>
@@ -43813,7 +46116,7 @@
       <c r="DB101" s="15"/>
       <c r="DC101" s="15"/>
       <c r="DD101" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="DE101" s="15"/>
       <c r="DG101" s="15"/>

--- a/サンプルプロジェクト/設計書/Nablarchを使用した開発の流れ.xlsx
+++ b/サンプルプロジェクト/設計書/Nablarchを使用した開発の流れ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C6216C-5F53-4598-A943-97A58EB7EE6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0A0E2F-C673-4A41-852A-6FD9A98B069B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="-120" windowWidth="27765" windowHeight="16440" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="24" r:id="rId1"/>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Nablarchを使用した開発の流れ!$A$1:$DO$102</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$38</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -772,16 +772,13 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -812,9 +809,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -830,19 +824,19 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -856,7 +850,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -868,20 +862,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -905,106 +898,106 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1019,10 +1012,13 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1031,7 +1027,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1040,7 +1036,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1082,20 +1078,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -9066,8 +9059,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="10800000">
-          <a:off x="16614825" y="1944799"/>
-          <a:ext cx="863550" cy="853170"/>
+          <a:off x="16417181" y="1966230"/>
+          <a:ext cx="851644" cy="881745"/>
           <a:chOff x="15677028" y="9610164"/>
           <a:chExt cx="858367" cy="856130"/>
         </a:xfrm>
@@ -9309,8 +9302,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6441281" y="11984831"/>
-          <a:ext cx="524764" cy="326093"/>
+          <a:off x="6362700" y="12296775"/>
+          <a:ext cx="517620" cy="335618"/>
           <a:chOff x="6686550" y="13626923"/>
           <a:chExt cx="517620" cy="335618"/>
         </a:xfrm>
@@ -11062,8 +11055,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16421822" y="11958118"/>
-          <a:ext cx="1634547" cy="514215"/>
+          <a:off x="16226559" y="12265299"/>
+          <a:ext cx="1615497" cy="528503"/>
           <a:chOff x="16049625" y="10126671"/>
           <a:chExt cx="1619250" cy="526771"/>
         </a:xfrm>
@@ -29854,8 +29847,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12108655" y="11984830"/>
-          <a:ext cx="524764" cy="326093"/>
+          <a:off x="11963399" y="12296774"/>
+          <a:ext cx="517620" cy="335618"/>
           <a:chOff x="6686550" y="13626923"/>
           <a:chExt cx="517620" cy="335618"/>
         </a:xfrm>
@@ -43336,15 +43329,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="30"/>
+    <col min="1" max="16384" width="8.83203125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="31"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="30"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="33"/>
+      <c r="A2" s="31"/>
     </row>
     <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -43366,125 +43359,125 @@
     <row r="20" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="21" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="22" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F22" s="34"/>
-      <c r="H22" s="34"/>
+      <c r="F22" s="32"/>
+      <c r="H22" s="32"/>
     </row>
     <row r="23" spans="6:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="J23" s="6" t="s">
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="J23" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
     </row>
     <row r="25" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="45">
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="42">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v>44754</v>
       </c>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
     </row>
     <row r="27" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
     </row>
     <row r="28" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F28" s="35"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
     </row>
     <row r="29" spans="6:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F29" s="34"/>
-      <c r="H29" s="34"/>
+      <c r="F29" s="32"/>
+      <c r="H29" s="32"/>
     </row>
     <row r="30" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F30" s="34"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="34"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="32"/>
     </row>
     <row r="31" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F31" s="34"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="34"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="32"/>
     </row>
     <row r="32" spans="6:11" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="F32" s="34"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="34"/>
-      <c r="J32" s="37"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="32"/>
+      <c r="J32" s="35"/>
     </row>
     <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="F33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="J33" s="38"/>
-      <c r="L33" s="38"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="38"/>
+      <c r="F33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="J33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
     </row>
     <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="F34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="J34" s="37"/>
-      <c r="L34" s="38"/>
-      <c r="M34" s="38"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="38"/>
-      <c r="P34" s="38"/>
-      <c r="Q34" s="40"/>
-      <c r="R34" s="41"/>
-      <c r="S34" s="41"/>
+      <c r="F34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="J34" s="35"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="37"/>
+      <c r="R34" s="38"/>
+      <c r="S34" s="38"/>
     </row>
     <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O35" s="38"/>
-      <c r="P35" s="38"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="41"/>
-      <c r="S35" s="41"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="38"/>
+      <c r="R35" s="38"/>
+      <c r="S35" s="38"/>
     </row>
     <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O36" s="42"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="42"/>
-      <c r="R36" s="41"/>
-      <c r="S36" s="42"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="38"/>
+      <c r="Q36" s="39"/>
+      <c r="R36" s="38"/>
+      <c r="S36" s="39"/>
     </row>
     <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O37" s="43"/>
-      <c r="P37" s="43"/>
-      <c r="Q37" s="43"/>
-      <c r="R37" s="44"/>
-      <c r="S37" s="43"/>
+      <c r="O37" s="40"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="41"/>
+      <c r="S37" s="40"/>
     </row>
     <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O38" s="43"/>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="44"/>
-      <c r="R38" s="44"/>
-      <c r="S38" s="44"/>
+      <c r="O38" s="40"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="41"/>
+      <c r="S38" s="41"/>
     </row>
     <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O39" s="43"/>
-      <c r="P39" s="43"/>
-      <c r="Q39" s="44"/>
-      <c r="R39" s="44"/>
-      <c r="S39" s="44"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="41"/>
+      <c r="S39" s="41"/>
     </row>
     <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -43986,59 +43979,59 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="4.83203125" style="28"/>
+    <col min="1" max="16384" width="4.83203125" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="63" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="72" t="s">
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="53" t="s">
+      <c r="T1" s="70"/>
+      <c r="U1" s="70"/>
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="71"/>
+      <c r="AA1" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="55"/>
-      <c r="AC1" s="81" t="str">
+      <c r="AB1" s="52"/>
+      <c r="AC1" s="78" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="82"/>
-      <c r="AE1" s="82"/>
-      <c r="AF1" s="83"/>
-      <c r="AG1" s="46">
+      <c r="AD1" s="79"/>
+      <c r="AE1" s="79"/>
+      <c r="AF1" s="80"/>
+      <c r="AG1" s="43">
         <f>IF(D8="","",D8)</f>
         <v>43677</v>
       </c>
-      <c r="AH1" s="47"/>
-      <c r="AI1" s="48"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="45"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -44046,51 +44039,51 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="58"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="76"/>
-      <c r="U2" s="76"/>
-      <c r="V2" s="76"/>
-      <c r="W2" s="76"/>
-      <c r="X2" s="76"/>
-      <c r="Y2" s="76"/>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="53" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="74"/>
+      <c r="AA2" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="AB2" s="55"/>
-      <c r="AC2" s="59" t="str">
+      <c r="AB2" s="52"/>
+      <c r="AC2" s="56" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="60"/>
-      <c r="AE2" s="60"/>
-      <c r="AF2" s="61"/>
-      <c r="AG2" s="46">
+      <c r="AD2" s="57"/>
+      <c r="AE2" s="57"/>
+      <c r="AF2" s="58"/>
+      <c r="AG2" s="43">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44754</v>
       </c>
-      <c r="AH2" s="47"/>
-      <c r="AI2" s="48"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="45"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -44098,1124 +44091,1124 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
-      <c r="W3" s="79"/>
-      <c r="X3" s="79"/>
-      <c r="Y3" s="79"/>
-      <c r="Z3" s="80"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="55"/>
-      <c r="AC3" s="81"/>
-      <c r="AD3" s="82"/>
-      <c r="AE3" s="82"/>
-      <c r="AF3" s="83"/>
-      <c r="AG3" s="46"/>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="48"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="66"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="76"/>
+      <c r="U3" s="76"/>
+      <c r="V3" s="76"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="76"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="77"/>
+      <c r="AA3" s="50"/>
+      <c r="AB3" s="52"/>
+      <c r="AC3" s="78"/>
+      <c r="AD3" s="79"/>
+      <c r="AE3" s="79"/>
+      <c r="AF3" s="80"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="45"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
       <c r="AM3" s="1"/>
       <c r="AN3" s="1"/>
     </row>
-    <row r="5" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N5" s="5" t="s">
+    <row r="5" spans="1:40" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AA5" s="21"/>
-      <c r="AB5" s="21"/>
-      <c r="AC5" s="22"/>
-      <c r="AD5" s="23"/>
-      <c r="AE5" s="23"/>
-      <c r="AF5" s="23"/>
-      <c r="AG5" s="21"/>
-      <c r="AH5" s="21"/>
-      <c r="AI5" s="21"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="21"/>
+      <c r="AE5" s="21"/>
+      <c r="AF5" s="21"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="19"/>
     </row>
-    <row r="6" spans="1:40" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N6" s="5"/>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="22"/>
-      <c r="AD6" s="23"/>
-      <c r="AE6" s="23"/>
-      <c r="AF6" s="23"/>
-      <c r="AG6" s="21"/>
-      <c r="AH6" s="21"/>
-      <c r="AI6" s="21"/>
+    <row r="6" spans="1:40" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N6" s="4"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="21"/>
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="21"/>
+      <c r="AG6" s="19"/>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="19"/>
     </row>
-    <row r="7" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
+    <row r="7" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="49" t="s">
+      <c r="C7" s="47"/>
+      <c r="D7" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="49" t="s">
+      <c r="E7" s="48"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="52" t="s">
+      <c r="H7" s="48"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="49" t="s">
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="R7" s="51"/>
-      <c r="S7" s="51"/>
-      <c r="T7" s="51"/>
-      <c r="U7" s="51"/>
-      <c r="V7" s="51"/>
-      <c r="W7" s="51"/>
-      <c r="X7" s="51"/>
-      <c r="Y7" s="51"/>
-      <c r="Z7" s="51"/>
-      <c r="AA7" s="51"/>
-      <c r="AB7" s="51"/>
-      <c r="AC7" s="51"/>
-      <c r="AD7" s="51"/>
-      <c r="AE7" s="50"/>
-      <c r="AF7" s="49" t="s">
+      <c r="R7" s="48"/>
+      <c r="S7" s="48"/>
+      <c r="T7" s="48"/>
+      <c r="U7" s="48"/>
+      <c r="V7" s="48"/>
+      <c r="W7" s="48"/>
+      <c r="X7" s="48"/>
+      <c r="Y7" s="48"/>
+      <c r="Z7" s="48"/>
+      <c r="AA7" s="48"/>
+      <c r="AB7" s="48"/>
+      <c r="AC7" s="48"/>
+      <c r="AD7" s="48"/>
+      <c r="AE7" s="47"/>
+      <c r="AF7" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="AG7" s="51"/>
-      <c r="AH7" s="51"/>
-      <c r="AI7" s="50"/>
+      <c r="AG7" s="48"/>
+      <c r="AH7" s="48"/>
+      <c r="AI7" s="47"/>
     </row>
-    <row r="8" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="26">
+    <row r="8" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="24">
         <v>1</v>
       </c>
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="99">
+      <c r="C8" s="96"/>
+      <c r="D8" s="97">
         <v>43677</v>
       </c>
-      <c r="E8" s="100"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="102" t="s">
+      <c r="E8" s="98"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="103"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="105" t="s">
+      <c r="H8" s="101"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="106"/>
-      <c r="L8" s="106"/>
-      <c r="M8" s="106"/>
-      <c r="N8" s="106"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="107"/>
-      <c r="Q8" s="108" t="s">
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="106" t="s">
         <v>27</v>
       </c>
-      <c r="R8" s="109"/>
-      <c r="S8" s="109"/>
-      <c r="T8" s="109"/>
-      <c r="U8" s="109"/>
-      <c r="V8" s="109"/>
-      <c r="W8" s="109"/>
-      <c r="X8" s="109"/>
-      <c r="Y8" s="109"/>
-      <c r="Z8" s="109"/>
-      <c r="AA8" s="109"/>
-      <c r="AB8" s="109"/>
-      <c r="AC8" s="109"/>
-      <c r="AD8" s="109"/>
-      <c r="AE8" s="110"/>
-      <c r="AF8" s="105" t="s">
+      <c r="R8" s="107"/>
+      <c r="S8" s="107"/>
+      <c r="T8" s="107"/>
+      <c r="U8" s="107"/>
+      <c r="V8" s="107"/>
+      <c r="W8" s="107"/>
+      <c r="X8" s="107"/>
+      <c r="Y8" s="107"/>
+      <c r="Z8" s="107"/>
+      <c r="AA8" s="107"/>
+      <c r="AB8" s="107"/>
+      <c r="AC8" s="107"/>
+      <c r="AD8" s="107"/>
+      <c r="AE8" s="108"/>
+      <c r="AF8" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="AG8" s="106"/>
-      <c r="AH8" s="106"/>
-      <c r="AI8" s="107"/>
+      <c r="AG8" s="104"/>
+      <c r="AH8" s="104"/>
+      <c r="AI8" s="105"/>
     </row>
-    <row r="9" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="27">
+    <row r="9" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="25">
         <v>2</v>
       </c>
-      <c r="B9" s="112" t="s">
+      <c r="B9" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="87">
+      <c r="C9" s="83"/>
+      <c r="D9" s="84">
         <v>44754</v>
       </c>
-      <c r="E9" s="88"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="113" t="s">
+      <c r="E9" s="85"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="90"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="114" t="s">
+      <c r="H9" s="88"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="92"/>
-      <c r="L9" s="92"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="92"/>
-      <c r="O9" s="92"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="115" t="s">
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="91"/>
+      <c r="Q9" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="R9" s="95"/>
-      <c r="S9" s="95"/>
-      <c r="T9" s="95"/>
-      <c r="U9" s="95"/>
-      <c r="V9" s="95"/>
-      <c r="W9" s="95"/>
-      <c r="X9" s="95"/>
-      <c r="Y9" s="95"/>
-      <c r="Z9" s="95"/>
-      <c r="AA9" s="95"/>
-      <c r="AB9" s="95"/>
-      <c r="AC9" s="95"/>
-      <c r="AD9" s="95"/>
-      <c r="AE9" s="96"/>
-      <c r="AF9" s="114" t="s">
+      <c r="R9" s="93"/>
+      <c r="S9" s="93"/>
+      <c r="T9" s="93"/>
+      <c r="U9" s="93"/>
+      <c r="V9" s="93"/>
+      <c r="W9" s="93"/>
+      <c r="X9" s="93"/>
+      <c r="Y9" s="93"/>
+      <c r="Z9" s="93"/>
+      <c r="AA9" s="93"/>
+      <c r="AB9" s="93"/>
+      <c r="AC9" s="93"/>
+      <c r="AD9" s="93"/>
+      <c r="AE9" s="94"/>
+      <c r="AF9" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="AG9" s="92"/>
-      <c r="AH9" s="92"/>
-      <c r="AI9" s="93"/>
+      <c r="AG9" s="90"/>
+      <c r="AH9" s="90"/>
+      <c r="AI9" s="91"/>
     </row>
-    <row r="10" spans="1:40" s="25" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="27"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="115" t="s">
+    <row r="10" spans="1:40" s="23" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="25"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="92"/>
-      <c r="L10" s="92"/>
-      <c r="M10" s="92"/>
-      <c r="N10" s="92"/>
-      <c r="O10" s="92"/>
-      <c r="P10" s="93"/>
-      <c r="Q10" s="115" t="s">
+      <c r="K10" s="90"/>
+      <c r="L10" s="90"/>
+      <c r="M10" s="90"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="90"/>
+      <c r="P10" s="91"/>
+      <c r="Q10" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="R10" s="95"/>
-      <c r="S10" s="95"/>
-      <c r="T10" s="95"/>
-      <c r="U10" s="95"/>
-      <c r="V10" s="95"/>
-      <c r="W10" s="95"/>
-      <c r="X10" s="95"/>
-      <c r="Y10" s="95"/>
-      <c r="Z10" s="95"/>
-      <c r="AA10" s="95"/>
-      <c r="AB10" s="95"/>
-      <c r="AC10" s="95"/>
-      <c r="AD10" s="95"/>
-      <c r="AE10" s="96"/>
-      <c r="AF10" s="114" t="s">
+      <c r="R10" s="93"/>
+      <c r="S10" s="93"/>
+      <c r="T10" s="93"/>
+      <c r="U10" s="93"/>
+      <c r="V10" s="93"/>
+      <c r="W10" s="93"/>
+      <c r="X10" s="93"/>
+      <c r="Y10" s="93"/>
+      <c r="Z10" s="93"/>
+      <c r="AA10" s="93"/>
+      <c r="AB10" s="93"/>
+      <c r="AC10" s="93"/>
+      <c r="AD10" s="93"/>
+      <c r="AE10" s="94"/>
+      <c r="AF10" s="89" t="s">
         <v>34</v>
       </c>
-      <c r="AG10" s="92"/>
-      <c r="AH10" s="92"/>
-      <c r="AI10" s="93"/>
+      <c r="AG10" s="90"/>
+      <c r="AH10" s="90"/>
+      <c r="AI10" s="91"/>
     </row>
-    <row r="11" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="27"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="92"/>
-      <c r="L11" s="92"/>
-      <c r="M11" s="92"/>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="94"/>
-      <c r="R11" s="95"/>
-      <c r="S11" s="95"/>
-      <c r="T11" s="95"/>
-      <c r="U11" s="95"/>
-      <c r="V11" s="95"/>
-      <c r="W11" s="95"/>
-      <c r="X11" s="95"/>
-      <c r="Y11" s="95"/>
-      <c r="Z11" s="95"/>
-      <c r="AA11" s="95"/>
-      <c r="AB11" s="95"/>
-      <c r="AC11" s="95"/>
-      <c r="AD11" s="95"/>
-      <c r="AE11" s="96"/>
-      <c r="AF11" s="91"/>
-      <c r="AG11" s="92"/>
-      <c r="AH11" s="92"/>
-      <c r="AI11" s="93"/>
+    <row r="11" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="25"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="90"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="91"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="93"/>
+      <c r="S11" s="93"/>
+      <c r="T11" s="93"/>
+      <c r="U11" s="93"/>
+      <c r="V11" s="93"/>
+      <c r="W11" s="93"/>
+      <c r="X11" s="93"/>
+      <c r="Y11" s="93"/>
+      <c r="Z11" s="93"/>
+      <c r="AA11" s="93"/>
+      <c r="AB11" s="93"/>
+      <c r="AC11" s="93"/>
+      <c r="AD11" s="93"/>
+      <c r="AE11" s="94"/>
+      <c r="AF11" s="110"/>
+      <c r="AG11" s="90"/>
+      <c r="AH11" s="90"/>
+      <c r="AI11" s="91"/>
     </row>
-    <row r="12" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="27"/>
-      <c r="B12" s="85"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="92"/>
-      <c r="M12" s="92"/>
-      <c r="N12" s="92"/>
-      <c r="O12" s="92"/>
-      <c r="P12" s="93"/>
-      <c r="Q12" s="94"/>
-      <c r="R12" s="95"/>
-      <c r="S12" s="95"/>
-      <c r="T12" s="95"/>
-      <c r="U12" s="95"/>
-      <c r="V12" s="95"/>
-      <c r="W12" s="95"/>
-      <c r="X12" s="95"/>
-      <c r="Y12" s="95"/>
-      <c r="Z12" s="95"/>
-      <c r="AA12" s="95"/>
-      <c r="AB12" s="95"/>
-      <c r="AC12" s="95"/>
-      <c r="AD12" s="95"/>
-      <c r="AE12" s="96"/>
-      <c r="AF12" s="91"/>
-      <c r="AG12" s="92"/>
-      <c r="AH12" s="92"/>
-      <c r="AI12" s="93"/>
+    <row r="12" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="25"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="90"/>
+      <c r="N12" s="90"/>
+      <c r="O12" s="90"/>
+      <c r="P12" s="91"/>
+      <c r="Q12" s="111"/>
+      <c r="R12" s="93"/>
+      <c r="S12" s="93"/>
+      <c r="T12" s="93"/>
+      <c r="U12" s="93"/>
+      <c r="V12" s="93"/>
+      <c r="W12" s="93"/>
+      <c r="X12" s="93"/>
+      <c r="Y12" s="93"/>
+      <c r="Z12" s="93"/>
+      <c r="AA12" s="93"/>
+      <c r="AB12" s="93"/>
+      <c r="AC12" s="93"/>
+      <c r="AD12" s="93"/>
+      <c r="AE12" s="94"/>
+      <c r="AF12" s="110"/>
+      <c r="AG12" s="90"/>
+      <c r="AH12" s="90"/>
+      <c r="AI12" s="91"/>
     </row>
-    <row r="13" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="27"/>
-      <c r="B13" s="85"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="92"/>
-      <c r="L13" s="92"/>
-      <c r="M13" s="92"/>
-      <c r="N13" s="92"/>
-      <c r="O13" s="92"/>
-      <c r="P13" s="93"/>
-      <c r="Q13" s="94"/>
-      <c r="R13" s="95"/>
-      <c r="S13" s="95"/>
-      <c r="T13" s="95"/>
-      <c r="U13" s="95"/>
-      <c r="V13" s="95"/>
-      <c r="W13" s="95"/>
-      <c r="X13" s="95"/>
-      <c r="Y13" s="95"/>
-      <c r="Z13" s="95"/>
-      <c r="AA13" s="95"/>
-      <c r="AB13" s="95"/>
-      <c r="AC13" s="95"/>
-      <c r="AD13" s="95"/>
-      <c r="AE13" s="96"/>
-      <c r="AF13" s="91"/>
-      <c r="AG13" s="92"/>
-      <c r="AH13" s="92"/>
-      <c r="AI13" s="93"/>
+    <row r="13" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="25"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="90"/>
+      <c r="L13" s="90"/>
+      <c r="M13" s="90"/>
+      <c r="N13" s="90"/>
+      <c r="O13" s="90"/>
+      <c r="P13" s="91"/>
+      <c r="Q13" s="111"/>
+      <c r="R13" s="93"/>
+      <c r="S13" s="93"/>
+      <c r="T13" s="93"/>
+      <c r="U13" s="93"/>
+      <c r="V13" s="93"/>
+      <c r="W13" s="93"/>
+      <c r="X13" s="93"/>
+      <c r="Y13" s="93"/>
+      <c r="Z13" s="93"/>
+      <c r="AA13" s="93"/>
+      <c r="AB13" s="93"/>
+      <c r="AC13" s="93"/>
+      <c r="AD13" s="93"/>
+      <c r="AE13" s="94"/>
+      <c r="AF13" s="110"/>
+      <c r="AG13" s="90"/>
+      <c r="AH13" s="90"/>
+      <c r="AI13" s="91"/>
     </row>
-    <row r="14" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="27"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="92"/>
-      <c r="L14" s="92"/>
-      <c r="M14" s="92"/>
-      <c r="N14" s="92"/>
-      <c r="O14" s="92"/>
-      <c r="P14" s="93"/>
-      <c r="Q14" s="94"/>
-      <c r="R14" s="95"/>
-      <c r="S14" s="95"/>
-      <c r="T14" s="95"/>
-      <c r="U14" s="95"/>
-      <c r="V14" s="95"/>
-      <c r="W14" s="95"/>
-      <c r="X14" s="95"/>
-      <c r="Y14" s="95"/>
-      <c r="Z14" s="95"/>
-      <c r="AA14" s="95"/>
-      <c r="AB14" s="95"/>
-      <c r="AC14" s="95"/>
-      <c r="AD14" s="95"/>
-      <c r="AE14" s="96"/>
-      <c r="AF14" s="91"/>
-      <c r="AG14" s="92"/>
-      <c r="AH14" s="92"/>
-      <c r="AI14" s="93"/>
+    <row r="14" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="25"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="90"/>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="111"/>
+      <c r="R14" s="93"/>
+      <c r="S14" s="93"/>
+      <c r="T14" s="93"/>
+      <c r="U14" s="93"/>
+      <c r="V14" s="93"/>
+      <c r="W14" s="93"/>
+      <c r="X14" s="93"/>
+      <c r="Y14" s="93"/>
+      <c r="Z14" s="93"/>
+      <c r="AA14" s="93"/>
+      <c r="AB14" s="93"/>
+      <c r="AC14" s="93"/>
+      <c r="AD14" s="93"/>
+      <c r="AE14" s="94"/>
+      <c r="AF14" s="110"/>
+      <c r="AG14" s="90"/>
+      <c r="AH14" s="90"/>
+      <c r="AI14" s="91"/>
     </row>
-    <row r="15" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="27"/>
-      <c r="B15" s="85"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="89"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="92"/>
-      <c r="L15" s="92"/>
-      <c r="M15" s="92"/>
-      <c r="N15" s="92"/>
-      <c r="O15" s="92"/>
-      <c r="P15" s="93"/>
-      <c r="Q15" s="94"/>
-      <c r="R15" s="95"/>
-      <c r="S15" s="95"/>
-      <c r="T15" s="95"/>
-      <c r="U15" s="95"/>
-      <c r="V15" s="95"/>
-      <c r="W15" s="95"/>
-      <c r="X15" s="95"/>
-      <c r="Y15" s="95"/>
-      <c r="Z15" s="95"/>
-      <c r="AA15" s="95"/>
-      <c r="AB15" s="95"/>
-      <c r="AC15" s="95"/>
-      <c r="AD15" s="95"/>
-      <c r="AE15" s="96"/>
-      <c r="AF15" s="91"/>
-      <c r="AG15" s="92"/>
-      <c r="AH15" s="92"/>
-      <c r="AI15" s="93"/>
+    <row r="15" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="25"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="110"/>
+      <c r="K15" s="90"/>
+      <c r="L15" s="90"/>
+      <c r="M15" s="90"/>
+      <c r="N15" s="90"/>
+      <c r="O15" s="90"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="111"/>
+      <c r="R15" s="93"/>
+      <c r="S15" s="93"/>
+      <c r="T15" s="93"/>
+      <c r="U15" s="93"/>
+      <c r="V15" s="93"/>
+      <c r="W15" s="93"/>
+      <c r="X15" s="93"/>
+      <c r="Y15" s="93"/>
+      <c r="Z15" s="93"/>
+      <c r="AA15" s="93"/>
+      <c r="AB15" s="93"/>
+      <c r="AC15" s="93"/>
+      <c r="AD15" s="93"/>
+      <c r="AE15" s="94"/>
+      <c r="AF15" s="110"/>
+      <c r="AG15" s="90"/>
+      <c r="AH15" s="90"/>
+      <c r="AI15" s="91"/>
     </row>
-    <row r="16" spans="1:40" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="27"/>
-      <c r="B16" s="85"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="92"/>
-      <c r="L16" s="92"/>
-      <c r="M16" s="92"/>
-      <c r="N16" s="92"/>
-      <c r="O16" s="92"/>
-      <c r="P16" s="93"/>
-      <c r="Q16" s="94"/>
-      <c r="R16" s="95"/>
-      <c r="S16" s="95"/>
-      <c r="T16" s="95"/>
-      <c r="U16" s="95"/>
-      <c r="V16" s="95"/>
-      <c r="W16" s="95"/>
-      <c r="X16" s="95"/>
-      <c r="Y16" s="95"/>
-      <c r="Z16" s="95"/>
-      <c r="AA16" s="95"/>
-      <c r="AB16" s="95"/>
-      <c r="AC16" s="95"/>
-      <c r="AD16" s="95"/>
-      <c r="AE16" s="96"/>
-      <c r="AF16" s="91"/>
-      <c r="AG16" s="92"/>
-      <c r="AH16" s="92"/>
-      <c r="AI16" s="93"/>
+    <row r="16" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="25"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="90"/>
+      <c r="N16" s="90"/>
+      <c r="O16" s="90"/>
+      <c r="P16" s="91"/>
+      <c r="Q16" s="111"/>
+      <c r="R16" s="93"/>
+      <c r="S16" s="93"/>
+      <c r="T16" s="93"/>
+      <c r="U16" s="93"/>
+      <c r="V16" s="93"/>
+      <c r="W16" s="93"/>
+      <c r="X16" s="93"/>
+      <c r="Y16" s="93"/>
+      <c r="Z16" s="93"/>
+      <c r="AA16" s="93"/>
+      <c r="AB16" s="93"/>
+      <c r="AC16" s="93"/>
+      <c r="AD16" s="93"/>
+      <c r="AE16" s="94"/>
+      <c r="AF16" s="110"/>
+      <c r="AG16" s="90"/>
+      <c r="AH16" s="90"/>
+      <c r="AI16" s="91"/>
     </row>
-    <row r="17" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="27"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="92"/>
-      <c r="L17" s="92"/>
-      <c r="M17" s="92"/>
-      <c r="N17" s="92"/>
-      <c r="O17" s="92"/>
-      <c r="P17" s="93"/>
-      <c r="Q17" s="94"/>
-      <c r="R17" s="95"/>
-      <c r="S17" s="95"/>
-      <c r="T17" s="95"/>
-      <c r="U17" s="95"/>
-      <c r="V17" s="95"/>
-      <c r="W17" s="95"/>
-      <c r="X17" s="95"/>
-      <c r="Y17" s="95"/>
-      <c r="Z17" s="95"/>
-      <c r="AA17" s="95"/>
-      <c r="AB17" s="95"/>
-      <c r="AC17" s="95"/>
-      <c r="AD17" s="95"/>
-      <c r="AE17" s="96"/>
-      <c r="AF17" s="91"/>
-      <c r="AG17" s="92"/>
-      <c r="AH17" s="92"/>
-      <c r="AI17" s="93"/>
+    <row r="17" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="25"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="90"/>
+      <c r="P17" s="91"/>
+      <c r="Q17" s="111"/>
+      <c r="R17" s="93"/>
+      <c r="S17" s="93"/>
+      <c r="T17" s="93"/>
+      <c r="U17" s="93"/>
+      <c r="V17" s="93"/>
+      <c r="W17" s="93"/>
+      <c r="X17" s="93"/>
+      <c r="Y17" s="93"/>
+      <c r="Z17" s="93"/>
+      <c r="AA17" s="93"/>
+      <c r="AB17" s="93"/>
+      <c r="AC17" s="93"/>
+      <c r="AD17" s="93"/>
+      <c r="AE17" s="94"/>
+      <c r="AF17" s="110"/>
+      <c r="AG17" s="90"/>
+      <c r="AH17" s="90"/>
+      <c r="AI17" s="91"/>
     </row>
-    <row r="18" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="27"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="92"/>
-      <c r="M18" s="92"/>
-      <c r="N18" s="92"/>
-      <c r="O18" s="92"/>
-      <c r="P18" s="93"/>
-      <c r="Q18" s="94"/>
-      <c r="R18" s="95"/>
-      <c r="S18" s="95"/>
-      <c r="T18" s="95"/>
-      <c r="U18" s="95"/>
-      <c r="V18" s="95"/>
-      <c r="W18" s="95"/>
-      <c r="X18" s="95"/>
-      <c r="Y18" s="95"/>
-      <c r="Z18" s="95"/>
-      <c r="AA18" s="95"/>
-      <c r="AB18" s="95"/>
-      <c r="AC18" s="95"/>
-      <c r="AD18" s="95"/>
-      <c r="AE18" s="96"/>
-      <c r="AF18" s="91"/>
-      <c r="AG18" s="92"/>
-      <c r="AH18" s="92"/>
-      <c r="AI18" s="93"/>
+    <row r="18" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="25"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="109"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="110"/>
+      <c r="K18" s="90"/>
+      <c r="L18" s="90"/>
+      <c r="M18" s="90"/>
+      <c r="N18" s="90"/>
+      <c r="O18" s="90"/>
+      <c r="P18" s="91"/>
+      <c r="Q18" s="111"/>
+      <c r="R18" s="93"/>
+      <c r="S18" s="93"/>
+      <c r="T18" s="93"/>
+      <c r="U18" s="93"/>
+      <c r="V18" s="93"/>
+      <c r="W18" s="93"/>
+      <c r="X18" s="93"/>
+      <c r="Y18" s="93"/>
+      <c r="Z18" s="93"/>
+      <c r="AA18" s="93"/>
+      <c r="AB18" s="93"/>
+      <c r="AC18" s="93"/>
+      <c r="AD18" s="93"/>
+      <c r="AE18" s="94"/>
+      <c r="AF18" s="110"/>
+      <c r="AG18" s="90"/>
+      <c r="AH18" s="90"/>
+      <c r="AI18" s="91"/>
     </row>
-    <row r="19" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="27"/>
-      <c r="B19" s="85"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="89"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="92"/>
-      <c r="L19" s="92"/>
-      <c r="M19" s="92"/>
-      <c r="N19" s="92"/>
-      <c r="O19" s="92"/>
-      <c r="P19" s="93"/>
-      <c r="Q19" s="94"/>
-      <c r="R19" s="95"/>
-      <c r="S19" s="95"/>
-      <c r="T19" s="95"/>
-      <c r="U19" s="95"/>
-      <c r="V19" s="95"/>
-      <c r="W19" s="95"/>
-      <c r="X19" s="95"/>
-      <c r="Y19" s="95"/>
-      <c r="Z19" s="95"/>
-      <c r="AA19" s="95"/>
-      <c r="AB19" s="95"/>
-      <c r="AC19" s="95"/>
-      <c r="AD19" s="95"/>
-      <c r="AE19" s="96"/>
-      <c r="AF19" s="91"/>
-      <c r="AG19" s="92"/>
-      <c r="AH19" s="92"/>
-      <c r="AI19" s="93"/>
+    <row r="19" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="25"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="90"/>
+      <c r="L19" s="90"/>
+      <c r="M19" s="90"/>
+      <c r="N19" s="90"/>
+      <c r="O19" s="90"/>
+      <c r="P19" s="91"/>
+      <c r="Q19" s="111"/>
+      <c r="R19" s="93"/>
+      <c r="S19" s="93"/>
+      <c r="T19" s="93"/>
+      <c r="U19" s="93"/>
+      <c r="V19" s="93"/>
+      <c r="W19" s="93"/>
+      <c r="X19" s="93"/>
+      <c r="Y19" s="93"/>
+      <c r="Z19" s="93"/>
+      <c r="AA19" s="93"/>
+      <c r="AB19" s="93"/>
+      <c r="AC19" s="93"/>
+      <c r="AD19" s="93"/>
+      <c r="AE19" s="94"/>
+      <c r="AF19" s="110"/>
+      <c r="AG19" s="90"/>
+      <c r="AH19" s="90"/>
+      <c r="AI19" s="91"/>
     </row>
-    <row r="20" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="27"/>
-      <c r="B20" s="85"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="89"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="92"/>
-      <c r="L20" s="92"/>
-      <c r="M20" s="92"/>
-      <c r="N20" s="92"/>
-      <c r="O20" s="92"/>
-      <c r="P20" s="93"/>
-      <c r="Q20" s="94"/>
-      <c r="R20" s="95"/>
-      <c r="S20" s="95"/>
-      <c r="T20" s="95"/>
-      <c r="U20" s="95"/>
-      <c r="V20" s="95"/>
-      <c r="W20" s="95"/>
-      <c r="X20" s="95"/>
-      <c r="Y20" s="95"/>
-      <c r="Z20" s="95"/>
-      <c r="AA20" s="95"/>
-      <c r="AB20" s="95"/>
-      <c r="AC20" s="95"/>
-      <c r="AD20" s="95"/>
-      <c r="AE20" s="96"/>
-      <c r="AF20" s="91"/>
-      <c r="AG20" s="92"/>
-      <c r="AH20" s="92"/>
-      <c r="AI20" s="93"/>
+    <row r="20" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="25"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="109"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="110"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="90"/>
+      <c r="M20" s="90"/>
+      <c r="N20" s="90"/>
+      <c r="O20" s="90"/>
+      <c r="P20" s="91"/>
+      <c r="Q20" s="111"/>
+      <c r="R20" s="93"/>
+      <c r="S20" s="93"/>
+      <c r="T20" s="93"/>
+      <c r="U20" s="93"/>
+      <c r="V20" s="93"/>
+      <c r="W20" s="93"/>
+      <c r="X20" s="93"/>
+      <c r="Y20" s="93"/>
+      <c r="Z20" s="93"/>
+      <c r="AA20" s="93"/>
+      <c r="AB20" s="93"/>
+      <c r="AC20" s="93"/>
+      <c r="AD20" s="93"/>
+      <c r="AE20" s="94"/>
+      <c r="AF20" s="110"/>
+      <c r="AG20" s="90"/>
+      <c r="AH20" s="90"/>
+      <c r="AI20" s="91"/>
     </row>
-    <row r="21" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="27"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="92"/>
-      <c r="L21" s="92"/>
-      <c r="M21" s="92"/>
-      <c r="N21" s="92"/>
-      <c r="O21" s="92"/>
-      <c r="P21" s="93"/>
-      <c r="Q21" s="94"/>
-      <c r="R21" s="95"/>
-      <c r="S21" s="95"/>
-      <c r="T21" s="95"/>
-      <c r="U21" s="95"/>
-      <c r="V21" s="95"/>
-      <c r="W21" s="95"/>
-      <c r="X21" s="95"/>
-      <c r="Y21" s="95"/>
-      <c r="Z21" s="95"/>
-      <c r="AA21" s="95"/>
-      <c r="AB21" s="95"/>
-      <c r="AC21" s="95"/>
-      <c r="AD21" s="95"/>
-      <c r="AE21" s="96"/>
-      <c r="AF21" s="91"/>
-      <c r="AG21" s="92"/>
-      <c r="AH21" s="92"/>
-      <c r="AI21" s="93"/>
+    <row r="21" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="25"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="109"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="110"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="90"/>
+      <c r="N21" s="90"/>
+      <c r="O21" s="90"/>
+      <c r="P21" s="91"/>
+      <c r="Q21" s="111"/>
+      <c r="R21" s="93"/>
+      <c r="S21" s="93"/>
+      <c r="T21" s="93"/>
+      <c r="U21" s="93"/>
+      <c r="V21" s="93"/>
+      <c r="W21" s="93"/>
+      <c r="X21" s="93"/>
+      <c r="Y21" s="93"/>
+      <c r="Z21" s="93"/>
+      <c r="AA21" s="93"/>
+      <c r="AB21" s="93"/>
+      <c r="AC21" s="93"/>
+      <c r="AD21" s="93"/>
+      <c r="AE21" s="94"/>
+      <c r="AF21" s="110"/>
+      <c r="AG21" s="90"/>
+      <c r="AH21" s="90"/>
+      <c r="AI21" s="91"/>
     </row>
-    <row r="22" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="27"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="92"/>
-      <c r="L22" s="92"/>
-      <c r="M22" s="92"/>
-      <c r="N22" s="92"/>
-      <c r="O22" s="92"/>
-      <c r="P22" s="93"/>
-      <c r="Q22" s="94"/>
-      <c r="R22" s="95"/>
-      <c r="S22" s="95"/>
-      <c r="T22" s="95"/>
-      <c r="U22" s="95"/>
-      <c r="V22" s="95"/>
-      <c r="W22" s="95"/>
-      <c r="X22" s="95"/>
-      <c r="Y22" s="95"/>
-      <c r="Z22" s="95"/>
-      <c r="AA22" s="95"/>
-      <c r="AB22" s="95"/>
-      <c r="AC22" s="95"/>
-      <c r="AD22" s="95"/>
-      <c r="AE22" s="96"/>
-      <c r="AF22" s="91"/>
-      <c r="AG22" s="92"/>
-      <c r="AH22" s="92"/>
-      <c r="AI22" s="93"/>
+    <row r="22" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="25"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="110"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="90"/>
+      <c r="M22" s="90"/>
+      <c r="N22" s="90"/>
+      <c r="O22" s="90"/>
+      <c r="P22" s="91"/>
+      <c r="Q22" s="111"/>
+      <c r="R22" s="93"/>
+      <c r="S22" s="93"/>
+      <c r="T22" s="93"/>
+      <c r="U22" s="93"/>
+      <c r="V22" s="93"/>
+      <c r="W22" s="93"/>
+      <c r="X22" s="93"/>
+      <c r="Y22" s="93"/>
+      <c r="Z22" s="93"/>
+      <c r="AA22" s="93"/>
+      <c r="AB22" s="93"/>
+      <c r="AC22" s="93"/>
+      <c r="AD22" s="93"/>
+      <c r="AE22" s="94"/>
+      <c r="AF22" s="110"/>
+      <c r="AG22" s="90"/>
+      <c r="AH22" s="90"/>
+      <c r="AI22" s="91"/>
     </row>
-    <row r="23" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="27"/>
-      <c r="B23" s="85"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="89"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="92"/>
-      <c r="L23" s="92"/>
-      <c r="M23" s="92"/>
-      <c r="N23" s="92"/>
-      <c r="O23" s="92"/>
-      <c r="P23" s="93"/>
-      <c r="Q23" s="94"/>
-      <c r="R23" s="95"/>
-      <c r="S23" s="95"/>
-      <c r="T23" s="95"/>
-      <c r="U23" s="95"/>
-      <c r="V23" s="95"/>
-      <c r="W23" s="95"/>
-      <c r="X23" s="95"/>
-      <c r="Y23" s="95"/>
-      <c r="Z23" s="95"/>
-      <c r="AA23" s="95"/>
-      <c r="AB23" s="95"/>
-      <c r="AC23" s="95"/>
-      <c r="AD23" s="95"/>
-      <c r="AE23" s="96"/>
-      <c r="AF23" s="91"/>
-      <c r="AG23" s="92"/>
-      <c r="AH23" s="92"/>
-      <c r="AI23" s="93"/>
+    <row r="23" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="25"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="83"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="90"/>
+      <c r="L23" s="90"/>
+      <c r="M23" s="90"/>
+      <c r="N23" s="90"/>
+      <c r="O23" s="90"/>
+      <c r="P23" s="91"/>
+      <c r="Q23" s="111"/>
+      <c r="R23" s="93"/>
+      <c r="S23" s="93"/>
+      <c r="T23" s="93"/>
+      <c r="U23" s="93"/>
+      <c r="V23" s="93"/>
+      <c r="W23" s="93"/>
+      <c r="X23" s="93"/>
+      <c r="Y23" s="93"/>
+      <c r="Z23" s="93"/>
+      <c r="AA23" s="93"/>
+      <c r="AB23" s="93"/>
+      <c r="AC23" s="93"/>
+      <c r="AD23" s="93"/>
+      <c r="AE23" s="94"/>
+      <c r="AF23" s="110"/>
+      <c r="AG23" s="90"/>
+      <c r="AH23" s="90"/>
+      <c r="AI23" s="91"/>
     </row>
-    <row r="24" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="27"/>
-      <c r="B24" s="85"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="92"/>
-      <c r="L24" s="92"/>
-      <c r="M24" s="92"/>
-      <c r="N24" s="92"/>
-      <c r="O24" s="92"/>
-      <c r="P24" s="93"/>
-      <c r="Q24" s="94"/>
-      <c r="R24" s="95"/>
-      <c r="S24" s="95"/>
-      <c r="T24" s="95"/>
-      <c r="U24" s="95"/>
-      <c r="V24" s="95"/>
-      <c r="W24" s="95"/>
-      <c r="X24" s="95"/>
-      <c r="Y24" s="95"/>
-      <c r="Z24" s="95"/>
-      <c r="AA24" s="95"/>
-      <c r="AB24" s="95"/>
-      <c r="AC24" s="95"/>
-      <c r="AD24" s="95"/>
-      <c r="AE24" s="96"/>
-      <c r="AF24" s="91"/>
-      <c r="AG24" s="92"/>
-      <c r="AH24" s="92"/>
-      <c r="AI24" s="93"/>
+    <row r="24" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="25"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="109"/>
+      <c r="H24" s="88"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="90"/>
+      <c r="L24" s="90"/>
+      <c r="M24" s="90"/>
+      <c r="N24" s="90"/>
+      <c r="O24" s="90"/>
+      <c r="P24" s="91"/>
+      <c r="Q24" s="111"/>
+      <c r="R24" s="93"/>
+      <c r="S24" s="93"/>
+      <c r="T24" s="93"/>
+      <c r="U24" s="93"/>
+      <c r="V24" s="93"/>
+      <c r="W24" s="93"/>
+      <c r="X24" s="93"/>
+      <c r="Y24" s="93"/>
+      <c r="Z24" s="93"/>
+      <c r="AA24" s="93"/>
+      <c r="AB24" s="93"/>
+      <c r="AC24" s="93"/>
+      <c r="AD24" s="93"/>
+      <c r="AE24" s="94"/>
+      <c r="AF24" s="110"/>
+      <c r="AG24" s="90"/>
+      <c r="AH24" s="90"/>
+      <c r="AI24" s="91"/>
     </row>
-    <row r="25" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="27"/>
-      <c r="B25" s="85"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="92"/>
-      <c r="L25" s="92"/>
-      <c r="M25" s="92"/>
-      <c r="N25" s="92"/>
-      <c r="O25" s="92"/>
-      <c r="P25" s="93"/>
-      <c r="Q25" s="94"/>
-      <c r="R25" s="95"/>
-      <c r="S25" s="95"/>
-      <c r="T25" s="95"/>
-      <c r="U25" s="95"/>
-      <c r="V25" s="95"/>
-      <c r="W25" s="95"/>
-      <c r="X25" s="95"/>
-      <c r="Y25" s="95"/>
-      <c r="Z25" s="95"/>
-      <c r="AA25" s="95"/>
-      <c r="AB25" s="95"/>
-      <c r="AC25" s="95"/>
-      <c r="AD25" s="95"/>
-      <c r="AE25" s="96"/>
-      <c r="AF25" s="91"/>
-      <c r="AG25" s="92"/>
-      <c r="AH25" s="92"/>
-      <c r="AI25" s="93"/>
+    <row r="25" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="25"/>
+      <c r="B25" s="109"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="90"/>
+      <c r="P25" s="91"/>
+      <c r="Q25" s="111"/>
+      <c r="R25" s="93"/>
+      <c r="S25" s="93"/>
+      <c r="T25" s="93"/>
+      <c r="U25" s="93"/>
+      <c r="V25" s="93"/>
+      <c r="W25" s="93"/>
+      <c r="X25" s="93"/>
+      <c r="Y25" s="93"/>
+      <c r="Z25" s="93"/>
+      <c r="AA25" s="93"/>
+      <c r="AB25" s="93"/>
+      <c r="AC25" s="93"/>
+      <c r="AD25" s="93"/>
+      <c r="AE25" s="94"/>
+      <c r="AF25" s="110"/>
+      <c r="AG25" s="90"/>
+      <c r="AH25" s="90"/>
+      <c r="AI25" s="91"/>
     </row>
-    <row r="26" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="27"/>
-      <c r="B26" s="85"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="92"/>
-      <c r="L26" s="92"/>
-      <c r="M26" s="92"/>
-      <c r="N26" s="92"/>
-      <c r="O26" s="92"/>
-      <c r="P26" s="93"/>
-      <c r="Q26" s="94"/>
-      <c r="R26" s="95"/>
-      <c r="S26" s="95"/>
-      <c r="T26" s="95"/>
-      <c r="U26" s="95"/>
-      <c r="V26" s="95"/>
-      <c r="W26" s="95"/>
-      <c r="X26" s="95"/>
-      <c r="Y26" s="95"/>
-      <c r="Z26" s="95"/>
-      <c r="AA26" s="95"/>
-      <c r="AB26" s="95"/>
-      <c r="AC26" s="95"/>
-      <c r="AD26" s="95"/>
-      <c r="AE26" s="96"/>
-      <c r="AF26" s="91"/>
-      <c r="AG26" s="92"/>
-      <c r="AH26" s="92"/>
-      <c r="AI26" s="93"/>
+    <row r="26" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="25"/>
+      <c r="B26" s="109"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="109"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="83"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="90"/>
+      <c r="L26" s="90"/>
+      <c r="M26" s="90"/>
+      <c r="N26" s="90"/>
+      <c r="O26" s="90"/>
+      <c r="P26" s="91"/>
+      <c r="Q26" s="111"/>
+      <c r="R26" s="93"/>
+      <c r="S26" s="93"/>
+      <c r="T26" s="93"/>
+      <c r="U26" s="93"/>
+      <c r="V26" s="93"/>
+      <c r="W26" s="93"/>
+      <c r="X26" s="93"/>
+      <c r="Y26" s="93"/>
+      <c r="Z26" s="93"/>
+      <c r="AA26" s="93"/>
+      <c r="AB26" s="93"/>
+      <c r="AC26" s="93"/>
+      <c r="AD26" s="93"/>
+      <c r="AE26" s="94"/>
+      <c r="AF26" s="110"/>
+      <c r="AG26" s="90"/>
+      <c r="AH26" s="90"/>
+      <c r="AI26" s="91"/>
     </row>
-    <row r="27" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="27"/>
-      <c r="B27" s="85"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="87"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="92"/>
-      <c r="L27" s="92"/>
-      <c r="M27" s="92"/>
-      <c r="N27" s="92"/>
-      <c r="O27" s="92"/>
-      <c r="P27" s="93"/>
-      <c r="Q27" s="94"/>
-      <c r="R27" s="95"/>
-      <c r="S27" s="95"/>
-      <c r="T27" s="95"/>
-      <c r="U27" s="95"/>
-      <c r="V27" s="95"/>
-      <c r="W27" s="95"/>
-      <c r="X27" s="95"/>
-      <c r="Y27" s="95"/>
-      <c r="Z27" s="95"/>
-      <c r="AA27" s="95"/>
-      <c r="AB27" s="95"/>
-      <c r="AC27" s="95"/>
-      <c r="AD27" s="95"/>
-      <c r="AE27" s="96"/>
-      <c r="AF27" s="91"/>
-      <c r="AG27" s="92"/>
-      <c r="AH27" s="92"/>
-      <c r="AI27" s="93"/>
+    <row r="27" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="25"/>
+      <c r="B27" s="109"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="90"/>
+      <c r="L27" s="90"/>
+      <c r="M27" s="90"/>
+      <c r="N27" s="90"/>
+      <c r="O27" s="90"/>
+      <c r="P27" s="91"/>
+      <c r="Q27" s="111"/>
+      <c r="R27" s="93"/>
+      <c r="S27" s="93"/>
+      <c r="T27" s="93"/>
+      <c r="U27" s="93"/>
+      <c r="V27" s="93"/>
+      <c r="W27" s="93"/>
+      <c r="X27" s="93"/>
+      <c r="Y27" s="93"/>
+      <c r="Z27" s="93"/>
+      <c r="AA27" s="93"/>
+      <c r="AB27" s="93"/>
+      <c r="AC27" s="93"/>
+      <c r="AD27" s="93"/>
+      <c r="AE27" s="94"/>
+      <c r="AF27" s="110"/>
+      <c r="AG27" s="90"/>
+      <c r="AH27" s="90"/>
+      <c r="AI27" s="91"/>
     </row>
-    <row r="28" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="27"/>
-      <c r="B28" s="85"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="91"/>
-      <c r="K28" s="92"/>
-      <c r="L28" s="92"/>
-      <c r="M28" s="92"/>
-      <c r="N28" s="92"/>
-      <c r="O28" s="92"/>
-      <c r="P28" s="93"/>
-      <c r="Q28" s="94"/>
-      <c r="R28" s="95"/>
-      <c r="S28" s="95"/>
-      <c r="T28" s="95"/>
-      <c r="U28" s="95"/>
-      <c r="V28" s="95"/>
-      <c r="W28" s="95"/>
-      <c r="X28" s="95"/>
-      <c r="Y28" s="95"/>
-      <c r="Z28" s="95"/>
-      <c r="AA28" s="95"/>
-      <c r="AB28" s="95"/>
-      <c r="AC28" s="95"/>
-      <c r="AD28" s="95"/>
-      <c r="AE28" s="96"/>
-      <c r="AF28" s="91"/>
-      <c r="AG28" s="92"/>
-      <c r="AH28" s="92"/>
-      <c r="AI28" s="93"/>
+    <row r="28" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="25"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="109"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="83"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="90"/>
+      <c r="L28" s="90"/>
+      <c r="M28" s="90"/>
+      <c r="N28" s="90"/>
+      <c r="O28" s="90"/>
+      <c r="P28" s="91"/>
+      <c r="Q28" s="111"/>
+      <c r="R28" s="93"/>
+      <c r="S28" s="93"/>
+      <c r="T28" s="93"/>
+      <c r="U28" s="93"/>
+      <c r="V28" s="93"/>
+      <c r="W28" s="93"/>
+      <c r="X28" s="93"/>
+      <c r="Y28" s="93"/>
+      <c r="Z28" s="93"/>
+      <c r="AA28" s="93"/>
+      <c r="AB28" s="93"/>
+      <c r="AC28" s="93"/>
+      <c r="AD28" s="93"/>
+      <c r="AE28" s="94"/>
+      <c r="AF28" s="110"/>
+      <c r="AG28" s="90"/>
+      <c r="AH28" s="90"/>
+      <c r="AI28" s="91"/>
     </row>
-    <row r="29" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="27"/>
-      <c r="B29" s="85"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="90"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="91"/>
-      <c r="K29" s="92"/>
-      <c r="L29" s="92"/>
-      <c r="M29" s="92"/>
-      <c r="N29" s="92"/>
-      <c r="O29" s="92"/>
-      <c r="P29" s="93"/>
-      <c r="Q29" s="94"/>
-      <c r="R29" s="95"/>
-      <c r="S29" s="95"/>
-      <c r="T29" s="95"/>
-      <c r="U29" s="95"/>
-      <c r="V29" s="95"/>
-      <c r="W29" s="95"/>
-      <c r="X29" s="95"/>
-      <c r="Y29" s="95"/>
-      <c r="Z29" s="95"/>
-      <c r="AA29" s="95"/>
-      <c r="AB29" s="95"/>
-      <c r="AC29" s="95"/>
-      <c r="AD29" s="95"/>
-      <c r="AE29" s="96"/>
-      <c r="AF29" s="91"/>
-      <c r="AG29" s="92"/>
-      <c r="AH29" s="92"/>
-      <c r="AI29" s="93"/>
+    <row r="29" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="25"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="109"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="83"/>
+      <c r="J29" s="110"/>
+      <c r="K29" s="90"/>
+      <c r="L29" s="90"/>
+      <c r="M29" s="90"/>
+      <c r="N29" s="90"/>
+      <c r="O29" s="90"/>
+      <c r="P29" s="91"/>
+      <c r="Q29" s="111"/>
+      <c r="R29" s="93"/>
+      <c r="S29" s="93"/>
+      <c r="T29" s="93"/>
+      <c r="U29" s="93"/>
+      <c r="V29" s="93"/>
+      <c r="W29" s="93"/>
+      <c r="X29" s="93"/>
+      <c r="Y29" s="93"/>
+      <c r="Z29" s="93"/>
+      <c r="AA29" s="93"/>
+      <c r="AB29" s="93"/>
+      <c r="AC29" s="93"/>
+      <c r="AD29" s="93"/>
+      <c r="AE29" s="94"/>
+      <c r="AF29" s="110"/>
+      <c r="AG29" s="90"/>
+      <c r="AH29" s="90"/>
+      <c r="AI29" s="91"/>
     </row>
-    <row r="30" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="27"/>
-      <c r="B30" s="85"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="86"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="92"/>
-      <c r="L30" s="92"/>
-      <c r="M30" s="92"/>
-      <c r="N30" s="92"/>
-      <c r="O30" s="92"/>
-      <c r="P30" s="93"/>
-      <c r="Q30" s="94"/>
-      <c r="R30" s="95"/>
-      <c r="S30" s="95"/>
-      <c r="T30" s="95"/>
-      <c r="U30" s="95"/>
-      <c r="V30" s="95"/>
-      <c r="W30" s="95"/>
-      <c r="X30" s="95"/>
-      <c r="Y30" s="95"/>
-      <c r="Z30" s="95"/>
-      <c r="AA30" s="95"/>
-      <c r="AB30" s="95"/>
-      <c r="AC30" s="95"/>
-      <c r="AD30" s="95"/>
-      <c r="AE30" s="96"/>
-      <c r="AF30" s="91"/>
-      <c r="AG30" s="92"/>
-      <c r="AH30" s="92"/>
-      <c r="AI30" s="93"/>
+    <row r="30" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="25"/>
+      <c r="B30" s="109"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="109"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="90"/>
+      <c r="L30" s="90"/>
+      <c r="M30" s="90"/>
+      <c r="N30" s="90"/>
+      <c r="O30" s="90"/>
+      <c r="P30" s="91"/>
+      <c r="Q30" s="111"/>
+      <c r="R30" s="93"/>
+      <c r="S30" s="93"/>
+      <c r="T30" s="93"/>
+      <c r="U30" s="93"/>
+      <c r="V30" s="93"/>
+      <c r="W30" s="93"/>
+      <c r="X30" s="93"/>
+      <c r="Y30" s="93"/>
+      <c r="Z30" s="93"/>
+      <c r="AA30" s="93"/>
+      <c r="AB30" s="93"/>
+      <c r="AC30" s="93"/>
+      <c r="AD30" s="93"/>
+      <c r="AE30" s="94"/>
+      <c r="AF30" s="110"/>
+      <c r="AG30" s="90"/>
+      <c r="AH30" s="90"/>
+      <c r="AI30" s="91"/>
     </row>
-    <row r="31" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="27"/>
-      <c r="B31" s="85"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="88"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="90"/>
-      <c r="I31" s="86"/>
-      <c r="J31" s="91"/>
-      <c r="K31" s="92"/>
-      <c r="L31" s="92"/>
-      <c r="M31" s="92"/>
-      <c r="N31" s="92"/>
-      <c r="O31" s="92"/>
-      <c r="P31" s="93"/>
-      <c r="Q31" s="94"/>
-      <c r="R31" s="95"/>
-      <c r="S31" s="95"/>
-      <c r="T31" s="95"/>
-      <c r="U31" s="95"/>
-      <c r="V31" s="95"/>
-      <c r="W31" s="95"/>
-      <c r="X31" s="95"/>
-      <c r="Y31" s="95"/>
-      <c r="Z31" s="95"/>
-      <c r="AA31" s="95"/>
-      <c r="AB31" s="95"/>
-      <c r="AC31" s="95"/>
-      <c r="AD31" s="95"/>
-      <c r="AE31" s="96"/>
-      <c r="AF31" s="91"/>
-      <c r="AG31" s="92"/>
-      <c r="AH31" s="92"/>
-      <c r="AI31" s="93"/>
+    <row r="31" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="25"/>
+      <c r="B31" s="109"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="109"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="83"/>
+      <c r="J31" s="110"/>
+      <c r="K31" s="90"/>
+      <c r="L31" s="90"/>
+      <c r="M31" s="90"/>
+      <c r="N31" s="90"/>
+      <c r="O31" s="90"/>
+      <c r="P31" s="91"/>
+      <c r="Q31" s="111"/>
+      <c r="R31" s="93"/>
+      <c r="S31" s="93"/>
+      <c r="T31" s="93"/>
+      <c r="U31" s="93"/>
+      <c r="V31" s="93"/>
+      <c r="W31" s="93"/>
+      <c r="X31" s="93"/>
+      <c r="Y31" s="93"/>
+      <c r="Z31" s="93"/>
+      <c r="AA31" s="93"/>
+      <c r="AB31" s="93"/>
+      <c r="AC31" s="93"/>
+      <c r="AD31" s="93"/>
+      <c r="AE31" s="94"/>
+      <c r="AF31" s="110"/>
+      <c r="AG31" s="90"/>
+      <c r="AH31" s="90"/>
+      <c r="AI31" s="91"/>
     </row>
-    <row r="32" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="27"/>
-      <c r="B32" s="85"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="86"/>
-      <c r="J32" s="91"/>
-      <c r="K32" s="111"/>
-      <c r="L32" s="92"/>
-      <c r="M32" s="92"/>
-      <c r="N32" s="92"/>
-      <c r="O32" s="92"/>
-      <c r="P32" s="93"/>
-      <c r="Q32" s="94"/>
-      <c r="R32" s="95"/>
-      <c r="S32" s="95"/>
-      <c r="T32" s="95"/>
-      <c r="U32" s="95"/>
-      <c r="V32" s="95"/>
-      <c r="W32" s="95"/>
-      <c r="X32" s="95"/>
-      <c r="Y32" s="95"/>
-      <c r="Z32" s="95"/>
-      <c r="AA32" s="95"/>
-      <c r="AB32" s="95"/>
-      <c r="AC32" s="95"/>
-      <c r="AD32" s="95"/>
-      <c r="AE32" s="96"/>
-      <c r="AF32" s="91"/>
-      <c r="AG32" s="92"/>
-      <c r="AH32" s="92"/>
-      <c r="AI32" s="93"/>
+    <row r="32" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="25"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="109"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="83"/>
+      <c r="J32" s="110"/>
+      <c r="K32" s="112"/>
+      <c r="L32" s="90"/>
+      <c r="M32" s="90"/>
+      <c r="N32" s="90"/>
+      <c r="O32" s="90"/>
+      <c r="P32" s="91"/>
+      <c r="Q32" s="111"/>
+      <c r="R32" s="93"/>
+      <c r="S32" s="93"/>
+      <c r="T32" s="93"/>
+      <c r="U32" s="93"/>
+      <c r="V32" s="93"/>
+      <c r="W32" s="93"/>
+      <c r="X32" s="93"/>
+      <c r="Y32" s="93"/>
+      <c r="Z32" s="93"/>
+      <c r="AA32" s="93"/>
+      <c r="AB32" s="93"/>
+      <c r="AC32" s="93"/>
+      <c r="AD32" s="93"/>
+      <c r="AE32" s="94"/>
+      <c r="AF32" s="110"/>
+      <c r="AG32" s="90"/>
+      <c r="AH32" s="90"/>
+      <c r="AI32" s="91"/>
     </row>
-    <row r="33" spans="1:35" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="27"/>
-      <c r="B33" s="85"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="90"/>
-      <c r="I33" s="86"/>
-      <c r="J33" s="91"/>
-      <c r="K33" s="92"/>
-      <c r="L33" s="92"/>
-      <c r="M33" s="92"/>
-      <c r="N33" s="92"/>
-      <c r="O33" s="92"/>
-      <c r="P33" s="93"/>
-      <c r="Q33" s="94"/>
-      <c r="R33" s="95"/>
-      <c r="S33" s="95"/>
-      <c r="T33" s="95"/>
-      <c r="U33" s="95"/>
-      <c r="V33" s="95"/>
-      <c r="W33" s="95"/>
-      <c r="X33" s="95"/>
-      <c r="Y33" s="95"/>
-      <c r="Z33" s="95"/>
-      <c r="AA33" s="95"/>
-      <c r="AB33" s="95"/>
-      <c r="AC33" s="95"/>
-      <c r="AD33" s="95"/>
-      <c r="AE33" s="96"/>
-      <c r="AF33" s="91"/>
-      <c r="AG33" s="92"/>
-      <c r="AH33" s="92"/>
-      <c r="AI33" s="93"/>
+    <row r="33" spans="1:35" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="25"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="109"/>
+      <c r="H33" s="88"/>
+      <c r="I33" s="83"/>
+      <c r="J33" s="110"/>
+      <c r="K33" s="90"/>
+      <c r="L33" s="90"/>
+      <c r="M33" s="90"/>
+      <c r="N33" s="90"/>
+      <c r="O33" s="90"/>
+      <c r="P33" s="91"/>
+      <c r="Q33" s="111"/>
+      <c r="R33" s="93"/>
+      <c r="S33" s="93"/>
+      <c r="T33" s="93"/>
+      <c r="U33" s="93"/>
+      <c r="V33" s="93"/>
+      <c r="W33" s="93"/>
+      <c r="X33" s="93"/>
+      <c r="Y33" s="93"/>
+      <c r="Z33" s="93"/>
+      <c r="AA33" s="93"/>
+      <c r="AB33" s="93"/>
+      <c r="AC33" s="93"/>
+      <c r="AD33" s="93"/>
+      <c r="AE33" s="94"/>
+      <c r="AF33" s="110"/>
+      <c r="AG33" s="90"/>
+      <c r="AH33" s="90"/>
+      <c r="AI33" s="91"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="K34" s="29"/>
+      <c r="K34" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="179">
@@ -45411,846 +45404,400 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:DN102"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A31" zoomScale="80" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="BC82" sqref="BC82"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="1.1640625" style="20" customWidth="1"/>
-    <col min="2" max="16384" width="3.5" style="20"/>
+    <col min="1" max="1" width="1.1640625" style="18" customWidth="1"/>
+    <col min="2" max="16384" width="3.5" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:50" s="8" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="2:50" s="7" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="B1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="AS1" s="9"/>
-      <c r="AX1" s="9"/>
+      <c r="AS1" s="8"/>
+      <c r="AX1" s="8"/>
     </row>
-    <row r="2" spans="2:50" s="8" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="3" spans="2:50" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="2:50" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="2:50" s="8" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="2:50" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="2:50" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="2:50" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="2:50" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="2:50" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="2:50" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="2:50" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="2:50" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="2:50" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="2:50" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="2:50" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="23" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="24" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="25" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" spans="2:118" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B97" s="10" t="s">
+    <row r="2" spans="2:50" s="7" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="3" spans="2:50" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:50" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="2:50" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="2:50" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="2:50" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="2:50" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="2:50" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="2:50" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="2:50" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="2:50" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="2:50" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="2:50" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="2:50" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="2:50" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" spans="2:118" s="12" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B97" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="11"/>
-      <c r="G97" s="11"/>
-      <c r="H97" s="11"/>
-      <c r="I97" s="11"/>
-      <c r="J97" s="11"/>
-      <c r="K97" s="11"/>
-      <c r="L97" s="11"/>
-      <c r="M97" s="11"/>
-      <c r="N97" s="11"/>
-      <c r="O97" s="11"/>
-      <c r="P97" s="11"/>
-      <c r="Q97" s="11"/>
-      <c r="R97" s="11"/>
-      <c r="S97" s="11"/>
-      <c r="T97" s="11"/>
-      <c r="U97" s="11"/>
-      <c r="V97" s="11"/>
-      <c r="W97" s="11"/>
-      <c r="X97" s="11"/>
-      <c r="Y97" s="11"/>
-      <c r="Z97" s="11"/>
-      <c r="AA97" s="11"/>
-      <c r="AB97" s="11"/>
-      <c r="AC97" s="11"/>
-      <c r="AD97" s="11"/>
-      <c r="AE97" s="11"/>
-      <c r="AF97" s="11"/>
-      <c r="AG97" s="11"/>
-      <c r="AH97" s="11"/>
-      <c r="AI97" s="11"/>
-      <c r="AJ97" s="11"/>
-      <c r="AK97" s="11"/>
-      <c r="AL97" s="11"/>
-      <c r="AM97" s="11"/>
-      <c r="AN97" s="11"/>
-      <c r="AO97" s="11"/>
-      <c r="AP97" s="11"/>
-      <c r="AQ97" s="11"/>
-      <c r="AR97" s="11"/>
-      <c r="AS97" s="11"/>
-      <c r="AT97" s="11"/>
-      <c r="AU97" s="11"/>
-      <c r="AV97" s="11"/>
-      <c r="AW97" s="11"/>
-      <c r="AX97" s="11"/>
-      <c r="AY97" s="11"/>
-      <c r="AZ97" s="11"/>
-      <c r="BA97" s="11"/>
-      <c r="BB97" s="11"/>
-      <c r="BC97" s="11"/>
-      <c r="BD97" s="11"/>
-      <c r="BE97" s="11"/>
-      <c r="BF97" s="11"/>
-      <c r="BG97" s="11"/>
-      <c r="BH97" s="11"/>
-      <c r="BI97" s="11"/>
-      <c r="BJ97" s="11"/>
-      <c r="BK97" s="11"/>
-      <c r="BL97" s="11"/>
-      <c r="BM97" s="11"/>
-      <c r="BN97" s="11"/>
-      <c r="BO97" s="11"/>
-      <c r="BP97" s="11"/>
-      <c r="BQ97" s="11"/>
-      <c r="BR97" s="11"/>
-      <c r="BS97" s="11"/>
-      <c r="BT97" s="11"/>
-      <c r="BU97" s="11"/>
-      <c r="BV97" s="11"/>
-      <c r="BW97" s="11"/>
-      <c r="BX97" s="11"/>
-      <c r="BY97" s="11"/>
-      <c r="BZ97" s="11"/>
-      <c r="CA97" s="11"/>
-      <c r="CB97" s="11"/>
-      <c r="CC97" s="11"/>
-      <c r="CD97" s="11"/>
-      <c r="CE97" s="11"/>
-      <c r="CF97" s="11"/>
-      <c r="CG97" s="11"/>
-      <c r="CH97" s="11"/>
-      <c r="CI97" s="11"/>
-      <c r="CJ97" s="11"/>
-      <c r="CK97" s="11"/>
-      <c r="CL97" s="11"/>
-      <c r="CM97" s="11"/>
-      <c r="CN97" s="11"/>
-      <c r="CO97" s="11"/>
-      <c r="CP97" s="11"/>
-      <c r="CQ97" s="11"/>
-      <c r="CR97" s="11"/>
-      <c r="CS97" s="11"/>
-      <c r="CT97" s="11"/>
-      <c r="CU97" s="11"/>
-      <c r="CV97" s="11"/>
-      <c r="CW97" s="11"/>
-      <c r="CX97" s="11"/>
-      <c r="CY97" s="11"/>
-      <c r="CZ97" s="11"/>
-      <c r="DA97" s="11"/>
-      <c r="DB97" s="11"/>
-      <c r="DC97" s="11"/>
-      <c r="DD97" s="11"/>
-      <c r="DE97" s="11"/>
-      <c r="DF97" s="11"/>
-      <c r="DG97" s="11"/>
-      <c r="DH97" s="11"/>
-      <c r="DI97" s="11"/>
-      <c r="DJ97" s="11"/>
-      <c r="DK97" s="11"/>
-      <c r="DL97" s="11"/>
-      <c r="DM97" s="11"/>
-      <c r="DN97" s="12"/>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="10"/>
+      <c r="J97" s="10"/>
+      <c r="K97" s="10"/>
+      <c r="L97" s="10"/>
+      <c r="M97" s="10"/>
+      <c r="N97" s="10"/>
+      <c r="O97" s="10"/>
+      <c r="P97" s="10"/>
+      <c r="Q97" s="10"/>
+      <c r="R97" s="10"/>
+      <c r="S97" s="10"/>
+      <c r="T97" s="10"/>
+      <c r="U97" s="10"/>
+      <c r="V97" s="10"/>
+      <c r="W97" s="10"/>
+      <c r="X97" s="10"/>
+      <c r="Y97" s="10"/>
+      <c r="Z97" s="10"/>
+      <c r="AA97" s="10"/>
+      <c r="AB97" s="10"/>
+      <c r="AC97" s="10"/>
+      <c r="AD97" s="10"/>
+      <c r="AE97" s="10"/>
+      <c r="AF97" s="10"/>
+      <c r="AG97" s="10"/>
+      <c r="AH97" s="10"/>
+      <c r="AI97" s="10"/>
+      <c r="AJ97" s="10"/>
+      <c r="AK97" s="10"/>
+      <c r="AL97" s="10"/>
+      <c r="AM97" s="10"/>
+      <c r="AN97" s="10"/>
+      <c r="AO97" s="10"/>
+      <c r="AP97" s="10"/>
+      <c r="AQ97" s="10"/>
+      <c r="AR97" s="10"/>
+      <c r="AS97" s="10"/>
+      <c r="AT97" s="10"/>
+      <c r="AU97" s="10"/>
+      <c r="AV97" s="10"/>
+      <c r="AW97" s="10"/>
+      <c r="AX97" s="10"/>
+      <c r="AY97" s="10"/>
+      <c r="AZ97" s="10"/>
+      <c r="BA97" s="10"/>
+      <c r="BB97" s="10"/>
+      <c r="BC97" s="10"/>
+      <c r="BD97" s="10"/>
+      <c r="BE97" s="10"/>
+      <c r="BF97" s="10"/>
+      <c r="BG97" s="10"/>
+      <c r="BH97" s="10"/>
+      <c r="BI97" s="10"/>
+      <c r="BJ97" s="10"/>
+      <c r="BK97" s="10"/>
+      <c r="BL97" s="10"/>
+      <c r="BM97" s="10"/>
+      <c r="BN97" s="10"/>
+      <c r="BO97" s="10"/>
+      <c r="BP97" s="10"/>
+      <c r="BQ97" s="10"/>
+      <c r="BR97" s="10"/>
+      <c r="BS97" s="10"/>
+      <c r="BT97" s="10"/>
+      <c r="BU97" s="10"/>
+      <c r="BV97" s="10"/>
+      <c r="BW97" s="10"/>
+      <c r="BX97" s="10"/>
+      <c r="BY97" s="10"/>
+      <c r="BZ97" s="10"/>
+      <c r="CA97" s="10"/>
+      <c r="CB97" s="10"/>
+      <c r="CC97" s="10"/>
+      <c r="CD97" s="10"/>
+      <c r="CE97" s="10"/>
+      <c r="CF97" s="10"/>
+      <c r="CG97" s="10"/>
+      <c r="CH97" s="10"/>
+      <c r="CI97" s="10"/>
+      <c r="CJ97" s="10"/>
+      <c r="CK97" s="10"/>
+      <c r="CL97" s="10"/>
+      <c r="CM97" s="10"/>
+      <c r="CN97" s="10"/>
+      <c r="CO97" s="10"/>
+      <c r="CP97" s="10"/>
+      <c r="CQ97" s="10"/>
+      <c r="CR97" s="10"/>
+      <c r="CS97" s="10"/>
+      <c r="CT97" s="10"/>
+      <c r="CU97" s="10"/>
+      <c r="CV97" s="10"/>
+      <c r="CW97" s="10"/>
+      <c r="CX97" s="10"/>
+      <c r="CY97" s="10"/>
+      <c r="CZ97" s="10"/>
+      <c r="DA97" s="10"/>
+      <c r="DB97" s="10"/>
+      <c r="DC97" s="10"/>
+      <c r="DD97" s="10"/>
+      <c r="DE97" s="10"/>
+      <c r="DF97" s="10"/>
+      <c r="DG97" s="10"/>
+      <c r="DH97" s="10"/>
+      <c r="DI97" s="10"/>
+      <c r="DJ97" s="10"/>
+      <c r="DK97" s="10"/>
+      <c r="DL97" s="10"/>
+      <c r="DM97" s="10"/>
+      <c r="DN97" s="11"/>
     </row>
-    <row r="98" spans="2:118" s="13" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="14"/>
-      <c r="C98" s="15"/>
-      <c r="D98" s="15"/>
-      <c r="E98" s="15"/>
-      <c r="F98" s="15"/>
-      <c r="G98" s="15"/>
-      <c r="H98" s="15"/>
-      <c r="I98" s="15"/>
-      <c r="J98" s="15"/>
-      <c r="K98" s="15"/>
-      <c r="L98" s="15"/>
-      <c r="M98" s="15"/>
-      <c r="N98" s="15"/>
-      <c r="O98" s="15"/>
-      <c r="P98" s="15"/>
-      <c r="Q98" s="15"/>
-      <c r="R98" s="15"/>
-      <c r="S98" s="15"/>
-      <c r="T98" s="15"/>
-      <c r="U98" s="15"/>
-      <c r="V98" s="15"/>
-      <c r="W98" s="15"/>
-      <c r="X98" s="15"/>
-      <c r="Y98" s="15"/>
-      <c r="Z98" s="15"/>
-      <c r="AA98" s="15"/>
-      <c r="AB98" s="15"/>
-      <c r="AC98" s="15"/>
-      <c r="AD98" s="15"/>
-      <c r="AE98" s="15"/>
-      <c r="AF98" s="15"/>
-      <c r="AG98" s="15"/>
-      <c r="AH98" s="15"/>
-      <c r="AI98" s="15"/>
-      <c r="AJ98" s="15"/>
-      <c r="AK98" s="15"/>
-      <c r="AL98" s="15"/>
-      <c r="AM98" s="15"/>
-      <c r="AN98" s="15"/>
-      <c r="AO98" s="15"/>
-      <c r="AP98" s="15"/>
-      <c r="AQ98" s="15"/>
-      <c r="AR98" s="15"/>
-      <c r="AS98" s="15"/>
-      <c r="AT98" s="15"/>
-      <c r="AU98" s="15"/>
-      <c r="AV98" s="15"/>
-      <c r="AW98" s="15"/>
-      <c r="AX98" s="15"/>
-      <c r="AY98" s="15"/>
-      <c r="AZ98" s="15"/>
-      <c r="BA98" s="15"/>
-      <c r="BB98" s="15"/>
-      <c r="BC98" s="15"/>
-      <c r="BD98" s="15"/>
-      <c r="BE98" s="15"/>
-      <c r="BF98" s="15"/>
-      <c r="BG98" s="15"/>
-      <c r="BH98" s="15"/>
-      <c r="BI98" s="15"/>
-      <c r="BJ98" s="15"/>
-      <c r="BK98" s="15"/>
-      <c r="BL98" s="15"/>
-      <c r="BM98" s="15"/>
-      <c r="BN98" s="15"/>
-      <c r="BO98" s="15"/>
-      <c r="BP98" s="15"/>
-      <c r="BQ98" s="15"/>
-      <c r="BR98" s="15"/>
-      <c r="BS98" s="15"/>
-      <c r="BT98" s="15"/>
-      <c r="BU98" s="15"/>
-      <c r="BV98" s="15"/>
-      <c r="BW98" s="15"/>
-      <c r="BX98" s="15"/>
-      <c r="BY98" s="15"/>
-      <c r="BZ98" s="15"/>
-      <c r="CA98" s="15"/>
-      <c r="CB98" s="15"/>
-      <c r="CC98" s="15"/>
-      <c r="CD98" s="15"/>
-      <c r="CE98" s="15"/>
-      <c r="CF98" s="15"/>
-      <c r="CG98" s="15"/>
-      <c r="CH98" s="15"/>
-      <c r="CI98" s="15"/>
-      <c r="CJ98" s="15"/>
-      <c r="CK98" s="15"/>
-      <c r="CL98" s="15"/>
-      <c r="CM98" s="15"/>
-      <c r="CN98" s="15"/>
-      <c r="CO98" s="15"/>
-      <c r="CP98" s="15"/>
-      <c r="CQ98" s="15"/>
-      <c r="CR98" s="15"/>
-      <c r="CS98" s="15"/>
-      <c r="CT98" s="15"/>
-      <c r="CU98" s="15"/>
-      <c r="CV98" s="15"/>
-      <c r="CW98" s="15"/>
-      <c r="CX98" s="15"/>
-      <c r="CY98" s="15"/>
-      <c r="CZ98" s="15"/>
-      <c r="DA98" s="15"/>
-      <c r="DB98" s="15"/>
-      <c r="DC98" s="15"/>
-      <c r="DD98" s="15"/>
-      <c r="DE98" s="15"/>
-      <c r="DF98" s="15"/>
-      <c r="DG98" s="15"/>
-      <c r="DH98" s="15"/>
-      <c r="DI98" s="15"/>
-      <c r="DJ98" s="15"/>
-      <c r="DK98" s="15"/>
-      <c r="DL98" s="15"/>
-      <c r="DM98" s="15"/>
-      <c r="DN98" s="16"/>
+    <row r="98" spans="2:118" s="12" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B98" s="13"/>
+      <c r="DN98" s="14"/>
     </row>
-    <row r="99" spans="2:118" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="14"/>
-      <c r="C99" s="15" t="s">
+    <row r="99" spans="2:118" s="12" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B99" s="13"/>
+      <c r="C99" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D99" s="15"/>
-      <c r="E99" s="15"/>
-      <c r="F99" s="15"/>
-      <c r="G99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="15"/>
-      <c r="K99" s="15"/>
-      <c r="L99" s="15"/>
-      <c r="M99" s="15"/>
-      <c r="N99" s="15"/>
-      <c r="O99" s="15"/>
-      <c r="P99" s="15"/>
-      <c r="Q99" s="15"/>
-      <c r="R99" s="15"/>
-      <c r="S99" s="15"/>
-      <c r="T99" s="15"/>
-      <c r="U99" s="15"/>
-      <c r="V99" s="15"/>
-      <c r="W99" s="15"/>
-      <c r="X99" s="15" t="s">
+      <c r="X99" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="Y99" s="15"/>
-      <c r="Z99" s="15"/>
-      <c r="AA99" s="15"/>
-      <c r="AB99" s="15"/>
-      <c r="AC99" s="15"/>
-      <c r="AD99" s="15"/>
-      <c r="AE99" s="15"/>
-      <c r="AF99" s="15"/>
-      <c r="AG99" s="15"/>
-      <c r="AH99" s="15"/>
-      <c r="AI99" s="15"/>
-      <c r="AJ99" s="15"/>
-      <c r="AK99" s="15"/>
-      <c r="AL99" s="15"/>
-      <c r="AM99" s="15"/>
-      <c r="AN99" s="15"/>
-      <c r="AO99" s="15"/>
-      <c r="AP99" s="15"/>
-      <c r="AQ99" s="15"/>
-      <c r="AR99" s="15"/>
-      <c r="AS99" s="15"/>
-      <c r="AT99" s="15"/>
-      <c r="AU99" s="15"/>
-      <c r="AV99" s="15"/>
-      <c r="AW99" s="15"/>
-      <c r="AX99" s="15"/>
-      <c r="AY99" s="15" t="s">
+      <c r="AY99" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="AZ99" s="15"/>
-      <c r="BA99" s="15"/>
-      <c r="BB99" s="15"/>
-      <c r="BC99" s="15"/>
-      <c r="BD99" s="15"/>
-      <c r="BE99" s="15"/>
-      <c r="BF99" s="15"/>
-      <c r="BG99" s="15"/>
-      <c r="BH99" s="15"/>
-      <c r="BI99" s="15"/>
-      <c r="BJ99" s="15"/>
-      <c r="BK99" s="15"/>
-      <c r="BL99" s="15"/>
-      <c r="BM99" s="15"/>
-      <c r="BN99" s="15"/>
-      <c r="BO99" s="15"/>
-      <c r="BP99" s="15"/>
-      <c r="BQ99" s="15"/>
-      <c r="BT99" s="15" t="s">
+      <c r="BT99" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="BU99" s="15"/>
-      <c r="BV99" s="15"/>
-      <c r="BW99" s="15"/>
-      <c r="BX99" s="15"/>
-      <c r="BY99" s="15"/>
-      <c r="BZ99" s="15"/>
-      <c r="CA99" s="15"/>
-      <c r="CB99" s="15"/>
-      <c r="CC99" s="15"/>
-      <c r="CD99" s="15"/>
-      <c r="CE99" s="15"/>
-      <c r="CF99" s="15"/>
-      <c r="CG99" s="15"/>
-      <c r="CH99" s="15"/>
-      <c r="CI99" s="15"/>
-      <c r="CJ99" s="15"/>
-      <c r="CK99" s="15"/>
-      <c r="CL99" s="15"/>
-      <c r="CM99" s="15"/>
-      <c r="CN99" s="15"/>
-      <c r="CO99" s="15"/>
-      <c r="CP99" s="15"/>
-      <c r="CQ99" s="15"/>
-      <c r="CR99" s="15"/>
-      <c r="CS99" s="15"/>
-      <c r="CT99" s="15"/>
-      <c r="CU99" s="15"/>
-      <c r="CV99" s="15"/>
-      <c r="CW99" s="15"/>
-      <c r="CX99" s="15"/>
-      <c r="CY99" s="15"/>
-      <c r="CZ99" s="15"/>
-      <c r="DA99" s="15"/>
-      <c r="DB99" s="15"/>
-      <c r="DC99" s="15" t="s">
+      <c r="DC99" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="DD99" s="15"/>
-      <c r="DE99" s="15"/>
-      <c r="DG99" s="15"/>
-      <c r="DH99" s="15"/>
-      <c r="DI99" s="15"/>
-      <c r="DJ99" s="15"/>
-      <c r="DK99" s="15"/>
-      <c r="DL99" s="15"/>
-      <c r="DM99" s="15"/>
-      <c r="DN99" s="16"/>
+      <c r="DN99" s="14"/>
     </row>
-    <row r="100" spans="2:118" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B100" s="14"/>
-      <c r="C100" s="15" t="s">
+    <row r="100" spans="2:118" s="12" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B100" s="13"/>
+      <c r="C100" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D100" s="15"/>
-      <c r="E100" s="15"/>
-      <c r="F100" s="15"/>
-      <c r="G100" s="15"/>
-      <c r="I100" s="15"/>
-      <c r="J100" s="15"/>
-      <c r="K100" s="15"/>
-      <c r="L100" s="15"/>
-      <c r="M100" s="15"/>
-      <c r="N100" s="15"/>
-      <c r="O100" s="15"/>
-      <c r="P100" s="15"/>
-      <c r="Q100" s="15"/>
-      <c r="R100" s="15"/>
-      <c r="S100" s="15"/>
-      <c r="T100" s="15"/>
-      <c r="U100" s="15"/>
-      <c r="V100" s="15"/>
-      <c r="W100" s="15"/>
-      <c r="X100" s="15"/>
-      <c r="Y100" s="15"/>
-      <c r="Z100" s="15"/>
-      <c r="AA100" s="15"/>
-      <c r="AB100" s="15"/>
-      <c r="AC100" s="15"/>
-      <c r="AD100" s="15"/>
-      <c r="AE100" s="15"/>
-      <c r="AF100" s="15"/>
-      <c r="AG100" s="15"/>
-      <c r="AH100" s="15"/>
-      <c r="AI100" s="15"/>
-      <c r="AJ100" s="15"/>
-      <c r="AK100" s="15"/>
-      <c r="AL100" s="15"/>
-      <c r="AM100" s="15"/>
-      <c r="AN100" s="15"/>
-      <c r="AO100" s="15"/>
-      <c r="AP100" s="15"/>
-      <c r="AQ100" s="15"/>
-      <c r="AR100" s="15"/>
-      <c r="AS100" s="15"/>
-      <c r="AT100" s="15"/>
-      <c r="AU100" s="15"/>
-      <c r="AV100" s="15"/>
-      <c r="AW100" s="15"/>
-      <c r="AX100" s="15"/>
-      <c r="AY100" s="15"/>
-      <c r="AZ100" s="15"/>
-      <c r="BA100" s="15"/>
-      <c r="BB100" s="15"/>
-      <c r="BC100" s="15"/>
-      <c r="BD100" s="15"/>
-      <c r="BE100" s="15"/>
-      <c r="BF100" s="15"/>
-      <c r="BG100" s="15"/>
-      <c r="BH100" s="15"/>
-      <c r="BI100" s="15"/>
-      <c r="BJ100" s="15"/>
-      <c r="BK100" s="15"/>
-      <c r="BL100" s="15"/>
-      <c r="BM100" s="15"/>
-      <c r="BN100" s="15"/>
-      <c r="BO100" s="15"/>
-      <c r="BP100" s="15"/>
-      <c r="BQ100" s="15"/>
-      <c r="BR100" s="15"/>
-      <c r="BS100" s="15"/>
-      <c r="BT100" s="15"/>
-      <c r="BU100" s="15"/>
-      <c r="BV100" s="15"/>
-      <c r="BW100" s="15"/>
-      <c r="BX100" s="15"/>
-      <c r="BY100" s="15"/>
-      <c r="BZ100" s="15"/>
-      <c r="CA100" s="15"/>
-      <c r="CB100" s="15"/>
-      <c r="CC100" s="15"/>
-      <c r="CD100" s="15"/>
-      <c r="CE100" s="15"/>
-      <c r="CF100" s="15"/>
-      <c r="CG100" s="15"/>
-      <c r="CH100" s="15"/>
-      <c r="CI100" s="15"/>
-      <c r="CJ100" s="15"/>
-      <c r="CK100" s="15"/>
-      <c r="CL100" s="15"/>
-      <c r="CM100" s="15"/>
-      <c r="CN100" s="15"/>
-      <c r="CO100" s="15"/>
-      <c r="CP100" s="15"/>
-      <c r="CQ100" s="15"/>
-      <c r="CR100" s="15"/>
-      <c r="CS100" s="15"/>
-      <c r="CT100" s="15"/>
-      <c r="CU100" s="15"/>
-      <c r="CV100" s="15"/>
-      <c r="CW100" s="15"/>
-      <c r="CX100" s="15"/>
-      <c r="CY100" s="15"/>
-      <c r="CZ100" s="15"/>
-      <c r="DA100" s="15"/>
-      <c r="DB100" s="15"/>
-      <c r="DC100" s="15"/>
-      <c r="DD100" s="15" t="s">
+      <c r="DD100" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="DE100" s="15"/>
-      <c r="DG100" s="15"/>
-      <c r="DH100" s="15"/>
-      <c r="DI100" s="15"/>
-      <c r="DJ100" s="15"/>
-      <c r="DK100" s="15"/>
-      <c r="DL100" s="15"/>
-      <c r="DM100" s="15"/>
-      <c r="DN100" s="16"/>
+      <c r="DN100" s="14"/>
     </row>
-    <row r="101" spans="2:118" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B101" s="14"/>
-      <c r="C101" s="15"/>
-      <c r="D101" s="15"/>
-      <c r="E101" s="15"/>
-      <c r="F101" s="15"/>
-      <c r="G101" s="15"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="15"/>
-      <c r="K101" s="15"/>
-      <c r="L101" s="15"/>
-      <c r="M101" s="15"/>
-      <c r="N101" s="15"/>
-      <c r="O101" s="15"/>
-      <c r="P101" s="15"/>
-      <c r="Q101" s="15"/>
-      <c r="R101" s="15"/>
-      <c r="S101" s="15"/>
-      <c r="T101" s="15"/>
-      <c r="U101" s="15"/>
-      <c r="V101" s="15"/>
-      <c r="W101" s="15"/>
-      <c r="X101" s="15"/>
-      <c r="Y101" s="15"/>
-      <c r="Z101" s="15"/>
-      <c r="AA101" s="15"/>
-      <c r="AB101" s="15"/>
-      <c r="AC101" s="15"/>
-      <c r="AD101" s="15"/>
-      <c r="AE101" s="15"/>
-      <c r="AF101" s="15"/>
-      <c r="AG101" s="15"/>
-      <c r="AH101" s="15"/>
-      <c r="AI101" s="15"/>
-      <c r="AJ101" s="15"/>
-      <c r="AK101" s="15"/>
-      <c r="AL101" s="15"/>
-      <c r="AM101" s="15"/>
-      <c r="AN101" s="15"/>
-      <c r="AO101" s="15"/>
-      <c r="AP101" s="15"/>
-      <c r="AQ101" s="15"/>
-      <c r="AR101" s="15"/>
-      <c r="AS101" s="15"/>
-      <c r="AT101" s="15"/>
-      <c r="AU101" s="15"/>
-      <c r="AV101" s="15"/>
-      <c r="AW101" s="15"/>
-      <c r="AX101" s="15"/>
-      <c r="AY101" s="15"/>
-      <c r="AZ101" s="15"/>
-      <c r="BA101" s="15"/>
-      <c r="BB101" s="15"/>
-      <c r="BC101" s="15"/>
-      <c r="BD101" s="15"/>
-      <c r="BE101" s="15"/>
-      <c r="BF101" s="15"/>
-      <c r="BG101" s="15"/>
-      <c r="BH101" s="15"/>
-      <c r="BI101" s="15"/>
-      <c r="BJ101" s="15"/>
-      <c r="BK101" s="15"/>
-      <c r="BL101" s="15"/>
-      <c r="BM101" s="15"/>
-      <c r="BN101" s="15"/>
-      <c r="BO101" s="15"/>
-      <c r="BP101" s="15"/>
-      <c r="BQ101" s="15"/>
-      <c r="BR101" s="15"/>
-      <c r="BS101" s="15"/>
-      <c r="BT101" s="15"/>
-      <c r="BU101" s="15"/>
-      <c r="BV101" s="15"/>
-      <c r="BW101" s="15"/>
-      <c r="BX101" s="15"/>
-      <c r="BY101" s="15"/>
-      <c r="BZ101" s="15"/>
-      <c r="CA101" s="15"/>
-      <c r="CB101" s="15"/>
-      <c r="CC101" s="15"/>
-      <c r="CD101" s="15"/>
-      <c r="CE101" s="15"/>
-      <c r="CF101" s="15"/>
-      <c r="CG101" s="15"/>
-      <c r="CH101" s="15"/>
-      <c r="CI101" s="15"/>
-      <c r="CJ101" s="15"/>
-      <c r="CK101" s="15"/>
-      <c r="CL101" s="15"/>
-      <c r="CM101" s="15"/>
-      <c r="CN101" s="15"/>
-      <c r="CO101" s="15"/>
-      <c r="CP101" s="15"/>
-      <c r="CQ101" s="15"/>
-      <c r="CR101" s="15"/>
-      <c r="CS101" s="15"/>
-      <c r="CT101" s="15"/>
-      <c r="CU101" s="15"/>
-      <c r="CV101" s="15"/>
-      <c r="CW101" s="15"/>
-      <c r="CX101" s="15"/>
-      <c r="CY101" s="15"/>
-      <c r="CZ101" s="15"/>
-      <c r="DA101" s="15"/>
-      <c r="DB101" s="15"/>
-      <c r="DC101" s="15"/>
-      <c r="DD101" s="15" t="s">
+    <row r="101" spans="2:118" s="12" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B101" s="13"/>
+      <c r="DD101" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="DE101" s="15"/>
-      <c r="DG101" s="15"/>
-      <c r="DH101" s="15"/>
-      <c r="DI101" s="15"/>
-      <c r="DJ101" s="15"/>
-      <c r="DK101" s="15"/>
-      <c r="DL101" s="15"/>
-      <c r="DM101" s="15"/>
-      <c r="DN101" s="16"/>
+      <c r="DN101" s="14"/>
     </row>
-    <row r="102" spans="2:118" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B102" s="17"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="18"/>
-      <c r="E102" s="18"/>
-      <c r="F102" s="18"/>
-      <c r="G102" s="18"/>
-      <c r="H102" s="18"/>
-      <c r="I102" s="18"/>
-      <c r="J102" s="18"/>
-      <c r="K102" s="18"/>
-      <c r="L102" s="18"/>
-      <c r="M102" s="18"/>
-      <c r="N102" s="18"/>
-      <c r="O102" s="18"/>
-      <c r="P102" s="18"/>
-      <c r="Q102" s="18"/>
-      <c r="R102" s="18"/>
-      <c r="S102" s="18"/>
-      <c r="T102" s="18"/>
-      <c r="U102" s="18"/>
-      <c r="V102" s="18"/>
-      <c r="W102" s="18"/>
-      <c r="X102" s="18"/>
-      <c r="Y102" s="18"/>
-      <c r="Z102" s="18"/>
-      <c r="AA102" s="18"/>
-      <c r="AB102" s="18"/>
-      <c r="AC102" s="18"/>
-      <c r="AD102" s="18"/>
-      <c r="AE102" s="18"/>
-      <c r="AF102" s="18"/>
-      <c r="AG102" s="18"/>
-      <c r="AH102" s="18"/>
-      <c r="AI102" s="18"/>
-      <c r="AJ102" s="18"/>
-      <c r="AK102" s="18"/>
-      <c r="AL102" s="18"/>
-      <c r="AM102" s="18"/>
-      <c r="AN102" s="18"/>
-      <c r="AO102" s="18"/>
-      <c r="AP102" s="18"/>
-      <c r="AQ102" s="18"/>
-      <c r="AR102" s="18"/>
-      <c r="AS102" s="18"/>
-      <c r="AT102" s="18"/>
-      <c r="AU102" s="18"/>
-      <c r="AV102" s="18"/>
-      <c r="AW102" s="18"/>
-      <c r="AX102" s="18"/>
-      <c r="AY102" s="18"/>
-      <c r="AZ102" s="18"/>
-      <c r="BA102" s="18"/>
-      <c r="BB102" s="18"/>
-      <c r="BC102" s="18"/>
-      <c r="BD102" s="18"/>
-      <c r="BE102" s="18"/>
-      <c r="BF102" s="18"/>
-      <c r="BG102" s="18"/>
-      <c r="BH102" s="18"/>
-      <c r="BI102" s="18"/>
-      <c r="BJ102" s="18"/>
-      <c r="BK102" s="18"/>
-      <c r="BL102" s="18"/>
-      <c r="BM102" s="18"/>
-      <c r="BN102" s="18"/>
-      <c r="BO102" s="18"/>
-      <c r="BP102" s="18"/>
-      <c r="BQ102" s="18"/>
-      <c r="BR102" s="18"/>
-      <c r="BS102" s="18"/>
-      <c r="BT102" s="18"/>
-      <c r="BU102" s="18"/>
-      <c r="BV102" s="18"/>
-      <c r="BW102" s="18"/>
-      <c r="BX102" s="18"/>
-      <c r="BY102" s="18"/>
-      <c r="BZ102" s="18"/>
-      <c r="CA102" s="18"/>
-      <c r="CB102" s="18"/>
-      <c r="CC102" s="18"/>
-      <c r="CD102" s="18"/>
-      <c r="CE102" s="18"/>
-      <c r="CF102" s="18"/>
-      <c r="CG102" s="18"/>
-      <c r="CH102" s="18"/>
-      <c r="CI102" s="18"/>
-      <c r="CJ102" s="18"/>
-      <c r="CK102" s="18"/>
-      <c r="CL102" s="18"/>
-      <c r="CM102" s="18"/>
-      <c r="CN102" s="18"/>
-      <c r="CO102" s="18"/>
-      <c r="CP102" s="18"/>
-      <c r="CQ102" s="18"/>
-      <c r="CR102" s="18"/>
-      <c r="CS102" s="18"/>
-      <c r="CT102" s="18"/>
-      <c r="CU102" s="18"/>
-      <c r="CV102" s="18"/>
-      <c r="CW102" s="18"/>
-      <c r="CX102" s="18"/>
-      <c r="CY102" s="18"/>
-      <c r="CZ102" s="18"/>
-      <c r="DA102" s="18"/>
-      <c r="DB102" s="18"/>
-      <c r="DC102" s="18"/>
-      <c r="DD102" s="18"/>
-      <c r="DE102" s="18"/>
-      <c r="DF102" s="18"/>
-      <c r="DG102" s="18"/>
-      <c r="DH102" s="18"/>
-      <c r="DI102" s="18"/>
-      <c r="DJ102" s="18"/>
-      <c r="DK102" s="18"/>
-      <c r="DL102" s="18"/>
-      <c r="DM102" s="18"/>
-      <c r="DN102" s="19"/>
+    <row r="102" spans="2:118" s="12" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B102" s="15"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="16"/>
+      <c r="H102" s="16"/>
+      <c r="I102" s="16"/>
+      <c r="J102" s="16"/>
+      <c r="K102" s="16"/>
+      <c r="L102" s="16"/>
+      <c r="M102" s="16"/>
+      <c r="N102" s="16"/>
+      <c r="O102" s="16"/>
+      <c r="P102" s="16"/>
+      <c r="Q102" s="16"/>
+      <c r="R102" s="16"/>
+      <c r="S102" s="16"/>
+      <c r="T102" s="16"/>
+      <c r="U102" s="16"/>
+      <c r="V102" s="16"/>
+      <c r="W102" s="16"/>
+      <c r="X102" s="16"/>
+      <c r="Y102" s="16"/>
+      <c r="Z102" s="16"/>
+      <c r="AA102" s="16"/>
+      <c r="AB102" s="16"/>
+      <c r="AC102" s="16"/>
+      <c r="AD102" s="16"/>
+      <c r="AE102" s="16"/>
+      <c r="AF102" s="16"/>
+      <c r="AG102" s="16"/>
+      <c r="AH102" s="16"/>
+      <c r="AI102" s="16"/>
+      <c r="AJ102" s="16"/>
+      <c r="AK102" s="16"/>
+      <c r="AL102" s="16"/>
+      <c r="AM102" s="16"/>
+      <c r="AN102" s="16"/>
+      <c r="AO102" s="16"/>
+      <c r="AP102" s="16"/>
+      <c r="AQ102" s="16"/>
+      <c r="AR102" s="16"/>
+      <c r="AS102" s="16"/>
+      <c r="AT102" s="16"/>
+      <c r="AU102" s="16"/>
+      <c r="AV102" s="16"/>
+      <c r="AW102" s="16"/>
+      <c r="AX102" s="16"/>
+      <c r="AY102" s="16"/>
+      <c r="AZ102" s="16"/>
+      <c r="BA102" s="16"/>
+      <c r="BB102" s="16"/>
+      <c r="BC102" s="16"/>
+      <c r="BD102" s="16"/>
+      <c r="BE102" s="16"/>
+      <c r="BF102" s="16"/>
+      <c r="BG102" s="16"/>
+      <c r="BH102" s="16"/>
+      <c r="BI102" s="16"/>
+      <c r="BJ102" s="16"/>
+      <c r="BK102" s="16"/>
+      <c r="BL102" s="16"/>
+      <c r="BM102" s="16"/>
+      <c r="BN102" s="16"/>
+      <c r="BO102" s="16"/>
+      <c r="BP102" s="16"/>
+      <c r="BQ102" s="16"/>
+      <c r="BR102" s="16"/>
+      <c r="BS102" s="16"/>
+      <c r="BT102" s="16"/>
+      <c r="BU102" s="16"/>
+      <c r="BV102" s="16"/>
+      <c r="BW102" s="16"/>
+      <c r="BX102" s="16"/>
+      <c r="BY102" s="16"/>
+      <c r="BZ102" s="16"/>
+      <c r="CA102" s="16"/>
+      <c r="CB102" s="16"/>
+      <c r="CC102" s="16"/>
+      <c r="CD102" s="16"/>
+      <c r="CE102" s="16"/>
+      <c r="CF102" s="16"/>
+      <c r="CG102" s="16"/>
+      <c r="CH102" s="16"/>
+      <c r="CI102" s="16"/>
+      <c r="CJ102" s="16"/>
+      <c r="CK102" s="16"/>
+      <c r="CL102" s="16"/>
+      <c r="CM102" s="16"/>
+      <c r="CN102" s="16"/>
+      <c r="CO102" s="16"/>
+      <c r="CP102" s="16"/>
+      <c r="CQ102" s="16"/>
+      <c r="CR102" s="16"/>
+      <c r="CS102" s="16"/>
+      <c r="CT102" s="16"/>
+      <c r="CU102" s="16"/>
+      <c r="CV102" s="16"/>
+      <c r="CW102" s="16"/>
+      <c r="CX102" s="16"/>
+      <c r="CY102" s="16"/>
+      <c r="CZ102" s="16"/>
+      <c r="DA102" s="16"/>
+      <c r="DB102" s="16"/>
+      <c r="DC102" s="16"/>
+      <c r="DD102" s="16"/>
+      <c r="DE102" s="16"/>
+      <c r="DF102" s="16"/>
+      <c r="DG102" s="16"/>
+      <c r="DH102" s="16"/>
+      <c r="DI102" s="16"/>
+      <c r="DJ102" s="16"/>
+      <c r="DK102" s="16"/>
+      <c r="DL102" s="16"/>
+      <c r="DM102" s="16"/>
+      <c r="DN102" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" scale="59" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="57" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>